--- a/atndnc-mngmnt/documents/basic-design-documents/functional-design/screen-design/画面一覧.xlsx
+++ b/atndnc-mngmnt/documents/basic-design-documents/functional-design/screen-design/画面一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\atndnc-mngmnt\documents\basic-design-documents\functional-design\screen-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6667ECC9-7D27-4209-93CD-D379FB25232E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3A8858-5825-4DEC-A249-6AE03CBF8F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="180" windowWidth="21555" windowHeight="15870" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="180" windowWidth="21555" windowHeight="15870" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="167" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="136">
   <si>
     <t>作成者</t>
   </si>
@@ -1354,6 +1354,125 @@
     <t>初版</t>
     <rPh sb="0" eb="2">
       <t>ショハン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMS10500</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダッシュボード画面</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダッシュボード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リアルタイムな勤怠状況を把握できる画面</t>
+    <rPh sb="7" eb="9">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハアク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMF10500</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠状況表示</t>
+    <rPh sb="0" eb="4">
+      <t>キンタイジョウキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>所属毎に表示可能</t>
+    <rPh sb="0" eb="3">
+      <t>ショゾクゴト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMS10600</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通知設定画面</t>
+    <rPh sb="0" eb="4">
+      <t>ツウチセッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通知設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通知設定を行う画面</t>
+    <rPh sb="0" eb="4">
+      <t>ツウチセッテイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMF10600</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通知登録フォーム</t>
+    <rPh sb="0" eb="4">
+      <t>ツウチトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全従業員に画面上に通知を行える</t>
+    <rPh sb="0" eb="4">
+      <t>ゼンジュウギョウイン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1424,7 +1543,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1464,6 +1583,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1644,7 +1775,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1685,12 +1816,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1703,15 +1843,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1751,6 +1888,15 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1760,106 +1906,109 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2213,8 +2362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="18.75" customHeight="1"/>
@@ -2233,51 +2382,51 @@
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="R1" s="15"/>
+      <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
       <c r="P2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="72">
+      <c r="Q2" s="15">
         <v>44541</v>
       </c>
-      <c r="R2" s="20"/>
+      <c r="R2" s="16"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="6"/>
@@ -2333,43 +2482,43 @@
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="18">
         <v>44541</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="22" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -2385,13 +2534,13 @@
       <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
@@ -2407,13 +2556,13 @@
       <c r="A8" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -2429,13 +2578,13 @@
       <c r="A9" s="9">
         <v>5</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
@@ -2451,13 +2600,13 @@
       <c r="A10" s="9">
         <v>6</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
@@ -2473,13 +2622,13 @@
       <c r="A11" s="9">
         <v>7</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
@@ -2495,13 +2644,13 @@
       <c r="A12" s="9">
         <v>8</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
@@ -2517,13 +2666,13 @@
       <c r="A13" s="9">
         <v>9</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
@@ -2539,13 +2688,13 @@
       <c r="A14" s="9">
         <v>10</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
@@ -2561,13 +2710,13 @@
       <c r="A15" s="9">
         <v>11</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
@@ -2583,13 +2732,13 @@
       <c r="A16" s="9">
         <v>12</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
@@ -2605,13 +2754,13 @@
       <c r="A17" s="9">
         <v>13</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
@@ -2627,13 +2776,13 @@
       <c r="A18" s="9">
         <v>14</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
@@ -2649,13 +2798,13 @@
       <c r="A19" s="9">
         <v>15</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
@@ -2671,13 +2820,13 @@
       <c r="A20" s="9">
         <v>16</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
@@ -2693,13 +2842,13 @@
       <c r="A21" s="9">
         <v>17</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
@@ -2715,13 +2864,13 @@
       <c r="A22" s="9">
         <v>18</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
@@ -2870,8 +3019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BF36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:K2"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AY13" sqref="AY13:BF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
@@ -2893,65 +3042,65 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="41" t="s">
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="24" t="s">
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="30" t="s">
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="31"/>
-      <c r="AR1" s="31"/>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="27" t="s">
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="28"/>
-      <c r="AZ1" s="29"/>
-      <c r="BA1" s="30" t="s">
+      <c r="AW1" s="30"/>
+      <c r="AX1" s="30"/>
+      <c r="AY1" s="30"/>
+      <c r="AZ1" s="31"/>
+      <c r="BA1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="BB1" s="31"/>
-      <c r="BC1" s="31"/>
-      <c r="BD1" s="31"/>
-      <c r="BE1" s="31"/>
-      <c r="BF1" s="32"/>
+      <c r="BB1" s="33"/>
+      <c r="BC1" s="33"/>
+      <c r="BD1" s="33"/>
+      <c r="BE1" s="33"/>
+      <c r="BF1" s="34"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
       <c r="A2" s="11"/>
@@ -2965,63 +3114,63 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="27" t="s">
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="33">
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="35">
         <v>44541</v>
       </c>
-      <c r="AP2" s="31"/>
-      <c r="AQ2" s="31"/>
-      <c r="AR2" s="31"/>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="31"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="27" t="s">
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="34"/>
+      <c r="AV2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="28"/>
-      <c r="AZ2" s="29"/>
-      <c r="BA2" s="33">
+      <c r="AW2" s="30"/>
+      <c r="AX2" s="30"/>
+      <c r="AY2" s="30"/>
+      <c r="AZ2" s="31"/>
+      <c r="BA2" s="35">
         <v>44541</v>
       </c>
-      <c r="BB2" s="34"/>
-      <c r="BC2" s="34"/>
-      <c r="BD2" s="34"/>
-      <c r="BE2" s="34"/>
-      <c r="BF2" s="35"/>
+      <c r="BB2" s="36"/>
+      <c r="BC2" s="36"/>
+      <c r="BD2" s="36"/>
+      <c r="BE2" s="36"/>
+      <c r="BF2" s="37"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
       <c r="A3" s="4"/>
@@ -3043,2288 +3192,2316 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:58" ht="15" customHeight="1">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52" t="s">
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52" t="s">
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52"/>
-      <c r="AH4" s="52"/>
-      <c r="AI4" s="52"/>
-      <c r="AJ4" s="52"/>
-      <c r="AK4" s="52"/>
-      <c r="AL4" s="52"/>
-      <c r="AM4" s="52"/>
-      <c r="AN4" s="52"/>
-      <c r="AO4" s="52" t="s">
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AP4" s="52"/>
-      <c r="AQ4" s="52"/>
-      <c r="AR4" s="52"/>
-      <c r="AS4" s="52"/>
-      <c r="AT4" s="52" t="s">
+      <c r="AP4" s="24"/>
+      <c r="AQ4" s="24"/>
+      <c r="AR4" s="24"/>
+      <c r="AS4" s="24"/>
+      <c r="AT4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="AU4" s="52"/>
-      <c r="AV4" s="52"/>
-      <c r="AW4" s="52"/>
-      <c r="AX4" s="52"/>
-      <c r="AY4" s="52" t="s">
+      <c r="AU4" s="24"/>
+      <c r="AV4" s="24"/>
+      <c r="AW4" s="24"/>
+      <c r="AX4" s="24"/>
+      <c r="AY4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="AZ4" s="52"/>
-      <c r="BA4" s="52"/>
-      <c r="BB4" s="52"/>
-      <c r="BC4" s="52"/>
-      <c r="BD4" s="52"/>
-      <c r="BE4" s="52"/>
-      <c r="BF4" s="52"/>
+      <c r="AZ4" s="24"/>
+      <c r="BA4" s="24"/>
+      <c r="BB4" s="24"/>
+      <c r="BC4" s="24"/>
+      <c r="BD4" s="24"/>
+      <c r="BE4" s="24"/>
+      <c r="BF4" s="24"/>
     </row>
     <row r="5" spans="1:58" ht="97.5" customHeight="1">
-      <c r="A5" s="53">
-        <f>ROW()-4</f>
+      <c r="A5" s="51">
+        <f t="shared" ref="A5:A22" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="49" t="s">
+      <c r="B5" s="52"/>
+      <c r="C5" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49" t="s">
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="49" t="s">
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="AD5" s="49"/>
-      <c r="AE5" s="49"/>
-      <c r="AF5" s="49"/>
-      <c r="AG5" s="49"/>
-      <c r="AH5" s="49"/>
-      <c r="AI5" s="49"/>
-      <c r="AJ5" s="49"/>
-      <c r="AK5" s="49"/>
-      <c r="AL5" s="49"/>
-      <c r="AM5" s="49"/>
-      <c r="AN5" s="49"/>
-      <c r="AO5" s="49" t="s">
+      <c r="AD5" s="44"/>
+      <c r="AE5" s="44"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="44"/>
+      <c r="AH5" s="44"/>
+      <c r="AI5" s="44"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="44"/>
+      <c r="AL5" s="44"/>
+      <c r="AM5" s="44"/>
+      <c r="AN5" s="44"/>
+      <c r="AO5" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="AP5" s="49"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="49"/>
-      <c r="AS5" s="49"/>
-      <c r="AT5" s="49" t="s">
+      <c r="AP5" s="44"/>
+      <c r="AQ5" s="44"/>
+      <c r="AR5" s="44"/>
+      <c r="AS5" s="44"/>
+      <c r="AT5" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AU5" s="49"/>
-      <c r="AV5" s="49"/>
-      <c r="AW5" s="49"/>
-      <c r="AX5" s="49"/>
-      <c r="AY5" s="46" t="s">
+      <c r="AU5" s="44"/>
+      <c r="AV5" s="44"/>
+      <c r="AW5" s="44"/>
+      <c r="AX5" s="44"/>
+      <c r="AY5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="AZ5" s="47"/>
-      <c r="BA5" s="47"/>
-      <c r="BB5" s="47"/>
-      <c r="BC5" s="47"/>
-      <c r="BD5" s="47"/>
-      <c r="BE5" s="47"/>
-      <c r="BF5" s="48"/>
+      <c r="AZ5" s="46"/>
+      <c r="BA5" s="46"/>
+      <c r="BB5" s="46"/>
+      <c r="BC5" s="46"/>
+      <c r="BD5" s="46"/>
+      <c r="BE5" s="46"/>
+      <c r="BF5" s="47"/>
     </row>
     <row r="6" spans="1:58" ht="34.5" customHeight="1">
-      <c r="A6" s="55">
-        <f>ROW()-4</f>
+      <c r="A6" s="48">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="44" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44" t="s">
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44" t="s">
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="44" t="s">
+      <c r="X6" s="50"/>
+      <c r="Y6" s="50"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="50"/>
+      <c r="AB6" s="50"/>
+      <c r="AC6" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="44"/>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="44"/>
-      <c r="AI6" s="44"/>
-      <c r="AJ6" s="44"/>
-      <c r="AK6" s="44"/>
-      <c r="AL6" s="44"/>
-      <c r="AM6" s="44"/>
-      <c r="AN6" s="44"/>
-      <c r="AO6" s="44" t="s">
+      <c r="AD6" s="50"/>
+      <c r="AE6" s="50"/>
+      <c r="AF6" s="50"/>
+      <c r="AG6" s="50"/>
+      <c r="AH6" s="50"/>
+      <c r="AI6" s="50"/>
+      <c r="AJ6" s="50"/>
+      <c r="AK6" s="50"/>
+      <c r="AL6" s="50"/>
+      <c r="AM6" s="50"/>
+      <c r="AN6" s="50"/>
+      <c r="AO6" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AP6" s="44"/>
-      <c r="AQ6" s="44"/>
-      <c r="AR6" s="44"/>
-      <c r="AS6" s="44"/>
-      <c r="AT6" s="44" t="s">
+      <c r="AP6" s="50"/>
+      <c r="AQ6" s="50"/>
+      <c r="AR6" s="50"/>
+      <c r="AS6" s="50"/>
+      <c r="AT6" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="AU6" s="44"/>
-      <c r="AV6" s="44"/>
-      <c r="AW6" s="44"/>
-      <c r="AX6" s="44"/>
-      <c r="AY6" s="44" t="s">
+      <c r="AU6" s="50"/>
+      <c r="AV6" s="50"/>
+      <c r="AW6" s="50"/>
+      <c r="AX6" s="50"/>
+      <c r="AY6" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="AZ6" s="44"/>
-      <c r="BA6" s="44"/>
-      <c r="BB6" s="44"/>
-      <c r="BC6" s="44"/>
-      <c r="BD6" s="44"/>
-      <c r="BE6" s="44"/>
-      <c r="BF6" s="44"/>
+      <c r="AZ6" s="50"/>
+      <c r="BA6" s="50"/>
+      <c r="BB6" s="50"/>
+      <c r="BC6" s="50"/>
+      <c r="BD6" s="50"/>
+      <c r="BE6" s="50"/>
+      <c r="BF6" s="50"/>
     </row>
     <row r="7" spans="1:58" ht="63.75" customHeight="1">
-      <c r="A7" s="57">
-        <f>ROW()-4</f>
+      <c r="A7" s="54">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="45" t="s">
+      <c r="B7" s="55"/>
+      <c r="C7" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45" t="s">
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="45"/>
-      <c r="Z7" s="45"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="45"/>
-      <c r="AC7" s="45" t="s">
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="AD7" s="45"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="45"/>
-      <c r="AG7" s="45"/>
-      <c r="AH7" s="45"/>
-      <c r="AI7" s="45"/>
-      <c r="AJ7" s="45"/>
-      <c r="AK7" s="45"/>
-      <c r="AL7" s="45"/>
-      <c r="AM7" s="45"/>
-      <c r="AN7" s="45"/>
-      <c r="AO7" s="45" t="s">
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="53"/>
+      <c r="AI7" s="53"/>
+      <c r="AJ7" s="53"/>
+      <c r="AK7" s="53"/>
+      <c r="AL7" s="53"/>
+      <c r="AM7" s="53"/>
+      <c r="AN7" s="53"/>
+      <c r="AO7" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="AP7" s="45"/>
-      <c r="AQ7" s="45"/>
-      <c r="AR7" s="45"/>
-      <c r="AS7" s="45"/>
-      <c r="AT7" s="45" t="s">
+      <c r="AP7" s="53"/>
+      <c r="AQ7" s="53"/>
+      <c r="AR7" s="53"/>
+      <c r="AS7" s="53"/>
+      <c r="AT7" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="AU7" s="45"/>
-      <c r="AV7" s="45"/>
-      <c r="AW7" s="45"/>
-      <c r="AX7" s="45"/>
-      <c r="AY7" s="45" t="s">
+      <c r="AU7" s="53"/>
+      <c r="AV7" s="53"/>
+      <c r="AW7" s="53"/>
+      <c r="AX7" s="53"/>
+      <c r="AY7" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="AZ7" s="45"/>
-      <c r="BA7" s="45"/>
-      <c r="BB7" s="45"/>
-      <c r="BC7" s="45"/>
-      <c r="BD7" s="45"/>
-      <c r="BE7" s="45"/>
-      <c r="BF7" s="45"/>
+      <c r="AZ7" s="53"/>
+      <c r="BA7" s="53"/>
+      <c r="BB7" s="53"/>
+      <c r="BC7" s="53"/>
+      <c r="BD7" s="53"/>
+      <c r="BE7" s="53"/>
+      <c r="BF7" s="53"/>
     </row>
     <row r="8" spans="1:58" ht="46.5" customHeight="1">
-      <c r="A8" s="57">
-        <f>ROW()-4</f>
+      <c r="A8" s="54">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45" t="s">
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45" t="s">
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45" t="s">
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="45"/>
-      <c r="AM8" s="45"/>
-      <c r="AN8" s="45"/>
-      <c r="AO8" s="45" t="s">
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="53"/>
+      <c r="AK8" s="53"/>
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="53"/>
+      <c r="AN8" s="53"/>
+      <c r="AO8" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AP8" s="45"/>
-      <c r="AQ8" s="45"/>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="45"/>
-      <c r="AT8" s="45" t="s">
+      <c r="AP8" s="53"/>
+      <c r="AQ8" s="53"/>
+      <c r="AR8" s="53"/>
+      <c r="AS8" s="53"/>
+      <c r="AT8" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="AU8" s="45"/>
-      <c r="AV8" s="45"/>
-      <c r="AW8" s="45"/>
-      <c r="AX8" s="45"/>
-      <c r="AY8" s="45" t="s">
+      <c r="AU8" s="53"/>
+      <c r="AV8" s="53"/>
+      <c r="AW8" s="53"/>
+      <c r="AX8" s="53"/>
+      <c r="AY8" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="AZ8" s="45"/>
-      <c r="BA8" s="45"/>
-      <c r="BB8" s="45"/>
-      <c r="BC8" s="45"/>
-      <c r="BD8" s="45"/>
-      <c r="BE8" s="45"/>
-      <c r="BF8" s="45"/>
+      <c r="AZ8" s="53"/>
+      <c r="BA8" s="53"/>
+      <c r="BB8" s="53"/>
+      <c r="BC8" s="53"/>
+      <c r="BD8" s="53"/>
+      <c r="BE8" s="53"/>
+      <c r="BF8" s="53"/>
     </row>
     <row r="9" spans="1:58" ht="46.5" customHeight="1">
-      <c r="A9" s="57">
-        <f>ROW()-4</f>
+      <c r="A9" s="54">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="45" t="s">
+      <c r="B9" s="55"/>
+      <c r="C9" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45" t="s">
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45" t="s">
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45" t="s">
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="45"/>
-      <c r="AK9" s="45"/>
-      <c r="AL9" s="45"/>
-      <c r="AM9" s="45"/>
-      <c r="AN9" s="45"/>
-      <c r="AO9" s="45" t="s">
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="53"/>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="53"/>
+      <c r="AL9" s="53"/>
+      <c r="AM9" s="53"/>
+      <c r="AN9" s="53"/>
+      <c r="AO9" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="AP9" s="45"/>
-      <c r="AQ9" s="45"/>
-      <c r="AR9" s="45"/>
-      <c r="AS9" s="45"/>
-      <c r="AT9" s="45" t="s">
+      <c r="AP9" s="53"/>
+      <c r="AQ9" s="53"/>
+      <c r="AR9" s="53"/>
+      <c r="AS9" s="53"/>
+      <c r="AT9" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="AU9" s="45"/>
-      <c r="AV9" s="45"/>
-      <c r="AW9" s="45"/>
-      <c r="AX9" s="45"/>
-      <c r="AY9" s="45" t="s">
+      <c r="AU9" s="53"/>
+      <c r="AV9" s="53"/>
+      <c r="AW9" s="53"/>
+      <c r="AX9" s="53"/>
+      <c r="AY9" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="AZ9" s="45"/>
-      <c r="BA9" s="45"/>
-      <c r="BB9" s="45"/>
-      <c r="BC9" s="45"/>
-      <c r="BD9" s="45"/>
-      <c r="BE9" s="45"/>
-      <c r="BF9" s="45"/>
+      <c r="AZ9" s="53"/>
+      <c r="BA9" s="53"/>
+      <c r="BB9" s="53"/>
+      <c r="BC9" s="53"/>
+      <c r="BD9" s="53"/>
+      <c r="BE9" s="53"/>
+      <c r="BF9" s="53"/>
     </row>
     <row r="10" spans="1:58" ht="63.75" customHeight="1">
-      <c r="A10" s="59">
-        <f>ROW()-4</f>
+      <c r="A10" s="56">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="50" t="s">
+      <c r="B10" s="57"/>
+      <c r="C10" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50" t="s">
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50" t="s">
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="50"/>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50" t="s">
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="AD10" s="50"/>
-      <c r="AE10" s="50"/>
-      <c r="AF10" s="50"/>
-      <c r="AG10" s="50"/>
-      <c r="AH10" s="50"/>
-      <c r="AI10" s="50"/>
-      <c r="AJ10" s="50"/>
-      <c r="AK10" s="50"/>
-      <c r="AL10" s="50"/>
-      <c r="AM10" s="50"/>
-      <c r="AN10" s="50"/>
-      <c r="AO10" s="50" t="s">
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="58"/>
+      <c r="AF10" s="58"/>
+      <c r="AG10" s="58"/>
+      <c r="AH10" s="58"/>
+      <c r="AI10" s="58"/>
+      <c r="AJ10" s="58"/>
+      <c r="AK10" s="58"/>
+      <c r="AL10" s="58"/>
+      <c r="AM10" s="58"/>
+      <c r="AN10" s="58"/>
+      <c r="AO10" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="AP10" s="50"/>
-      <c r="AQ10" s="50"/>
-      <c r="AR10" s="50"/>
-      <c r="AS10" s="50"/>
-      <c r="AT10" s="50" t="s">
+      <c r="AP10" s="58"/>
+      <c r="AQ10" s="58"/>
+      <c r="AR10" s="58"/>
+      <c r="AS10" s="58"/>
+      <c r="AT10" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="AU10" s="50"/>
-      <c r="AV10" s="50"/>
-      <c r="AW10" s="50"/>
-      <c r="AX10" s="50"/>
-      <c r="AY10" s="50" t="s">
+      <c r="AU10" s="58"/>
+      <c r="AV10" s="58"/>
+      <c r="AW10" s="58"/>
+      <c r="AX10" s="58"/>
+      <c r="AY10" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="AZ10" s="50"/>
-      <c r="BA10" s="50"/>
-      <c r="BB10" s="50"/>
-      <c r="BC10" s="50"/>
-      <c r="BD10" s="50"/>
-      <c r="BE10" s="50"/>
-      <c r="BF10" s="50"/>
+      <c r="AZ10" s="58"/>
+      <c r="BA10" s="58"/>
+      <c r="BB10" s="58"/>
+      <c r="BC10" s="58"/>
+      <c r="BD10" s="58"/>
+      <c r="BE10" s="58"/>
+      <c r="BF10" s="58"/>
     </row>
     <row r="11" spans="1:58" ht="63.75" customHeight="1">
-      <c r="A11" s="59">
-        <f>ROW()-4</f>
+      <c r="A11" s="56">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="50" t="s">
+      <c r="B11" s="57"/>
+      <c r="C11" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50" t="s">
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50" t="s">
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50" t="s">
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="50"/>
-      <c r="AH11" s="50"/>
-      <c r="AI11" s="50"/>
-      <c r="AJ11" s="50"/>
-      <c r="AK11" s="50"/>
-      <c r="AL11" s="50"/>
-      <c r="AM11" s="50"/>
-      <c r="AN11" s="50"/>
-      <c r="AO11" s="50" t="s">
+      <c r="AD11" s="58"/>
+      <c r="AE11" s="58"/>
+      <c r="AF11" s="58"/>
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="58"/>
+      <c r="AI11" s="58"/>
+      <c r="AJ11" s="58"/>
+      <c r="AK11" s="58"/>
+      <c r="AL11" s="58"/>
+      <c r="AM11" s="58"/>
+      <c r="AN11" s="58"/>
+      <c r="AO11" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="AP11" s="50"/>
-      <c r="AQ11" s="50"/>
-      <c r="AR11" s="50"/>
-      <c r="AS11" s="50"/>
-      <c r="AT11" s="50" t="s">
+      <c r="AP11" s="58"/>
+      <c r="AQ11" s="58"/>
+      <c r="AR11" s="58"/>
+      <c r="AS11" s="58"/>
+      <c r="AT11" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AU11" s="50"/>
-      <c r="AV11" s="50"/>
-      <c r="AW11" s="50"/>
-      <c r="AX11" s="50"/>
-      <c r="AY11" s="50" t="s">
+      <c r="AU11" s="58"/>
+      <c r="AV11" s="58"/>
+      <c r="AW11" s="58"/>
+      <c r="AX11" s="58"/>
+      <c r="AY11" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="AZ11" s="50"/>
-      <c r="BA11" s="50"/>
-      <c r="BB11" s="50"/>
-      <c r="BC11" s="50"/>
-      <c r="BD11" s="50"/>
-      <c r="BE11" s="50"/>
-      <c r="BF11" s="50"/>
+      <c r="AZ11" s="58"/>
+      <c r="BA11" s="58"/>
+      <c r="BB11" s="58"/>
+      <c r="BC11" s="58"/>
+      <c r="BD11" s="58"/>
+      <c r="BE11" s="58"/>
+      <c r="BF11" s="58"/>
     </row>
     <row r="12" spans="1:58" ht="63.75" customHeight="1">
-      <c r="A12" s="59">
-        <f>ROW()-4</f>
+      <c r="A12" s="56">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="50" t="s">
+      <c r="B12" s="57"/>
+      <c r="C12" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="61" t="s">
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="63"/>
-      <c r="W12" s="50" t="s">
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="60"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="50" t="s">
+      <c r="X12" s="58"/>
+      <c r="Y12" s="58"/>
+      <c r="Z12" s="58"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="58"/>
+      <c r="AC12" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="50"/>
-      <c r="AH12" s="50"/>
-      <c r="AI12" s="50"/>
-      <c r="AJ12" s="50"/>
-      <c r="AK12" s="50"/>
-      <c r="AL12" s="50"/>
-      <c r="AM12" s="50"/>
-      <c r="AN12" s="50"/>
-      <c r="AO12" s="50" t="s">
+      <c r="AD12" s="58"/>
+      <c r="AE12" s="58"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="58"/>
+      <c r="AH12" s="58"/>
+      <c r="AI12" s="58"/>
+      <c r="AJ12" s="58"/>
+      <c r="AK12" s="58"/>
+      <c r="AL12" s="58"/>
+      <c r="AM12" s="58"/>
+      <c r="AN12" s="58"/>
+      <c r="AO12" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="AP12" s="50"/>
-      <c r="AQ12" s="50"/>
-      <c r="AR12" s="50"/>
-      <c r="AS12" s="50"/>
-      <c r="AT12" s="50" t="s">
+      <c r="AP12" s="58"/>
+      <c r="AQ12" s="58"/>
+      <c r="AR12" s="58"/>
+      <c r="AS12" s="58"/>
+      <c r="AT12" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="AU12" s="50"/>
-      <c r="AV12" s="50"/>
-      <c r="AW12" s="50"/>
-      <c r="AX12" s="50"/>
-      <c r="AY12" s="50" t="s">
+      <c r="AU12" s="58"/>
+      <c r="AV12" s="58"/>
+      <c r="AW12" s="58"/>
+      <c r="AX12" s="58"/>
+      <c r="AY12" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="AZ12" s="50"/>
-      <c r="BA12" s="50"/>
-      <c r="BB12" s="50"/>
-      <c r="BC12" s="50"/>
-      <c r="BD12" s="50"/>
-      <c r="BE12" s="50"/>
-      <c r="BF12" s="50"/>
+      <c r="AZ12" s="58"/>
+      <c r="BA12" s="58"/>
+      <c r="BB12" s="58"/>
+      <c r="BC12" s="58"/>
+      <c r="BD12" s="58"/>
+      <c r="BE12" s="58"/>
+      <c r="BF12" s="58"/>
     </row>
     <row r="13" spans="1:58" ht="63.75" customHeight="1">
-      <c r="A13" s="59">
-        <f>ROW()-4</f>
+      <c r="A13" s="56">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="50" t="s">
+      <c r="B13" s="57"/>
+      <c r="C13" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50" t="s">
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50" t="s">
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="58"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50" t="s">
+      <c r="X13" s="58"/>
+      <c r="Y13" s="58"/>
+      <c r="Z13" s="58"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="58"/>
+      <c r="AC13" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="50"/>
-      <c r="AH13" s="50"/>
-      <c r="AI13" s="50"/>
-      <c r="AJ13" s="50"/>
-      <c r="AK13" s="50"/>
-      <c r="AL13" s="50"/>
-      <c r="AM13" s="50"/>
-      <c r="AN13" s="50"/>
-      <c r="AO13" s="50" t="s">
+      <c r="AD13" s="58"/>
+      <c r="AE13" s="58"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="58"/>
+      <c r="AH13" s="58"/>
+      <c r="AI13" s="58"/>
+      <c r="AJ13" s="58"/>
+      <c r="AK13" s="58"/>
+      <c r="AL13" s="58"/>
+      <c r="AM13" s="58"/>
+      <c r="AN13" s="58"/>
+      <c r="AO13" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="AP13" s="50"/>
-      <c r="AQ13" s="50"/>
-      <c r="AR13" s="50"/>
-      <c r="AS13" s="50"/>
-      <c r="AT13" s="50" t="s">
+      <c r="AP13" s="58"/>
+      <c r="AQ13" s="58"/>
+      <c r="AR13" s="58"/>
+      <c r="AS13" s="58"/>
+      <c r="AT13" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="AU13" s="50"/>
-      <c r="AV13" s="50"/>
-      <c r="AW13" s="50"/>
-      <c r="AX13" s="50"/>
-      <c r="AY13" s="50" t="s">
+      <c r="AU13" s="58"/>
+      <c r="AV13" s="58"/>
+      <c r="AW13" s="58"/>
+      <c r="AX13" s="58"/>
+      <c r="AY13" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="AZ13" s="50"/>
-      <c r="BA13" s="50"/>
-      <c r="BB13" s="50"/>
-      <c r="BC13" s="50"/>
-      <c r="BD13" s="50"/>
-      <c r="BE13" s="50"/>
-      <c r="BF13" s="50"/>
+      <c r="AZ13" s="58"/>
+      <c r="BA13" s="58"/>
+      <c r="BB13" s="58"/>
+      <c r="BC13" s="58"/>
+      <c r="BD13" s="58"/>
+      <c r="BE13" s="58"/>
+      <c r="BF13" s="58"/>
     </row>
     <row r="14" spans="1:58" ht="63.75" customHeight="1">
-      <c r="A14" s="64">
-        <f>ROW()-4</f>
+      <c r="A14" s="63">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="51" t="s">
+      <c r="B14" s="64"/>
+      <c r="C14" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51" t="s">
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51" t="s">
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="62"/>
+      <c r="V14" s="62"/>
+      <c r="W14" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="51" t="s">
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="51"/>
-      <c r="AG14" s="51"/>
-      <c r="AH14" s="51"/>
-      <c r="AI14" s="51"/>
-      <c r="AJ14" s="51"/>
-      <c r="AK14" s="51"/>
-      <c r="AL14" s="51"/>
-      <c r="AM14" s="51"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51" t="s">
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="62"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="62"/>
+      <c r="AJ14" s="62"/>
+      <c r="AK14" s="62"/>
+      <c r="AL14" s="62"/>
+      <c r="AM14" s="62"/>
+      <c r="AN14" s="62"/>
+      <c r="AO14" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="AP14" s="51"/>
-      <c r="AQ14" s="51"/>
-      <c r="AR14" s="51"/>
-      <c r="AS14" s="51"/>
-      <c r="AT14" s="51" t="s">
+      <c r="AP14" s="62"/>
+      <c r="AQ14" s="62"/>
+      <c r="AR14" s="62"/>
+      <c r="AS14" s="62"/>
+      <c r="AT14" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="AU14" s="51"/>
-      <c r="AV14" s="51"/>
-      <c r="AW14" s="51"/>
-      <c r="AX14" s="51"/>
-      <c r="AY14" s="51" t="s">
+      <c r="AU14" s="62"/>
+      <c r="AV14" s="62"/>
+      <c r="AW14" s="62"/>
+      <c r="AX14" s="62"/>
+      <c r="AY14" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="AZ14" s="51"/>
-      <c r="BA14" s="51"/>
-      <c r="BB14" s="51"/>
-      <c r="BC14" s="51"/>
-      <c r="BD14" s="51"/>
-      <c r="BE14" s="51"/>
-      <c r="BF14" s="51"/>
+      <c r="AZ14" s="62"/>
+      <c r="BA14" s="62"/>
+      <c r="BB14" s="62"/>
+      <c r="BC14" s="62"/>
+      <c r="BD14" s="62"/>
+      <c r="BE14" s="62"/>
+      <c r="BF14" s="62"/>
     </row>
     <row r="15" spans="1:58" ht="63.75" customHeight="1">
-      <c r="A15" s="64">
-        <f>ROW()-4</f>
+      <c r="A15" s="63">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="51" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51" t="s">
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51" t="s">
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="51"/>
-      <c r="Z15" s="51"/>
-      <c r="AA15" s="51"/>
-      <c r="AB15" s="51"/>
-      <c r="AC15" s="51" t="s">
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="62"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="AD15" s="51"/>
-      <c r="AE15" s="51"/>
-      <c r="AF15" s="51"/>
-      <c r="AG15" s="51"/>
-      <c r="AH15" s="51"/>
-      <c r="AI15" s="51"/>
-      <c r="AJ15" s="51"/>
-      <c r="AK15" s="51"/>
-      <c r="AL15" s="51"/>
-      <c r="AM15" s="51"/>
-      <c r="AN15" s="51"/>
-      <c r="AO15" s="51" t="s">
+      <c r="AD15" s="62"/>
+      <c r="AE15" s="62"/>
+      <c r="AF15" s="62"/>
+      <c r="AG15" s="62"/>
+      <c r="AH15" s="62"/>
+      <c r="AI15" s="62"/>
+      <c r="AJ15" s="62"/>
+      <c r="AK15" s="62"/>
+      <c r="AL15" s="62"/>
+      <c r="AM15" s="62"/>
+      <c r="AN15" s="62"/>
+      <c r="AO15" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="AP15" s="51"/>
-      <c r="AQ15" s="51"/>
-      <c r="AR15" s="51"/>
-      <c r="AS15" s="51"/>
-      <c r="AT15" s="51" t="s">
+      <c r="AP15" s="62"/>
+      <c r="AQ15" s="62"/>
+      <c r="AR15" s="62"/>
+      <c r="AS15" s="62"/>
+      <c r="AT15" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="AU15" s="51"/>
-      <c r="AV15" s="51"/>
-      <c r="AW15" s="51"/>
-      <c r="AX15" s="51"/>
-      <c r="AY15" s="51" t="s">
+      <c r="AU15" s="62"/>
+      <c r="AV15" s="62"/>
+      <c r="AW15" s="62"/>
+      <c r="AX15" s="62"/>
+      <c r="AY15" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="AZ15" s="51"/>
-      <c r="BA15" s="51"/>
-      <c r="BB15" s="51"/>
-      <c r="BC15" s="51"/>
-      <c r="BD15" s="51"/>
-      <c r="BE15" s="51"/>
-      <c r="BF15" s="51"/>
+      <c r="AZ15" s="62"/>
+      <c r="BA15" s="62"/>
+      <c r="BB15" s="62"/>
+      <c r="BC15" s="62"/>
+      <c r="BD15" s="62"/>
+      <c r="BE15" s="62"/>
+      <c r="BF15" s="62"/>
     </row>
     <row r="16" spans="1:58" ht="63.75" customHeight="1">
-      <c r="A16" s="64">
-        <f>ROW()-4</f>
+      <c r="A16" s="63">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="51" t="s">
+      <c r="B16" s="64"/>
+      <c r="C16" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51" t="s">
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51" t="s">
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="62"/>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="51"/>
-      <c r="Z16" s="51"/>
-      <c r="AA16" s="51"/>
-      <c r="AB16" s="51"/>
-      <c r="AC16" s="51" t="s">
+      <c r="X16" s="62"/>
+      <c r="Y16" s="62"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="62"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="AD16" s="51"/>
-      <c r="AE16" s="51"/>
-      <c r="AF16" s="51"/>
-      <c r="AG16" s="51"/>
-      <c r="AH16" s="51"/>
-      <c r="AI16" s="51"/>
-      <c r="AJ16" s="51"/>
-      <c r="AK16" s="51"/>
-      <c r="AL16" s="51"/>
-      <c r="AM16" s="51"/>
-      <c r="AN16" s="51"/>
-      <c r="AO16" s="69" t="s">
+      <c r="AD16" s="62"/>
+      <c r="AE16" s="62"/>
+      <c r="AF16" s="62"/>
+      <c r="AG16" s="62"/>
+      <c r="AH16" s="62"/>
+      <c r="AI16" s="62"/>
+      <c r="AJ16" s="62"/>
+      <c r="AK16" s="62"/>
+      <c r="AL16" s="62"/>
+      <c r="AM16" s="62"/>
+      <c r="AN16" s="62"/>
+      <c r="AO16" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="AP16" s="70"/>
-      <c r="AQ16" s="70"/>
-      <c r="AR16" s="70"/>
-      <c r="AS16" s="71"/>
-      <c r="AT16" s="51" t="s">
+      <c r="AP16" s="66"/>
+      <c r="AQ16" s="66"/>
+      <c r="AR16" s="66"/>
+      <c r="AS16" s="67"/>
+      <c r="AT16" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="AU16" s="51"/>
-      <c r="AV16" s="51"/>
-      <c r="AW16" s="51"/>
-      <c r="AX16" s="51"/>
-      <c r="AY16" s="51" t="s">
+      <c r="AU16" s="62"/>
+      <c r="AV16" s="62"/>
+      <c r="AW16" s="62"/>
+      <c r="AX16" s="62"/>
+      <c r="AY16" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="AZ16" s="51"/>
-      <c r="BA16" s="51"/>
-      <c r="BB16" s="51"/>
-      <c r="BC16" s="51"/>
-      <c r="BD16" s="51"/>
-      <c r="BE16" s="51"/>
-      <c r="BF16" s="51"/>
+      <c r="AZ16" s="62"/>
+      <c r="BA16" s="62"/>
+      <c r="BB16" s="62"/>
+      <c r="BC16" s="62"/>
+      <c r="BD16" s="62"/>
+      <c r="BE16" s="62"/>
+      <c r="BF16" s="62"/>
     </row>
     <row r="17" spans="1:58" ht="63.75" customHeight="1">
-      <c r="A17" s="64">
-        <f>ROW()-4</f>
+      <c r="A17" s="63">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="51" t="s">
+      <c r="B17" s="64"/>
+      <c r="C17" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51" t="s">
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="51"/>
-      <c r="W17" s="51" t="s">
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="51"/>
-      <c r="Z17" s="51"/>
-      <c r="AA17" s="51"/>
-      <c r="AB17" s="51"/>
-      <c r="AC17" s="51" t="s">
+      <c r="X17" s="62"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="62"/>
+      <c r="AB17" s="62"/>
+      <c r="AC17" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="AD17" s="51"/>
-      <c r="AE17" s="51"/>
-      <c r="AF17" s="51"/>
-      <c r="AG17" s="51"/>
-      <c r="AH17" s="51"/>
-      <c r="AI17" s="51"/>
-      <c r="AJ17" s="51"/>
-      <c r="AK17" s="51"/>
-      <c r="AL17" s="51"/>
-      <c r="AM17" s="51"/>
-      <c r="AN17" s="51"/>
-      <c r="AO17" s="69" t="s">
+      <c r="AD17" s="62"/>
+      <c r="AE17" s="62"/>
+      <c r="AF17" s="62"/>
+      <c r="AG17" s="62"/>
+      <c r="AH17" s="62"/>
+      <c r="AI17" s="62"/>
+      <c r="AJ17" s="62"/>
+      <c r="AK17" s="62"/>
+      <c r="AL17" s="62"/>
+      <c r="AM17" s="62"/>
+      <c r="AN17" s="62"/>
+      <c r="AO17" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="AP17" s="70"/>
-      <c r="AQ17" s="70"/>
-      <c r="AR17" s="70"/>
-      <c r="AS17" s="71"/>
-      <c r="AT17" s="51" t="s">
+      <c r="AP17" s="66"/>
+      <c r="AQ17" s="66"/>
+      <c r="AR17" s="66"/>
+      <c r="AS17" s="67"/>
+      <c r="AT17" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="AU17" s="51"/>
-      <c r="AV17" s="51"/>
-      <c r="AW17" s="51"/>
-      <c r="AX17" s="51"/>
-      <c r="AY17" s="51" t="s">
+      <c r="AU17" s="62"/>
+      <c r="AV17" s="62"/>
+      <c r="AW17" s="62"/>
+      <c r="AX17" s="62"/>
+      <c r="AY17" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="AZ17" s="51"/>
-      <c r="BA17" s="51"/>
-      <c r="BB17" s="51"/>
-      <c r="BC17" s="51"/>
-      <c r="BD17" s="51"/>
-      <c r="BE17" s="51"/>
-      <c r="BF17" s="51"/>
+      <c r="AZ17" s="62"/>
+      <c r="BA17" s="62"/>
+      <c r="BB17" s="62"/>
+      <c r="BC17" s="62"/>
+      <c r="BD17" s="62"/>
+      <c r="BE17" s="62"/>
+      <c r="BF17" s="62"/>
     </row>
     <row r="18" spans="1:58" ht="63.75" customHeight="1">
-      <c r="A18" s="64">
-        <f>ROW()-4</f>
+      <c r="A18" s="63">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="51" t="s">
+      <c r="B18" s="64"/>
+      <c r="C18" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51" t="s">
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51" t="s">
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="51"/>
-      <c r="AA18" s="51"/>
-      <c r="AB18" s="51"/>
-      <c r="AC18" s="51" t="s">
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="AD18" s="51"/>
-      <c r="AE18" s="51"/>
-      <c r="AF18" s="51"/>
-      <c r="AG18" s="51"/>
-      <c r="AH18" s="51"/>
-      <c r="AI18" s="51"/>
-      <c r="AJ18" s="51"/>
-      <c r="AK18" s="51"/>
-      <c r="AL18" s="51"/>
-      <c r="AM18" s="51"/>
-      <c r="AN18" s="51"/>
-      <c r="AO18" s="69" t="s">
+      <c r="AD18" s="62"/>
+      <c r="AE18" s="62"/>
+      <c r="AF18" s="62"/>
+      <c r="AG18" s="62"/>
+      <c r="AH18" s="62"/>
+      <c r="AI18" s="62"/>
+      <c r="AJ18" s="62"/>
+      <c r="AK18" s="62"/>
+      <c r="AL18" s="62"/>
+      <c r="AM18" s="62"/>
+      <c r="AN18" s="62"/>
+      <c r="AO18" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="AP18" s="70"/>
-      <c r="AQ18" s="70"/>
-      <c r="AR18" s="70"/>
-      <c r="AS18" s="71"/>
-      <c r="AT18" s="51" t="s">
+      <c r="AP18" s="66"/>
+      <c r="AQ18" s="66"/>
+      <c r="AR18" s="66"/>
+      <c r="AS18" s="67"/>
+      <c r="AT18" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="AU18" s="51"/>
-      <c r="AV18" s="51"/>
-      <c r="AW18" s="51"/>
-      <c r="AX18" s="51"/>
-      <c r="AY18" s="51" t="s">
+      <c r="AU18" s="62"/>
+      <c r="AV18" s="62"/>
+      <c r="AW18" s="62"/>
+      <c r="AX18" s="62"/>
+      <c r="AY18" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="AZ18" s="51"/>
-      <c r="BA18" s="51"/>
-      <c r="BB18" s="51"/>
-      <c r="BC18" s="51"/>
-      <c r="BD18" s="51"/>
-      <c r="BE18" s="51"/>
-      <c r="BF18" s="51"/>
+      <c r="AZ18" s="62"/>
+      <c r="BA18" s="62"/>
+      <c r="BB18" s="62"/>
+      <c r="BC18" s="62"/>
+      <c r="BD18" s="62"/>
+      <c r="BE18" s="62"/>
+      <c r="BF18" s="62"/>
     </row>
     <row r="19" spans="1:58" ht="63.75" customHeight="1">
-      <c r="A19" s="64">
-        <f>ROW()-4</f>
+      <c r="A19" s="63">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="51" t="s">
+      <c r="B19" s="64"/>
+      <c r="C19" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51" t="s">
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="51"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51" t="s">
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="51"/>
-      <c r="Z19" s="51"/>
-      <c r="AA19" s="51"/>
-      <c r="AB19" s="51"/>
-      <c r="AC19" s="51" t="s">
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="AD19" s="51"/>
-      <c r="AE19" s="51"/>
-      <c r="AF19" s="51"/>
-      <c r="AG19" s="51"/>
-      <c r="AH19" s="51"/>
-      <c r="AI19" s="51"/>
-      <c r="AJ19" s="51"/>
-      <c r="AK19" s="51"/>
-      <c r="AL19" s="51"/>
-      <c r="AM19" s="51"/>
-      <c r="AN19" s="51"/>
-      <c r="AO19" s="69" t="s">
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="62"/>
+      <c r="AF19" s="62"/>
+      <c r="AG19" s="62"/>
+      <c r="AH19" s="62"/>
+      <c r="AI19" s="62"/>
+      <c r="AJ19" s="62"/>
+      <c r="AK19" s="62"/>
+      <c r="AL19" s="62"/>
+      <c r="AM19" s="62"/>
+      <c r="AN19" s="62"/>
+      <c r="AO19" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AP19" s="70"/>
-      <c r="AQ19" s="70"/>
-      <c r="AR19" s="70"/>
-      <c r="AS19" s="71"/>
-      <c r="AT19" s="51" t="s">
+      <c r="AP19" s="66"/>
+      <c r="AQ19" s="66"/>
+      <c r="AR19" s="66"/>
+      <c r="AS19" s="67"/>
+      <c r="AT19" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="AU19" s="51"/>
-      <c r="AV19" s="51"/>
-      <c r="AW19" s="51"/>
-      <c r="AX19" s="51"/>
-      <c r="AY19" s="51" t="s">
+      <c r="AU19" s="62"/>
+      <c r="AV19" s="62"/>
+      <c r="AW19" s="62"/>
+      <c r="AX19" s="62"/>
+      <c r="AY19" s="62" t="s">
         <v>111</v>
       </c>
-      <c r="AZ19" s="51"/>
-      <c r="BA19" s="51"/>
-      <c r="BB19" s="51"/>
-      <c r="BC19" s="51"/>
-      <c r="BD19" s="51"/>
-      <c r="BE19" s="51"/>
-      <c r="BF19" s="51"/>
+      <c r="AZ19" s="62"/>
+      <c r="BA19" s="62"/>
+      <c r="BB19" s="62"/>
+      <c r="BC19" s="62"/>
+      <c r="BD19" s="62"/>
+      <c r="BE19" s="62"/>
+      <c r="BF19" s="62"/>
     </row>
     <row r="20" spans="1:58" ht="63.75" customHeight="1">
-      <c r="A20" s="64">
-        <f>ROW()-4</f>
+      <c r="A20" s="63">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="51" t="s">
+      <c r="B20" s="64"/>
+      <c r="C20" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51" t="s">
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51" t="s">
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="51"/>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="51"/>
-      <c r="AB20" s="51"/>
-      <c r="AC20" s="51" t="s">
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="62"/>
+      <c r="AB20" s="62"/>
+      <c r="AC20" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="AD20" s="51"/>
-      <c r="AE20" s="51"/>
-      <c r="AF20" s="51"/>
-      <c r="AG20" s="51"/>
-      <c r="AH20" s="51"/>
-      <c r="AI20" s="51"/>
-      <c r="AJ20" s="51"/>
-      <c r="AK20" s="51"/>
-      <c r="AL20" s="51"/>
-      <c r="AM20" s="51"/>
-      <c r="AN20" s="51"/>
-      <c r="AO20" s="69" t="s">
+      <c r="AD20" s="62"/>
+      <c r="AE20" s="62"/>
+      <c r="AF20" s="62"/>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="62"/>
+      <c r="AI20" s="62"/>
+      <c r="AJ20" s="62"/>
+      <c r="AK20" s="62"/>
+      <c r="AL20" s="62"/>
+      <c r="AM20" s="62"/>
+      <c r="AN20" s="62"/>
+      <c r="AO20" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="AP20" s="70"/>
-      <c r="AQ20" s="70"/>
-      <c r="AR20" s="70"/>
-      <c r="AS20" s="71"/>
-      <c r="AT20" s="51" t="s">
+      <c r="AP20" s="66"/>
+      <c r="AQ20" s="66"/>
+      <c r="AR20" s="66"/>
+      <c r="AS20" s="67"/>
+      <c r="AT20" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="AU20" s="51"/>
-      <c r="AV20" s="51"/>
-      <c r="AW20" s="51"/>
-      <c r="AX20" s="51"/>
-      <c r="AY20" s="51"/>
-      <c r="AZ20" s="51"/>
-      <c r="BA20" s="51"/>
-      <c r="BB20" s="51"/>
-      <c r="BC20" s="51"/>
-      <c r="BD20" s="51"/>
-      <c r="BE20" s="51"/>
-      <c r="BF20" s="51"/>
-    </row>
-    <row r="21" spans="1:58" ht="15" customHeight="1">
-      <c r="A21" s="66">
-        <f t="shared" ref="A14:A26" si="0">ROW()-4</f>
+      <c r="AU20" s="62"/>
+      <c r="AV20" s="62"/>
+      <c r="AW20" s="62"/>
+      <c r="AX20" s="62"/>
+      <c r="AY20" s="62"/>
+      <c r="AZ20" s="62"/>
+      <c r="BA20" s="62"/>
+      <c r="BB20" s="62"/>
+      <c r="BC20" s="62"/>
+      <c r="BD20" s="62"/>
+      <c r="BE20" s="62"/>
+      <c r="BF20" s="62"/>
+    </row>
+    <row r="21" spans="1:58" ht="63.75" customHeight="1">
+      <c r="A21" s="68">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="40"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="68"/>
-      <c r="AB21" s="68"/>
-      <c r="AC21" s="40"/>
-      <c r="AD21" s="40"/>
-      <c r="AE21" s="40"/>
-      <c r="AF21" s="40"/>
-      <c r="AG21" s="40"/>
-      <c r="AH21" s="40"/>
-      <c r="AI21" s="40"/>
-      <c r="AJ21" s="40"/>
-      <c r="AK21" s="40"/>
-      <c r="AL21" s="40"/>
-      <c r="AM21" s="40"/>
-      <c r="AN21" s="40"/>
-      <c r="AO21" s="40"/>
-      <c r="AP21" s="40"/>
-      <c r="AQ21" s="40"/>
-      <c r="AR21" s="40"/>
-      <c r="AS21" s="40"/>
-      <c r="AT21" s="40"/>
-      <c r="AU21" s="40"/>
-      <c r="AV21" s="40"/>
-      <c r="AW21" s="40"/>
-      <c r="AX21" s="40"/>
-      <c r="AY21" s="40"/>
-      <c r="AZ21" s="40"/>
-      <c r="BA21" s="40"/>
-      <c r="BB21" s="40"/>
-      <c r="BC21" s="40"/>
-      <c r="BD21" s="40"/>
-      <c r="BE21" s="40"/>
-      <c r="BF21" s="40"/>
-    </row>
-    <row r="22" spans="1:58" ht="15" customHeight="1">
-      <c r="A22" s="66">
+      <c r="B21" s="69"/>
+      <c r="C21" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="70" t="s">
+        <v>124</v>
+      </c>
+      <c r="X21" s="70"/>
+      <c r="Y21" s="70"/>
+      <c r="Z21" s="70"/>
+      <c r="AA21" s="70"/>
+      <c r="AB21" s="70"/>
+      <c r="AC21" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD21" s="70"/>
+      <c r="AE21" s="70"/>
+      <c r="AF21" s="70"/>
+      <c r="AG21" s="70"/>
+      <c r="AH21" s="70"/>
+      <c r="AI21" s="70"/>
+      <c r="AJ21" s="70"/>
+      <c r="AK21" s="70"/>
+      <c r="AL21" s="70"/>
+      <c r="AM21" s="70"/>
+      <c r="AN21" s="70"/>
+      <c r="AO21" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP21" s="70"/>
+      <c r="AQ21" s="70"/>
+      <c r="AR21" s="70"/>
+      <c r="AS21" s="70"/>
+      <c r="AT21" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU21" s="70"/>
+      <c r="AV21" s="70"/>
+      <c r="AW21" s="70"/>
+      <c r="AX21" s="70"/>
+      <c r="AY21" s="70" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ21" s="70"/>
+      <c r="BA21" s="70"/>
+      <c r="BB21" s="70"/>
+      <c r="BC21" s="70"/>
+      <c r="BD21" s="70"/>
+      <c r="BE21" s="70"/>
+      <c r="BF21" s="70"/>
+    </row>
+    <row r="22" spans="1:58" ht="63.75" customHeight="1">
+      <c r="A22" s="76">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="40"/>
-      <c r="T22" s="40"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="68"/>
-      <c r="X22" s="68"/>
-      <c r="Y22" s="68"/>
-      <c r="Z22" s="68"/>
-      <c r="AA22" s="68"/>
-      <c r="AB22" s="68"/>
-      <c r="AC22" s="40"/>
-      <c r="AD22" s="40"/>
-      <c r="AE22" s="40"/>
-      <c r="AF22" s="40"/>
-      <c r="AG22" s="40"/>
-      <c r="AH22" s="40"/>
-      <c r="AI22" s="40"/>
-      <c r="AJ22" s="40"/>
-      <c r="AK22" s="40"/>
-      <c r="AL22" s="40"/>
-      <c r="AM22" s="40"/>
-      <c r="AN22" s="40"/>
-      <c r="AO22" s="40"/>
-      <c r="AP22" s="40"/>
-      <c r="AQ22" s="40"/>
-      <c r="AR22" s="40"/>
-      <c r="AS22" s="40"/>
-      <c r="AT22" s="40"/>
-      <c r="AU22" s="40"/>
-      <c r="AV22" s="40"/>
-      <c r="AW22" s="40"/>
-      <c r="AX22" s="40"/>
-      <c r="AY22" s="40"/>
-      <c r="AZ22" s="40"/>
-      <c r="BA22" s="40"/>
-      <c r="BB22" s="40"/>
-      <c r="BC22" s="40"/>
-      <c r="BD22" s="40"/>
-      <c r="BE22" s="40"/>
-      <c r="BF22" s="40"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="71"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="71"/>
+      <c r="AC22" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD22" s="71"/>
+      <c r="AE22" s="71"/>
+      <c r="AF22" s="71"/>
+      <c r="AG22" s="71"/>
+      <c r="AH22" s="71"/>
+      <c r="AI22" s="71"/>
+      <c r="AJ22" s="71"/>
+      <c r="AK22" s="71"/>
+      <c r="AL22" s="71"/>
+      <c r="AM22" s="71"/>
+      <c r="AN22" s="71"/>
+      <c r="AO22" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP22" s="71"/>
+      <c r="AQ22" s="71"/>
+      <c r="AR22" s="71"/>
+      <c r="AS22" s="71"/>
+      <c r="AT22" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU22" s="71"/>
+      <c r="AV22" s="71"/>
+      <c r="AW22" s="71"/>
+      <c r="AX22" s="71"/>
+      <c r="AY22" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="AZ22" s="71"/>
+      <c r="BA22" s="71"/>
+      <c r="BB22" s="71"/>
+      <c r="BC22" s="71"/>
+      <c r="BD22" s="71"/>
+      <c r="BE22" s="71"/>
+      <c r="BF22" s="71"/>
     </row>
     <row r="23" spans="1:58" ht="15" customHeight="1">
-      <c r="A23" s="66">
-        <f t="shared" si="0"/>
+      <c r="A23" s="72">
+        <f t="shared" ref="A23:A26" si="1">ROW()-4</f>
         <v>19</v>
       </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="68"/>
-      <c r="X23" s="68"/>
-      <c r="Y23" s="68"/>
-      <c r="Z23" s="68"/>
-      <c r="AA23" s="68"/>
-      <c r="AB23" s="68"/>
-      <c r="AC23" s="40"/>
-      <c r="AD23" s="40"/>
-      <c r="AE23" s="40"/>
-      <c r="AF23" s="40"/>
-      <c r="AG23" s="40"/>
-      <c r="AH23" s="40"/>
-      <c r="AI23" s="40"/>
-      <c r="AJ23" s="40"/>
-      <c r="AK23" s="40"/>
-      <c r="AL23" s="40"/>
-      <c r="AM23" s="40"/>
-      <c r="AN23" s="40"/>
-      <c r="AO23" s="40"/>
-      <c r="AP23" s="40"/>
-      <c r="AQ23" s="40"/>
-      <c r="AR23" s="40"/>
-      <c r="AS23" s="40"/>
-      <c r="AT23" s="40"/>
-      <c r="AU23" s="40"/>
-      <c r="AV23" s="40"/>
-      <c r="AW23" s="40"/>
-      <c r="AX23" s="40"/>
-      <c r="AY23" s="40"/>
-      <c r="AZ23" s="40"/>
-      <c r="BA23" s="40"/>
-      <c r="BB23" s="40"/>
-      <c r="BC23" s="40"/>
-      <c r="BD23" s="40"/>
-      <c r="BE23" s="40"/>
-      <c r="BF23" s="40"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="74"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="74"/>
+      <c r="U23" s="74"/>
+      <c r="V23" s="74"/>
+      <c r="W23" s="75"/>
+      <c r="X23" s="75"/>
+      <c r="Y23" s="75"/>
+      <c r="Z23" s="75"/>
+      <c r="AA23" s="75"/>
+      <c r="AB23" s="75"/>
+      <c r="AC23" s="74"/>
+      <c r="AD23" s="74"/>
+      <c r="AE23" s="74"/>
+      <c r="AF23" s="74"/>
+      <c r="AG23" s="74"/>
+      <c r="AH23" s="74"/>
+      <c r="AI23" s="74"/>
+      <c r="AJ23" s="74"/>
+      <c r="AK23" s="74"/>
+      <c r="AL23" s="74"/>
+      <c r="AM23" s="74"/>
+      <c r="AN23" s="74"/>
+      <c r="AO23" s="74"/>
+      <c r="AP23" s="74"/>
+      <c r="AQ23" s="74"/>
+      <c r="AR23" s="74"/>
+      <c r="AS23" s="74"/>
+      <c r="AT23" s="74"/>
+      <c r="AU23" s="74"/>
+      <c r="AV23" s="74"/>
+      <c r="AW23" s="74"/>
+      <c r="AX23" s="74"/>
+      <c r="AY23" s="74"/>
+      <c r="AZ23" s="74"/>
+      <c r="BA23" s="74"/>
+      <c r="BB23" s="74"/>
+      <c r="BC23" s="74"/>
+      <c r="BD23" s="74"/>
+      <c r="BE23" s="74"/>
+      <c r="BF23" s="74"/>
     </row>
     <row r="24" spans="1:58" ht="15" customHeight="1">
-      <c r="A24" s="66">
-        <f t="shared" si="0"/>
+      <c r="A24" s="72">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="68"/>
-      <c r="X24" s="68"/>
-      <c r="Y24" s="68"/>
-      <c r="Z24" s="68"/>
-      <c r="AA24" s="68"/>
-      <c r="AB24" s="68"/>
-      <c r="AC24" s="40"/>
-      <c r="AD24" s="40"/>
-      <c r="AE24" s="40"/>
-      <c r="AF24" s="40"/>
-      <c r="AG24" s="40"/>
-      <c r="AH24" s="40"/>
-      <c r="AI24" s="40"/>
-      <c r="AJ24" s="40"/>
-      <c r="AK24" s="40"/>
-      <c r="AL24" s="40"/>
-      <c r="AM24" s="40"/>
-      <c r="AN24" s="40"/>
-      <c r="AO24" s="40"/>
-      <c r="AP24" s="40"/>
-      <c r="AQ24" s="40"/>
-      <c r="AR24" s="40"/>
-      <c r="AS24" s="40"/>
-      <c r="AT24" s="40"/>
-      <c r="AU24" s="40"/>
-      <c r="AV24" s="40"/>
-      <c r="AW24" s="40"/>
-      <c r="AX24" s="40"/>
-      <c r="AY24" s="40"/>
-      <c r="AZ24" s="40"/>
-      <c r="BA24" s="40"/>
-      <c r="BB24" s="40"/>
-      <c r="BC24" s="40"/>
-      <c r="BD24" s="40"/>
-      <c r="BE24" s="40"/>
-      <c r="BF24" s="40"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="74"/>
+      <c r="U24" s="74"/>
+      <c r="V24" s="74"/>
+      <c r="W24" s="75"/>
+      <c r="X24" s="75"/>
+      <c r="Y24" s="75"/>
+      <c r="Z24" s="75"/>
+      <c r="AA24" s="75"/>
+      <c r="AB24" s="75"/>
+      <c r="AC24" s="74"/>
+      <c r="AD24" s="74"/>
+      <c r="AE24" s="74"/>
+      <c r="AF24" s="74"/>
+      <c r="AG24" s="74"/>
+      <c r="AH24" s="74"/>
+      <c r="AI24" s="74"/>
+      <c r="AJ24" s="74"/>
+      <c r="AK24" s="74"/>
+      <c r="AL24" s="74"/>
+      <c r="AM24" s="74"/>
+      <c r="AN24" s="74"/>
+      <c r="AO24" s="74"/>
+      <c r="AP24" s="74"/>
+      <c r="AQ24" s="74"/>
+      <c r="AR24" s="74"/>
+      <c r="AS24" s="74"/>
+      <c r="AT24" s="74"/>
+      <c r="AU24" s="74"/>
+      <c r="AV24" s="74"/>
+      <c r="AW24" s="74"/>
+      <c r="AX24" s="74"/>
+      <c r="AY24" s="74"/>
+      <c r="AZ24" s="74"/>
+      <c r="BA24" s="74"/>
+      <c r="BB24" s="74"/>
+      <c r="BC24" s="74"/>
+      <c r="BD24" s="74"/>
+      <c r="BE24" s="74"/>
+      <c r="BF24" s="74"/>
     </row>
     <row r="25" spans="1:58" ht="15" customHeight="1">
-      <c r="A25" s="66">
-        <f t="shared" si="0"/>
+      <c r="A25" s="72">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="67"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="68"/>
-      <c r="X25" s="68"/>
-      <c r="Y25" s="68"/>
-      <c r="Z25" s="68"/>
-      <c r="AA25" s="68"/>
-      <c r="AB25" s="68"/>
-      <c r="AC25" s="40"/>
-      <c r="AD25" s="40"/>
-      <c r="AE25" s="40"/>
-      <c r="AF25" s="40"/>
-      <c r="AG25" s="40"/>
-      <c r="AH25" s="40"/>
-      <c r="AI25" s="40"/>
-      <c r="AJ25" s="40"/>
-      <c r="AK25" s="40"/>
-      <c r="AL25" s="40"/>
-      <c r="AM25" s="40"/>
-      <c r="AN25" s="40"/>
-      <c r="AO25" s="40"/>
-      <c r="AP25" s="40"/>
-      <c r="AQ25" s="40"/>
-      <c r="AR25" s="40"/>
-      <c r="AS25" s="40"/>
-      <c r="AT25" s="40"/>
-      <c r="AU25" s="40"/>
-      <c r="AV25" s="40"/>
-      <c r="AW25" s="40"/>
-      <c r="AX25" s="40"/>
-      <c r="AY25" s="40"/>
-      <c r="AZ25" s="40"/>
-      <c r="BA25" s="40"/>
-      <c r="BB25" s="40"/>
-      <c r="BC25" s="40"/>
-      <c r="BD25" s="40"/>
-      <c r="BE25" s="40"/>
-      <c r="BF25" s="40"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="74"/>
+      <c r="S25" s="74"/>
+      <c r="T25" s="74"/>
+      <c r="U25" s="74"/>
+      <c r="V25" s="74"/>
+      <c r="W25" s="75"/>
+      <c r="X25" s="75"/>
+      <c r="Y25" s="75"/>
+      <c r="Z25" s="75"/>
+      <c r="AA25" s="75"/>
+      <c r="AB25" s="75"/>
+      <c r="AC25" s="74"/>
+      <c r="AD25" s="74"/>
+      <c r="AE25" s="74"/>
+      <c r="AF25" s="74"/>
+      <c r="AG25" s="74"/>
+      <c r="AH25" s="74"/>
+      <c r="AI25" s="74"/>
+      <c r="AJ25" s="74"/>
+      <c r="AK25" s="74"/>
+      <c r="AL25" s="74"/>
+      <c r="AM25" s="74"/>
+      <c r="AN25" s="74"/>
+      <c r="AO25" s="74"/>
+      <c r="AP25" s="74"/>
+      <c r="AQ25" s="74"/>
+      <c r="AR25" s="74"/>
+      <c r="AS25" s="74"/>
+      <c r="AT25" s="74"/>
+      <c r="AU25" s="74"/>
+      <c r="AV25" s="74"/>
+      <c r="AW25" s="74"/>
+      <c r="AX25" s="74"/>
+      <c r="AY25" s="74"/>
+      <c r="AZ25" s="74"/>
+      <c r="BA25" s="74"/>
+      <c r="BB25" s="74"/>
+      <c r="BC25" s="74"/>
+      <c r="BD25" s="74"/>
+      <c r="BE25" s="74"/>
+      <c r="BF25" s="74"/>
     </row>
     <row r="26" spans="1:58" ht="15" customHeight="1">
-      <c r="A26" s="66">
-        <f t="shared" si="0"/>
+      <c r="A26" s="72">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="68"/>
-      <c r="X26" s="68"/>
-      <c r="Y26" s="68"/>
-      <c r="Z26" s="68"/>
-      <c r="AA26" s="68"/>
-      <c r="AB26" s="68"/>
-      <c r="AC26" s="40"/>
-      <c r="AD26" s="40"/>
-      <c r="AE26" s="40"/>
-      <c r="AF26" s="40"/>
-      <c r="AG26" s="40"/>
-      <c r="AH26" s="40"/>
-      <c r="AI26" s="40"/>
-      <c r="AJ26" s="40"/>
-      <c r="AK26" s="40"/>
-      <c r="AL26" s="40"/>
-      <c r="AM26" s="40"/>
-      <c r="AN26" s="40"/>
-      <c r="AO26" s="40"/>
-      <c r="AP26" s="40"/>
-      <c r="AQ26" s="40"/>
-      <c r="AR26" s="40"/>
-      <c r="AS26" s="40"/>
-      <c r="AT26" s="40"/>
-      <c r="AU26" s="40"/>
-      <c r="AV26" s="40"/>
-      <c r="AW26" s="40"/>
-      <c r="AX26" s="40"/>
-      <c r="AY26" s="40"/>
-      <c r="AZ26" s="40"/>
-      <c r="BA26" s="40"/>
-      <c r="BB26" s="40"/>
-      <c r="BC26" s="40"/>
-      <c r="BD26" s="40"/>
-      <c r="BE26" s="40"/>
-      <c r="BF26" s="40"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="74"/>
+      <c r="U26" s="74"/>
+      <c r="V26" s="74"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="75"/>
+      <c r="Y26" s="75"/>
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="75"/>
+      <c r="AB26" s="75"/>
+      <c r="AC26" s="74"/>
+      <c r="AD26" s="74"/>
+      <c r="AE26" s="74"/>
+      <c r="AF26" s="74"/>
+      <c r="AG26" s="74"/>
+      <c r="AH26" s="74"/>
+      <c r="AI26" s="74"/>
+      <c r="AJ26" s="74"/>
+      <c r="AK26" s="74"/>
+      <c r="AL26" s="74"/>
+      <c r="AM26" s="74"/>
+      <c r="AN26" s="74"/>
+      <c r="AO26" s="74"/>
+      <c r="AP26" s="74"/>
+      <c r="AQ26" s="74"/>
+      <c r="AR26" s="74"/>
+      <c r="AS26" s="74"/>
+      <c r="AT26" s="74"/>
+      <c r="AU26" s="74"/>
+      <c r="AV26" s="74"/>
+      <c r="AW26" s="74"/>
+      <c r="AX26" s="74"/>
+      <c r="AY26" s="74"/>
+      <c r="AZ26" s="74"/>
+      <c r="BA26" s="74"/>
+      <c r="BB26" s="74"/>
+      <c r="BC26" s="74"/>
+      <c r="BD26" s="74"/>
+      <c r="BE26" s="74"/>
+      <c r="BF26" s="74"/>
     </row>
     <row r="27" spans="1:58" ht="15" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="39"/>
-      <c r="S27" s="39"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="39"/>
-      <c r="V27" s="39"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="78"/>
       <c r="W27" s="13"/>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="13"/>
-      <c r="AC27" s="39"/>
-      <c r="AD27" s="39"/>
-      <c r="AE27" s="39"/>
-      <c r="AF27" s="39"/>
-      <c r="AG27" s="39"/>
-      <c r="AH27" s="39"/>
-      <c r="AI27" s="39"/>
-      <c r="AJ27" s="39"/>
-      <c r="AK27" s="39"/>
-      <c r="AL27" s="39"/>
-      <c r="AM27" s="39"/>
-      <c r="AN27" s="39"/>
-      <c r="AO27" s="39"/>
-      <c r="AP27" s="39"/>
-      <c r="AQ27" s="39"/>
-      <c r="AR27" s="39"/>
-      <c r="AS27" s="39"/>
-      <c r="AT27" s="39"/>
-      <c r="AU27" s="39"/>
-      <c r="AV27" s="39"/>
-      <c r="AW27" s="39"/>
-      <c r="AX27" s="39"/>
-      <c r="AY27" s="39"/>
-      <c r="AZ27" s="39"/>
-      <c r="BA27" s="39"/>
-      <c r="BB27" s="39"/>
-      <c r="BC27" s="39"/>
-      <c r="BD27" s="39"/>
-      <c r="BE27" s="39"/>
-      <c r="BF27" s="39"/>
+      <c r="AC27" s="78"/>
+      <c r="AD27" s="78"/>
+      <c r="AE27" s="78"/>
+      <c r="AF27" s="78"/>
+      <c r="AG27" s="78"/>
+      <c r="AH27" s="78"/>
+      <c r="AI27" s="78"/>
+      <c r="AJ27" s="78"/>
+      <c r="AK27" s="78"/>
+      <c r="AL27" s="78"/>
+      <c r="AM27" s="78"/>
+      <c r="AN27" s="78"/>
+      <c r="AO27" s="78"/>
+      <c r="AP27" s="78"/>
+      <c r="AQ27" s="78"/>
+      <c r="AR27" s="78"/>
+      <c r="AS27" s="78"/>
+      <c r="AT27" s="78"/>
+      <c r="AU27" s="78"/>
+      <c r="AV27" s="78"/>
+      <c r="AW27" s="78"/>
+      <c r="AX27" s="78"/>
+      <c r="AY27" s="78"/>
+      <c r="AZ27" s="78"/>
+      <c r="BA27" s="78"/>
+      <c r="BB27" s="78"/>
+      <c r="BC27" s="78"/>
+      <c r="BD27" s="78"/>
+      <c r="BE27" s="78"/>
+      <c r="BF27" s="78"/>
     </row>
     <row r="28" spans="1:58" ht="15" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="39"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="78"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="78"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="78"/>
       <c r="W28" s="13"/>
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
       <c r="AA28" s="13"/>
       <c r="AB28" s="13"/>
-      <c r="AC28" s="39"/>
-      <c r="AD28" s="39"/>
-      <c r="AE28" s="39"/>
-      <c r="AF28" s="39"/>
-      <c r="AG28" s="39"/>
-      <c r="AH28" s="39"/>
-      <c r="AI28" s="39"/>
-      <c r="AJ28" s="39"/>
-      <c r="AK28" s="39"/>
-      <c r="AL28" s="39"/>
-      <c r="AM28" s="39"/>
-      <c r="AN28" s="39"/>
-      <c r="AO28" s="39"/>
-      <c r="AP28" s="39"/>
-      <c r="AQ28" s="39"/>
-      <c r="AR28" s="39"/>
-      <c r="AS28" s="39"/>
-      <c r="AT28" s="39"/>
-      <c r="AU28" s="39"/>
-      <c r="AV28" s="39"/>
-      <c r="AW28" s="39"/>
-      <c r="AX28" s="39"/>
-      <c r="AY28" s="39"/>
-      <c r="AZ28" s="39"/>
-      <c r="BA28" s="39"/>
-      <c r="BB28" s="39"/>
-      <c r="BC28" s="39"/>
-      <c r="BD28" s="39"/>
-      <c r="BE28" s="39"/>
-      <c r="BF28" s="39"/>
+      <c r="AC28" s="78"/>
+      <c r="AD28" s="78"/>
+      <c r="AE28" s="78"/>
+      <c r="AF28" s="78"/>
+      <c r="AG28" s="78"/>
+      <c r="AH28" s="78"/>
+      <c r="AI28" s="78"/>
+      <c r="AJ28" s="78"/>
+      <c r="AK28" s="78"/>
+      <c r="AL28" s="78"/>
+      <c r="AM28" s="78"/>
+      <c r="AN28" s="78"/>
+      <c r="AO28" s="78"/>
+      <c r="AP28" s="78"/>
+      <c r="AQ28" s="78"/>
+      <c r="AR28" s="78"/>
+      <c r="AS28" s="78"/>
+      <c r="AT28" s="78"/>
+      <c r="AU28" s="78"/>
+      <c r="AV28" s="78"/>
+      <c r="AW28" s="78"/>
+      <c r="AX28" s="78"/>
+      <c r="AY28" s="78"/>
+      <c r="AZ28" s="78"/>
+      <c r="BA28" s="78"/>
+      <c r="BB28" s="78"/>
+      <c r="BC28" s="78"/>
+      <c r="BD28" s="78"/>
+      <c r="BE28" s="78"/>
+      <c r="BF28" s="78"/>
     </row>
     <row r="29" spans="1:58" ht="15" customHeight="1">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="39"/>
-      <c r="S29" s="39"/>
-      <c r="T29" s="39"/>
-      <c r="U29" s="39"/>
-      <c r="V29" s="39"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="78"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="78"/>
       <c r="W29" s="13"/>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
       <c r="AB29" s="13"/>
-      <c r="AC29" s="39"/>
-      <c r="AD29" s="39"/>
-      <c r="AE29" s="39"/>
-      <c r="AF29" s="39"/>
-      <c r="AG29" s="39"/>
-      <c r="AH29" s="39"/>
-      <c r="AI29" s="39"/>
-      <c r="AJ29" s="39"/>
-      <c r="AK29" s="39"/>
-      <c r="AL29" s="39"/>
-      <c r="AM29" s="39"/>
-      <c r="AN29" s="39"/>
-      <c r="AO29" s="39"/>
-      <c r="AP29" s="39"/>
-      <c r="AQ29" s="39"/>
-      <c r="AR29" s="39"/>
-      <c r="AS29" s="39"/>
-      <c r="AT29" s="39"/>
-      <c r="AU29" s="39"/>
-      <c r="AV29" s="39"/>
-      <c r="AW29" s="39"/>
-      <c r="AX29" s="39"/>
-      <c r="AY29" s="39"/>
-      <c r="AZ29" s="39"/>
-      <c r="BA29" s="39"/>
-      <c r="BB29" s="39"/>
-      <c r="BC29" s="39"/>
-      <c r="BD29" s="39"/>
-      <c r="BE29" s="39"/>
-      <c r="BF29" s="39"/>
+      <c r="AC29" s="78"/>
+      <c r="AD29" s="78"/>
+      <c r="AE29" s="78"/>
+      <c r="AF29" s="78"/>
+      <c r="AG29" s="78"/>
+      <c r="AH29" s="78"/>
+      <c r="AI29" s="78"/>
+      <c r="AJ29" s="78"/>
+      <c r="AK29" s="78"/>
+      <c r="AL29" s="78"/>
+      <c r="AM29" s="78"/>
+      <c r="AN29" s="78"/>
+      <c r="AO29" s="78"/>
+      <c r="AP29" s="78"/>
+      <c r="AQ29" s="78"/>
+      <c r="AR29" s="78"/>
+      <c r="AS29" s="78"/>
+      <c r="AT29" s="78"/>
+      <c r="AU29" s="78"/>
+      <c r="AV29" s="78"/>
+      <c r="AW29" s="78"/>
+      <c r="AX29" s="78"/>
+      <c r="AY29" s="78"/>
+      <c r="AZ29" s="78"/>
+      <c r="BA29" s="78"/>
+      <c r="BB29" s="78"/>
+      <c r="BC29" s="78"/>
+      <c r="BD29" s="78"/>
+      <c r="BE29" s="78"/>
+      <c r="BF29" s="78"/>
     </row>
     <row r="30" spans="1:58" ht="15" customHeight="1">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="39"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="78"/>
+      <c r="V30" s="78"/>
       <c r="W30" s="13"/>
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
       <c r="AA30" s="13"/>
       <c r="AB30" s="13"/>
-      <c r="AC30" s="39"/>
-      <c r="AD30" s="39"/>
-      <c r="AE30" s="39"/>
-      <c r="AF30" s="39"/>
-      <c r="AG30" s="39"/>
-      <c r="AH30" s="39"/>
-      <c r="AI30" s="39"/>
-      <c r="AJ30" s="39"/>
-      <c r="AK30" s="39"/>
-      <c r="AL30" s="39"/>
-      <c r="AM30" s="39"/>
-      <c r="AN30" s="39"/>
-      <c r="AO30" s="39"/>
-      <c r="AP30" s="39"/>
-      <c r="AQ30" s="39"/>
-      <c r="AR30" s="39"/>
-      <c r="AS30" s="39"/>
-      <c r="AT30" s="39"/>
-      <c r="AU30" s="39"/>
-      <c r="AV30" s="39"/>
-      <c r="AW30" s="39"/>
-      <c r="AX30" s="39"/>
-      <c r="AY30" s="39"/>
-      <c r="AZ30" s="39"/>
-      <c r="BA30" s="39"/>
-      <c r="BB30" s="39"/>
-      <c r="BC30" s="39"/>
-      <c r="BD30" s="39"/>
-      <c r="BE30" s="39"/>
-      <c r="BF30" s="39"/>
+      <c r="AC30" s="78"/>
+      <c r="AD30" s="78"/>
+      <c r="AE30" s="78"/>
+      <c r="AF30" s="78"/>
+      <c r="AG30" s="78"/>
+      <c r="AH30" s="78"/>
+      <c r="AI30" s="78"/>
+      <c r="AJ30" s="78"/>
+      <c r="AK30" s="78"/>
+      <c r="AL30" s="78"/>
+      <c r="AM30" s="78"/>
+      <c r="AN30" s="78"/>
+      <c r="AO30" s="78"/>
+      <c r="AP30" s="78"/>
+      <c r="AQ30" s="78"/>
+      <c r="AR30" s="78"/>
+      <c r="AS30" s="78"/>
+      <c r="AT30" s="78"/>
+      <c r="AU30" s="78"/>
+      <c r="AV30" s="78"/>
+      <c r="AW30" s="78"/>
+      <c r="AX30" s="78"/>
+      <c r="AY30" s="78"/>
+      <c r="AZ30" s="78"/>
+      <c r="BA30" s="78"/>
+      <c r="BB30" s="78"/>
+      <c r="BC30" s="78"/>
+      <c r="BD30" s="78"/>
+      <c r="BE30" s="78"/>
+      <c r="BF30" s="78"/>
     </row>
     <row r="31" spans="1:58" ht="15" customHeight="1">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="78"/>
+      <c r="Q31" s="78"/>
+      <c r="R31" s="78"/>
+      <c r="S31" s="78"/>
+      <c r="T31" s="78"/>
+      <c r="U31" s="78"/>
+      <c r="V31" s="78"/>
       <c r="W31" s="13"/>
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
       <c r="Z31" s="13"/>
       <c r="AA31" s="13"/>
       <c r="AB31" s="13"/>
-      <c r="AC31" s="39"/>
-      <c r="AD31" s="39"/>
-      <c r="AE31" s="39"/>
-      <c r="AF31" s="39"/>
-      <c r="AG31" s="39"/>
-      <c r="AH31" s="39"/>
-      <c r="AI31" s="39"/>
-      <c r="AJ31" s="39"/>
-      <c r="AK31" s="39"/>
-      <c r="AL31" s="39"/>
-      <c r="AM31" s="39"/>
-      <c r="AN31" s="39"/>
-      <c r="AO31" s="39"/>
-      <c r="AP31" s="39"/>
-      <c r="AQ31" s="39"/>
-      <c r="AR31" s="39"/>
-      <c r="AS31" s="39"/>
-      <c r="AT31" s="39"/>
-      <c r="AU31" s="39"/>
-      <c r="AV31" s="39"/>
-      <c r="AW31" s="39"/>
-      <c r="AX31" s="39"/>
-      <c r="AY31" s="39"/>
-      <c r="AZ31" s="39"/>
-      <c r="BA31" s="39"/>
-      <c r="BB31" s="39"/>
-      <c r="BC31" s="39"/>
-      <c r="BD31" s="39"/>
-      <c r="BE31" s="39"/>
-      <c r="BF31" s="39"/>
+      <c r="AC31" s="78"/>
+      <c r="AD31" s="78"/>
+      <c r="AE31" s="78"/>
+      <c r="AF31" s="78"/>
+      <c r="AG31" s="78"/>
+      <c r="AH31" s="78"/>
+      <c r="AI31" s="78"/>
+      <c r="AJ31" s="78"/>
+      <c r="AK31" s="78"/>
+      <c r="AL31" s="78"/>
+      <c r="AM31" s="78"/>
+      <c r="AN31" s="78"/>
+      <c r="AO31" s="78"/>
+      <c r="AP31" s="78"/>
+      <c r="AQ31" s="78"/>
+      <c r="AR31" s="78"/>
+      <c r="AS31" s="78"/>
+      <c r="AT31" s="78"/>
+      <c r="AU31" s="78"/>
+      <c r="AV31" s="78"/>
+      <c r="AW31" s="78"/>
+      <c r="AX31" s="78"/>
+      <c r="AY31" s="78"/>
+      <c r="AZ31" s="78"/>
+      <c r="BA31" s="78"/>
+      <c r="BB31" s="78"/>
+      <c r="BC31" s="78"/>
+      <c r="BD31" s="78"/>
+      <c r="BE31" s="78"/>
+      <c r="BF31" s="78"/>
     </row>
     <row r="32" spans="1:58" ht="15" customHeight="1">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="78"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="78"/>
+      <c r="Q32" s="78"/>
+      <c r="R32" s="78"/>
+      <c r="S32" s="78"/>
+      <c r="T32" s="78"/>
+      <c r="U32" s="78"/>
+      <c r="V32" s="78"/>
       <c r="W32" s="13"/>
       <c r="X32" s="13"/>
       <c r="Y32" s="13"/>
       <c r="Z32" s="13"/>
       <c r="AA32" s="13"/>
       <c r="AB32" s="13"/>
-      <c r="AC32" s="39"/>
-      <c r="AD32" s="39"/>
-      <c r="AE32" s="39"/>
-      <c r="AF32" s="39"/>
-      <c r="AG32" s="39"/>
-      <c r="AH32" s="39"/>
-      <c r="AI32" s="39"/>
-      <c r="AJ32" s="39"/>
-      <c r="AK32" s="39"/>
-      <c r="AL32" s="39"/>
-      <c r="AM32" s="39"/>
-      <c r="AN32" s="39"/>
-      <c r="AO32" s="39"/>
-      <c r="AP32" s="39"/>
-      <c r="AQ32" s="39"/>
-      <c r="AR32" s="39"/>
-      <c r="AS32" s="39"/>
-      <c r="AT32" s="39"/>
-      <c r="AU32" s="39"/>
-      <c r="AV32" s="39"/>
-      <c r="AW32" s="39"/>
-      <c r="AX32" s="39"/>
-      <c r="AY32" s="39"/>
-      <c r="AZ32" s="39"/>
-      <c r="BA32" s="39"/>
-      <c r="BB32" s="39"/>
-      <c r="BC32" s="39"/>
-      <c r="BD32" s="39"/>
-      <c r="BE32" s="39"/>
-      <c r="BF32" s="39"/>
+      <c r="AC32" s="78"/>
+      <c r="AD32" s="78"/>
+      <c r="AE32" s="78"/>
+      <c r="AF32" s="78"/>
+      <c r="AG32" s="78"/>
+      <c r="AH32" s="78"/>
+      <c r="AI32" s="78"/>
+      <c r="AJ32" s="78"/>
+      <c r="AK32" s="78"/>
+      <c r="AL32" s="78"/>
+      <c r="AM32" s="78"/>
+      <c r="AN32" s="78"/>
+      <c r="AO32" s="78"/>
+      <c r="AP32" s="78"/>
+      <c r="AQ32" s="78"/>
+      <c r="AR32" s="78"/>
+      <c r="AS32" s="78"/>
+      <c r="AT32" s="78"/>
+      <c r="AU32" s="78"/>
+      <c r="AV32" s="78"/>
+      <c r="AW32" s="78"/>
+      <c r="AX32" s="78"/>
+      <c r="AY32" s="78"/>
+      <c r="AZ32" s="78"/>
+      <c r="BA32" s="78"/>
+      <c r="BB32" s="78"/>
+      <c r="BC32" s="78"/>
+      <c r="BD32" s="78"/>
+      <c r="BE32" s="78"/>
+      <c r="BF32" s="78"/>
     </row>
     <row r="33" spans="1:58" ht="15" customHeight="1">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="78"/>
+      <c r="N33" s="78"/>
+      <c r="O33" s="78"/>
+      <c r="P33" s="78"/>
+      <c r="Q33" s="78"/>
+      <c r="R33" s="78"/>
+      <c r="S33" s="78"/>
+      <c r="T33" s="78"/>
+      <c r="U33" s="78"/>
+      <c r="V33" s="78"/>
       <c r="W33" s="13"/>
       <c r="X33" s="13"/>
       <c r="Y33" s="13"/>
       <c r="Z33" s="13"/>
       <c r="AA33" s="13"/>
       <c r="AB33" s="13"/>
-      <c r="AC33" s="39"/>
-      <c r="AD33" s="39"/>
-      <c r="AE33" s="39"/>
-      <c r="AF33" s="39"/>
-      <c r="AG33" s="39"/>
-      <c r="AH33" s="39"/>
-      <c r="AI33" s="39"/>
-      <c r="AJ33" s="39"/>
-      <c r="AK33" s="39"/>
-      <c r="AL33" s="39"/>
-      <c r="AM33" s="39"/>
-      <c r="AN33" s="39"/>
-      <c r="AO33" s="39"/>
-      <c r="AP33" s="39"/>
-      <c r="AQ33" s="39"/>
-      <c r="AR33" s="39"/>
-      <c r="AS33" s="39"/>
-      <c r="AT33" s="39"/>
-      <c r="AU33" s="39"/>
-      <c r="AV33" s="39"/>
-      <c r="AW33" s="39"/>
-      <c r="AX33" s="39"/>
-      <c r="AY33" s="39"/>
-      <c r="AZ33" s="39"/>
-      <c r="BA33" s="39"/>
-      <c r="BB33" s="39"/>
-      <c r="BC33" s="39"/>
-      <c r="BD33" s="39"/>
-      <c r="BE33" s="39"/>
-      <c r="BF33" s="39"/>
+      <c r="AC33" s="78"/>
+      <c r="AD33" s="78"/>
+      <c r="AE33" s="78"/>
+      <c r="AF33" s="78"/>
+      <c r="AG33" s="78"/>
+      <c r="AH33" s="78"/>
+      <c r="AI33" s="78"/>
+      <c r="AJ33" s="78"/>
+      <c r="AK33" s="78"/>
+      <c r="AL33" s="78"/>
+      <c r="AM33" s="78"/>
+      <c r="AN33" s="78"/>
+      <c r="AO33" s="78"/>
+      <c r="AP33" s="78"/>
+      <c r="AQ33" s="78"/>
+      <c r="AR33" s="78"/>
+      <c r="AS33" s="78"/>
+      <c r="AT33" s="78"/>
+      <c r="AU33" s="78"/>
+      <c r="AV33" s="78"/>
+      <c r="AW33" s="78"/>
+      <c r="AX33" s="78"/>
+      <c r="AY33" s="78"/>
+      <c r="AZ33" s="78"/>
+      <c r="BA33" s="78"/>
+      <c r="BB33" s="78"/>
+      <c r="BC33" s="78"/>
+      <c r="BD33" s="78"/>
+      <c r="BE33" s="78"/>
+      <c r="BF33" s="78"/>
     </row>
     <row r="34" spans="1:58" ht="15" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="78"/>
+      <c r="N34" s="78"/>
+      <c r="O34" s="78"/>
+      <c r="P34" s="78"/>
+      <c r="Q34" s="78"/>
+      <c r="R34" s="78"/>
+      <c r="S34" s="78"/>
+      <c r="T34" s="78"/>
+      <c r="U34" s="78"/>
+      <c r="V34" s="78"/>
       <c r="W34" s="13"/>
       <c r="X34" s="13"/>
       <c r="Y34" s="13"/>
       <c r="Z34" s="13"/>
       <c r="AA34" s="13"/>
       <c r="AB34" s="13"/>
-      <c r="AC34" s="39"/>
-      <c r="AD34" s="39"/>
-      <c r="AE34" s="39"/>
-      <c r="AF34" s="39"/>
-      <c r="AG34" s="39"/>
-      <c r="AH34" s="39"/>
-      <c r="AI34" s="39"/>
-      <c r="AJ34" s="39"/>
-      <c r="AK34" s="39"/>
-      <c r="AL34" s="39"/>
-      <c r="AM34" s="39"/>
-      <c r="AN34" s="39"/>
-      <c r="AO34" s="39"/>
-      <c r="AP34" s="39"/>
-      <c r="AQ34" s="39"/>
-      <c r="AR34" s="39"/>
-      <c r="AS34" s="39"/>
-      <c r="AT34" s="39"/>
-      <c r="AU34" s="39"/>
-      <c r="AV34" s="39"/>
-      <c r="AW34" s="39"/>
-      <c r="AX34" s="39"/>
-      <c r="AY34" s="39"/>
-      <c r="AZ34" s="39"/>
-      <c r="BA34" s="39"/>
-      <c r="BB34" s="39"/>
-      <c r="BC34" s="39"/>
-      <c r="BD34" s="39"/>
-      <c r="BE34" s="39"/>
-      <c r="BF34" s="39"/>
+      <c r="AC34" s="78"/>
+      <c r="AD34" s="78"/>
+      <c r="AE34" s="78"/>
+      <c r="AF34" s="78"/>
+      <c r="AG34" s="78"/>
+      <c r="AH34" s="78"/>
+      <c r="AI34" s="78"/>
+      <c r="AJ34" s="78"/>
+      <c r="AK34" s="78"/>
+      <c r="AL34" s="78"/>
+      <c r="AM34" s="78"/>
+      <c r="AN34" s="78"/>
+      <c r="AO34" s="78"/>
+      <c r="AP34" s="78"/>
+      <c r="AQ34" s="78"/>
+      <c r="AR34" s="78"/>
+      <c r="AS34" s="78"/>
+      <c r="AT34" s="78"/>
+      <c r="AU34" s="78"/>
+      <c r="AV34" s="78"/>
+      <c r="AW34" s="78"/>
+      <c r="AX34" s="78"/>
+      <c r="AY34" s="78"/>
+      <c r="AZ34" s="78"/>
+      <c r="BA34" s="78"/>
+      <c r="BB34" s="78"/>
+      <c r="BC34" s="78"/>
+      <c r="BD34" s="78"/>
+      <c r="BE34" s="78"/>
+      <c r="BF34" s="78"/>
     </row>
     <row r="35" spans="1:58" ht="15" customHeight="1">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="78"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="78"/>
+      <c r="P35" s="78"/>
+      <c r="Q35" s="78"/>
+      <c r="R35" s="78"/>
+      <c r="S35" s="78"/>
+      <c r="T35" s="78"/>
+      <c r="U35" s="78"/>
+      <c r="V35" s="78"/>
       <c r="W35" s="13"/>
       <c r="X35" s="13"/>
       <c r="Y35" s="13"/>
       <c r="Z35" s="13"/>
       <c r="AA35" s="13"/>
       <c r="AB35" s="13"/>
-      <c r="AC35" s="39"/>
-      <c r="AD35" s="39"/>
-      <c r="AE35" s="39"/>
-      <c r="AF35" s="39"/>
-      <c r="AG35" s="39"/>
-      <c r="AH35" s="39"/>
-      <c r="AI35" s="39"/>
-      <c r="AJ35" s="39"/>
-      <c r="AK35" s="39"/>
-      <c r="AL35" s="39"/>
-      <c r="AM35" s="39"/>
-      <c r="AN35" s="39"/>
-      <c r="AO35" s="39"/>
-      <c r="AP35" s="39"/>
-      <c r="AQ35" s="39"/>
-      <c r="AR35" s="39"/>
-      <c r="AS35" s="39"/>
-      <c r="AT35" s="39"/>
-      <c r="AU35" s="39"/>
-      <c r="AV35" s="39"/>
-      <c r="AW35" s="39"/>
-      <c r="AX35" s="39"/>
-      <c r="AY35" s="39"/>
-      <c r="AZ35" s="39"/>
-      <c r="BA35" s="39"/>
-      <c r="BB35" s="39"/>
-      <c r="BC35" s="39"/>
-      <c r="BD35" s="39"/>
-      <c r="BE35" s="39"/>
-      <c r="BF35" s="39"/>
+      <c r="AC35" s="78"/>
+      <c r="AD35" s="78"/>
+      <c r="AE35" s="78"/>
+      <c r="AF35" s="78"/>
+      <c r="AG35" s="78"/>
+      <c r="AH35" s="78"/>
+      <c r="AI35" s="78"/>
+      <c r="AJ35" s="78"/>
+      <c r="AK35" s="78"/>
+      <c r="AL35" s="78"/>
+      <c r="AM35" s="78"/>
+      <c r="AN35" s="78"/>
+      <c r="AO35" s="78"/>
+      <c r="AP35" s="78"/>
+      <c r="AQ35" s="78"/>
+      <c r="AR35" s="78"/>
+      <c r="AS35" s="78"/>
+      <c r="AT35" s="78"/>
+      <c r="AU35" s="78"/>
+      <c r="AV35" s="78"/>
+      <c r="AW35" s="78"/>
+      <c r="AX35" s="78"/>
+      <c r="AY35" s="78"/>
+      <c r="AZ35" s="78"/>
+      <c r="BA35" s="78"/>
+      <c r="BB35" s="78"/>
+      <c r="BC35" s="78"/>
+      <c r="BD35" s="78"/>
+      <c r="BE35" s="78"/>
+      <c r="BF35" s="78"/>
     </row>
     <row r="36" spans="1:58" ht="15" customHeight="1">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="39"/>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="39"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="78"/>
+      <c r="K36" s="78"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="78"/>
+      <c r="Q36" s="78"/>
+      <c r="R36" s="78"/>
+      <c r="S36" s="78"/>
+      <c r="T36" s="78"/>
+      <c r="U36" s="78"/>
+      <c r="V36" s="78"/>
       <c r="W36" s="13"/>
       <c r="X36" s="13"/>
       <c r="Y36" s="13"/>
       <c r="Z36" s="13"/>
       <c r="AA36" s="13"/>
       <c r="AB36" s="13"/>
-      <c r="AC36" s="39"/>
-      <c r="AD36" s="39"/>
-      <c r="AE36" s="39"/>
-      <c r="AF36" s="39"/>
-      <c r="AG36" s="39"/>
-      <c r="AH36" s="39"/>
-      <c r="AI36" s="39"/>
-      <c r="AJ36" s="39"/>
-      <c r="AK36" s="39"/>
-      <c r="AL36" s="39"/>
-      <c r="AM36" s="39"/>
-      <c r="AN36" s="39"/>
-      <c r="AO36" s="39"/>
-      <c r="AP36" s="39"/>
-      <c r="AQ36" s="39"/>
-      <c r="AR36" s="39"/>
-      <c r="AS36" s="39"/>
-      <c r="AT36" s="39"/>
-      <c r="AU36" s="39"/>
-      <c r="AV36" s="39"/>
-      <c r="AW36" s="39"/>
-      <c r="AX36" s="39"/>
-      <c r="AY36" s="39"/>
-      <c r="AZ36" s="39"/>
-      <c r="BA36" s="39"/>
-      <c r="BB36" s="39"/>
-      <c r="BC36" s="39"/>
-      <c r="BD36" s="39"/>
-      <c r="BE36" s="39"/>
-      <c r="BF36" s="39"/>
+      <c r="AC36" s="78"/>
+      <c r="AD36" s="78"/>
+      <c r="AE36" s="78"/>
+      <c r="AF36" s="78"/>
+      <c r="AG36" s="78"/>
+      <c r="AH36" s="78"/>
+      <c r="AI36" s="78"/>
+      <c r="AJ36" s="78"/>
+      <c r="AK36" s="78"/>
+      <c r="AL36" s="78"/>
+      <c r="AM36" s="78"/>
+      <c r="AN36" s="78"/>
+      <c r="AO36" s="78"/>
+      <c r="AP36" s="78"/>
+      <c r="AQ36" s="78"/>
+      <c r="AR36" s="78"/>
+      <c r="AS36" s="78"/>
+      <c r="AT36" s="78"/>
+      <c r="AU36" s="78"/>
+      <c r="AV36" s="78"/>
+      <c r="AW36" s="78"/>
+      <c r="AX36" s="78"/>
+      <c r="AY36" s="78"/>
+      <c r="AZ36" s="78"/>
+      <c r="BA36" s="78"/>
+      <c r="BB36" s="78"/>
+      <c r="BC36" s="78"/>
+      <c r="BD36" s="78"/>
+      <c r="BE36" s="78"/>
+      <c r="BF36" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="277">

--- a/atndnc-mngmnt/documents/basic-design-documents/functional-design/screen-design/画面一覧.xlsx
+++ b/atndnc-mngmnt/documents/basic-design-documents/functional-design/screen-design/画面一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\atndnc-mngmnt\documents\basic-design-documents\functional-design\screen-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EA6DCE-52AA-4EEE-97E0-19259338A7EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF8B138-F773-4DCB-9805-01C7EBB5900C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="525" windowWidth="20730" windowHeight="15030" tabRatio="888" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="1005" windowWidth="16050" windowHeight="15030" tabRatio="888" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="167" r:id="rId1"/>
@@ -274,13 +274,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>トップ画面</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>勤怠打刻</t>
     <rPh sb="0" eb="2">
       <t>キンタイ</t>
@@ -1612,10 +1605,14 @@
   </si>
   <si>
     <t>パスワードリセットを行う画面</t>
-    <rPh sb="15" eb="16">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
+    <rPh sb="0" eb="14">
+      <t>オコナガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面</t>
+    <rPh sb="3" eb="5">
       <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2637,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="Q1" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R1" s="24"/>
     </row>
@@ -2724,16 +2721,16 @@
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
@@ -3268,17 +3265,17 @@
   <sheetData>
     <row r="1" spans="1:3" ht="32.25" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="13" customFormat="1" ht="32.25" customHeight="1">
       <c r="B2" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="13" customFormat="1" ht="32.25" customHeight="1">
       <c r="C3" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="13" customFormat="1" ht="32.25" customHeight="1">
@@ -3320,7 +3317,7 @@
   <dimension ref="A1:BF38"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:K2"/>
+      <selection activeCell="C8" sqref="C8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
@@ -3354,7 +3351,7 @@
       <c r="S1" s="65"/>
       <c r="T1" s="65"/>
       <c r="U1" s="78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V1" s="79"/>
       <c r="W1" s="79"/>
@@ -3574,7 +3571,7 @@
       </c>
       <c r="B5" s="62"/>
       <c r="C5" s="63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="63"/>
       <c r="E5" s="63"/>
@@ -3585,7 +3582,7 @@
       <c r="J5" s="63"/>
       <c r="K5" s="63"/>
       <c r="L5" s="63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M5" s="63"/>
       <c r="N5" s="63"/>
@@ -3620,7 +3617,7 @@
       <c r="AM5" s="63"/>
       <c r="AN5" s="63"/>
       <c r="AO5" s="63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AP5" s="63"/>
       <c r="AQ5" s="63"/>
@@ -3651,7 +3648,7 @@
       </c>
       <c r="B6" s="59"/>
       <c r="C6" s="64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="64"/>
       <c r="E6" s="64"/>
@@ -3662,7 +3659,7 @@
       <c r="J6" s="64"/>
       <c r="K6" s="64"/>
       <c r="L6" s="64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M6" s="64"/>
       <c r="N6" s="64"/>
@@ -3675,7 +3672,7 @@
       <c r="U6" s="64"/>
       <c r="V6" s="64"/>
       <c r="W6" s="64" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X6" s="64"/>
       <c r="Y6" s="64"/>
@@ -3683,7 +3680,7 @@
       <c r="AA6" s="64"/>
       <c r="AB6" s="64"/>
       <c r="AC6" s="64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD6" s="64"/>
       <c r="AE6" s="64"/>
@@ -3697,14 +3694,14 @@
       <c r="AM6" s="64"/>
       <c r="AN6" s="64"/>
       <c r="AO6" s="64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AP6" s="64"/>
       <c r="AQ6" s="64"/>
       <c r="AR6" s="64"/>
       <c r="AS6" s="64"/>
       <c r="AT6" s="64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AU6" s="64"/>
       <c r="AV6" s="64"/>
@@ -3726,7 +3723,7 @@
       </c>
       <c r="B7" s="59"/>
       <c r="C7" s="64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="64"/>
       <c r="E7" s="64"/>
@@ -3737,7 +3734,7 @@
       <c r="J7" s="64"/>
       <c r="K7" s="64"/>
       <c r="L7" s="64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M7" s="64"/>
       <c r="N7" s="64"/>
@@ -3750,7 +3747,7 @@
       <c r="U7" s="64"/>
       <c r="V7" s="64"/>
       <c r="W7" s="64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X7" s="64"/>
       <c r="Y7" s="64"/>
@@ -3758,7 +3755,7 @@
       <c r="AA7" s="64"/>
       <c r="AB7" s="64"/>
       <c r="AC7" s="64" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AD7" s="64"/>
       <c r="AE7" s="64"/>
@@ -3772,14 +3769,14 @@
       <c r="AM7" s="64"/>
       <c r="AN7" s="64"/>
       <c r="AO7" s="64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AP7" s="64"/>
       <c r="AQ7" s="64"/>
       <c r="AR7" s="64"/>
       <c r="AS7" s="64"/>
       <c r="AT7" s="64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AU7" s="64"/>
       <c r="AV7" s="64"/>
@@ -3801,7 +3798,7 @@
       </c>
       <c r="B8" s="59"/>
       <c r="C8" s="60" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="60"/>
       <c r="E8" s="60"/>
@@ -3812,7 +3809,7 @@
       <c r="J8" s="60"/>
       <c r="K8" s="60"/>
       <c r="L8" s="60" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="M8" s="60"/>
       <c r="N8" s="60"/>
@@ -3825,7 +3822,7 @@
       <c r="U8" s="60"/>
       <c r="V8" s="60"/>
       <c r="W8" s="60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X8" s="60"/>
       <c r="Y8" s="60"/>
@@ -3833,7 +3830,7 @@
       <c r="AA8" s="60"/>
       <c r="AB8" s="60"/>
       <c r="AC8" s="60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AD8" s="60"/>
       <c r="AE8" s="60"/>
@@ -3847,21 +3844,21 @@
       <c r="AM8" s="60"/>
       <c r="AN8" s="60"/>
       <c r="AO8" s="60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AP8" s="60"/>
       <c r="AQ8" s="60"/>
       <c r="AR8" s="60"/>
       <c r="AS8" s="60"/>
       <c r="AT8" s="60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AU8" s="60"/>
       <c r="AV8" s="60"/>
       <c r="AW8" s="60"/>
       <c r="AX8" s="60"/>
       <c r="AY8" s="60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AZ8" s="60"/>
       <c r="BA8" s="60"/>
@@ -3878,7 +3875,7 @@
       </c>
       <c r="B9" s="57"/>
       <c r="C9" s="55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="55"/>
       <c r="E9" s="55"/>
@@ -3889,7 +3886,7 @@
       <c r="J9" s="55"/>
       <c r="K9" s="55"/>
       <c r="L9" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M9" s="55"/>
       <c r="N9" s="55"/>
@@ -3902,7 +3899,7 @@
       <c r="U9" s="55"/>
       <c r="V9" s="55"/>
       <c r="W9" s="55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X9" s="55"/>
       <c r="Y9" s="55"/>
@@ -3910,7 +3907,7 @@
       <c r="AA9" s="55"/>
       <c r="AB9" s="55"/>
       <c r="AC9" s="55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD9" s="55"/>
       <c r="AE9" s="55"/>
@@ -3924,21 +3921,21 @@
       <c r="AM9" s="55"/>
       <c r="AN9" s="55"/>
       <c r="AO9" s="55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AP9" s="55"/>
       <c r="AQ9" s="55"/>
       <c r="AR9" s="55"/>
       <c r="AS9" s="55"/>
       <c r="AT9" s="55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AU9" s="55"/>
       <c r="AV9" s="55"/>
       <c r="AW9" s="55"/>
       <c r="AX9" s="55"/>
       <c r="AY9" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AZ9" s="55"/>
       <c r="BA9" s="55"/>
@@ -3955,7 +3952,7 @@
       </c>
       <c r="B10" s="57"/>
       <c r="C10" s="55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="55"/>
       <c r="E10" s="55"/>
@@ -3966,7 +3963,7 @@
       <c r="J10" s="55"/>
       <c r="K10" s="55"/>
       <c r="L10" s="55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M10" s="55"/>
       <c r="N10" s="55"/>
@@ -3979,7 +3976,7 @@
       <c r="U10" s="55"/>
       <c r="V10" s="55"/>
       <c r="W10" s="55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X10" s="55"/>
       <c r="Y10" s="55"/>
@@ -3987,7 +3984,7 @@
       <c r="AA10" s="55"/>
       <c r="AB10" s="55"/>
       <c r="AC10" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD10" s="55"/>
       <c r="AE10" s="55"/>
@@ -4001,21 +3998,21 @@
       <c r="AM10" s="55"/>
       <c r="AN10" s="55"/>
       <c r="AO10" s="55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AP10" s="55"/>
       <c r="AQ10" s="55"/>
       <c r="AR10" s="55"/>
       <c r="AS10" s="55"/>
       <c r="AT10" s="55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AU10" s="55"/>
       <c r="AV10" s="55"/>
       <c r="AW10" s="55"/>
       <c r="AX10" s="55"/>
       <c r="AY10" s="55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AZ10" s="55"/>
       <c r="BA10" s="55"/>
@@ -4032,7 +4029,7 @@
       </c>
       <c r="B11" s="57"/>
       <c r="C11" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
@@ -4043,7 +4040,7 @@
       <c r="J11" s="55"/>
       <c r="K11" s="55"/>
       <c r="L11" s="55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M11" s="55"/>
       <c r="N11" s="55"/>
@@ -4056,7 +4053,7 @@
       <c r="U11" s="55"/>
       <c r="V11" s="55"/>
       <c r="W11" s="55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X11" s="55"/>
       <c r="Y11" s="55"/>
@@ -4064,7 +4061,7 @@
       <c r="AA11" s="55"/>
       <c r="AB11" s="55"/>
       <c r="AC11" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD11" s="55"/>
       <c r="AE11" s="55"/>
@@ -4078,21 +4075,21 @@
       <c r="AM11" s="55"/>
       <c r="AN11" s="55"/>
       <c r="AO11" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AP11" s="55"/>
       <c r="AQ11" s="55"/>
       <c r="AR11" s="55"/>
       <c r="AS11" s="55"/>
       <c r="AT11" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU11" s="55"/>
       <c r="AV11" s="55"/>
       <c r="AW11" s="55"/>
       <c r="AX11" s="55"/>
       <c r="AY11" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AZ11" s="55"/>
       <c r="BA11" s="55"/>
@@ -4109,7 +4106,7 @@
       </c>
       <c r="B12" s="51"/>
       <c r="C12" s="49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
@@ -4120,7 +4117,7 @@
       <c r="J12" s="49"/>
       <c r="K12" s="49"/>
       <c r="L12" s="49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M12" s="49"/>
       <c r="N12" s="49"/>
@@ -4133,7 +4130,7 @@
       <c r="U12" s="49"/>
       <c r="V12" s="49"/>
       <c r="W12" s="49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X12" s="49"/>
       <c r="Y12" s="49"/>
@@ -4141,7 +4138,7 @@
       <c r="AA12" s="49"/>
       <c r="AB12" s="49"/>
       <c r="AC12" s="49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AD12" s="49"/>
       <c r="AE12" s="49"/>
@@ -4155,21 +4152,21 @@
       <c r="AM12" s="49"/>
       <c r="AN12" s="49"/>
       <c r="AO12" s="49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AP12" s="49"/>
       <c r="AQ12" s="49"/>
       <c r="AR12" s="49"/>
       <c r="AS12" s="49"/>
       <c r="AT12" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AU12" s="49"/>
       <c r="AV12" s="49"/>
       <c r="AW12" s="49"/>
       <c r="AX12" s="49"/>
       <c r="AY12" s="49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AZ12" s="49"/>
       <c r="BA12" s="49"/>
@@ -4186,7 +4183,7 @@
       </c>
       <c r="B13" s="51"/>
       <c r="C13" s="49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="49"/>
       <c r="E13" s="49"/>
@@ -4197,7 +4194,7 @@
       <c r="J13" s="49"/>
       <c r="K13" s="49"/>
       <c r="L13" s="49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M13" s="49"/>
       <c r="N13" s="49"/>
@@ -4210,7 +4207,7 @@
       <c r="U13" s="49"/>
       <c r="V13" s="49"/>
       <c r="W13" s="49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X13" s="49"/>
       <c r="Y13" s="49"/>
@@ -4218,7 +4215,7 @@
       <c r="AA13" s="49"/>
       <c r="AB13" s="49"/>
       <c r="AC13" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AD13" s="49"/>
       <c r="AE13" s="49"/>
@@ -4232,21 +4229,21 @@
       <c r="AM13" s="49"/>
       <c r="AN13" s="49"/>
       <c r="AO13" s="49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AP13" s="49"/>
       <c r="AQ13" s="49"/>
       <c r="AR13" s="49"/>
       <c r="AS13" s="49"/>
       <c r="AT13" s="49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AU13" s="49"/>
       <c r="AV13" s="49"/>
       <c r="AW13" s="49"/>
       <c r="AX13" s="49"/>
       <c r="AY13" s="49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AZ13" s="49"/>
       <c r="BA13" s="49"/>
@@ -4263,7 +4260,7 @@
       </c>
       <c r="B14" s="51"/>
       <c r="C14" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" s="49"/>
       <c r="E14" s="49"/>
@@ -4274,7 +4271,7 @@
       <c r="J14" s="49"/>
       <c r="K14" s="49"/>
       <c r="L14" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M14" s="53"/>
       <c r="N14" s="53"/>
@@ -4287,7 +4284,7 @@
       <c r="U14" s="53"/>
       <c r="V14" s="54"/>
       <c r="W14" s="49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X14" s="49"/>
       <c r="Y14" s="49"/>
@@ -4295,7 +4292,7 @@
       <c r="AA14" s="49"/>
       <c r="AB14" s="49"/>
       <c r="AC14" s="49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD14" s="49"/>
       <c r="AE14" s="49"/>
@@ -4309,21 +4306,21 @@
       <c r="AM14" s="49"/>
       <c r="AN14" s="49"/>
       <c r="AO14" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AP14" s="49"/>
       <c r="AQ14" s="49"/>
       <c r="AR14" s="49"/>
       <c r="AS14" s="49"/>
       <c r="AT14" s="49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AU14" s="49"/>
       <c r="AV14" s="49"/>
       <c r="AW14" s="49"/>
       <c r="AX14" s="49"/>
       <c r="AY14" s="49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AZ14" s="49"/>
       <c r="BA14" s="49"/>
@@ -4340,7 +4337,7 @@
       </c>
       <c r="B15" s="51"/>
       <c r="C15" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="49"/>
       <c r="E15" s="49"/>
@@ -4351,7 +4348,7 @@
       <c r="J15" s="49"/>
       <c r="K15" s="49"/>
       <c r="L15" s="49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M15" s="49"/>
       <c r="N15" s="49"/>
@@ -4364,7 +4361,7 @@
       <c r="U15" s="49"/>
       <c r="V15" s="49"/>
       <c r="W15" s="49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X15" s="49"/>
       <c r="Y15" s="49"/>
@@ -4372,7 +4369,7 @@
       <c r="AA15" s="49"/>
       <c r="AB15" s="49"/>
       <c r="AC15" s="49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD15" s="49"/>
       <c r="AE15" s="49"/>
@@ -4386,21 +4383,21 @@
       <c r="AM15" s="49"/>
       <c r="AN15" s="49"/>
       <c r="AO15" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AP15" s="49"/>
       <c r="AQ15" s="49"/>
       <c r="AR15" s="49"/>
       <c r="AS15" s="49"/>
       <c r="AT15" s="49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU15" s="49"/>
       <c r="AV15" s="49"/>
       <c r="AW15" s="49"/>
       <c r="AX15" s="49"/>
       <c r="AY15" s="49" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AZ15" s="49"/>
       <c r="BA15" s="49"/>
@@ -4417,7 +4414,7 @@
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="43"/>
       <c r="E16" s="43"/>
@@ -4428,7 +4425,7 @@
       <c r="J16" s="43"/>
       <c r="K16" s="43"/>
       <c r="L16" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M16" s="43"/>
       <c r="N16" s="43"/>
@@ -4441,7 +4438,7 @@
       <c r="U16" s="43"/>
       <c r="V16" s="43"/>
       <c r="W16" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X16" s="43"/>
       <c r="Y16" s="43"/>
@@ -4449,7 +4446,7 @@
       <c r="AA16" s="43"/>
       <c r="AB16" s="43"/>
       <c r="AC16" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AD16" s="43"/>
       <c r="AE16" s="43"/>
@@ -4463,21 +4460,21 @@
       <c r="AM16" s="43"/>
       <c r="AN16" s="43"/>
       <c r="AO16" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AP16" s="43"/>
       <c r="AQ16" s="43"/>
       <c r="AR16" s="43"/>
       <c r="AS16" s="43"/>
       <c r="AT16" s="43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AU16" s="43"/>
       <c r="AV16" s="43"/>
       <c r="AW16" s="43"/>
       <c r="AX16" s="43"/>
       <c r="AY16" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AZ16" s="43"/>
       <c r="BA16" s="43"/>
@@ -4494,7 +4491,7 @@
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
@@ -4505,7 +4502,7 @@
       <c r="J17" s="43"/>
       <c r="K17" s="43"/>
       <c r="L17" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M17" s="43"/>
       <c r="N17" s="43"/>
@@ -4518,7 +4515,7 @@
       <c r="U17" s="43"/>
       <c r="V17" s="43"/>
       <c r="W17" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X17" s="43"/>
       <c r="Y17" s="43"/>
@@ -4526,7 +4523,7 @@
       <c r="AA17" s="43"/>
       <c r="AB17" s="43"/>
       <c r="AC17" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD17" s="43"/>
       <c r="AE17" s="43"/>
@@ -4540,21 +4537,21 @@
       <c r="AM17" s="43"/>
       <c r="AN17" s="43"/>
       <c r="AO17" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AP17" s="43"/>
       <c r="AQ17" s="43"/>
       <c r="AR17" s="43"/>
       <c r="AS17" s="43"/>
       <c r="AT17" s="43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AU17" s="43"/>
       <c r="AV17" s="43"/>
       <c r="AW17" s="43"/>
       <c r="AX17" s="43"/>
       <c r="AY17" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AZ17" s="43"/>
       <c r="BA17" s="43"/>
@@ -4571,7 +4568,7 @@
       </c>
       <c r="B18" s="48"/>
       <c r="C18" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
@@ -4582,7 +4579,7 @@
       <c r="J18" s="43"/>
       <c r="K18" s="43"/>
       <c r="L18" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M18" s="43"/>
       <c r="N18" s="43"/>
@@ -4595,7 +4592,7 @@
       <c r="U18" s="43"/>
       <c r="V18" s="43"/>
       <c r="W18" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X18" s="43"/>
       <c r="Y18" s="43"/>
@@ -4603,7 +4600,7 @@
       <c r="AA18" s="43"/>
       <c r="AB18" s="43"/>
       <c r="AC18" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD18" s="43"/>
       <c r="AE18" s="43"/>
@@ -4617,21 +4614,21 @@
       <c r="AM18" s="43"/>
       <c r="AN18" s="43"/>
       <c r="AO18" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AP18" s="41"/>
       <c r="AQ18" s="41"/>
       <c r="AR18" s="41"/>
       <c r="AS18" s="42"/>
       <c r="AT18" s="43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AU18" s="43"/>
       <c r="AV18" s="43"/>
       <c r="AW18" s="43"/>
       <c r="AX18" s="43"/>
       <c r="AY18" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AZ18" s="43"/>
       <c r="BA18" s="43"/>
@@ -4648,7 +4645,7 @@
       </c>
       <c r="B19" s="48"/>
       <c r="C19" s="43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D19" s="43"/>
       <c r="E19" s="43"/>
@@ -4659,7 +4656,7 @@
       <c r="J19" s="43"/>
       <c r="K19" s="43"/>
       <c r="L19" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M19" s="43"/>
       <c r="N19" s="43"/>
@@ -4672,7 +4669,7 @@
       <c r="U19" s="43"/>
       <c r="V19" s="43"/>
       <c r="W19" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X19" s="43"/>
       <c r="Y19" s="43"/>
@@ -4680,7 +4677,7 @@
       <c r="AA19" s="43"/>
       <c r="AB19" s="43"/>
       <c r="AC19" s="43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AD19" s="43"/>
       <c r="AE19" s="43"/>
@@ -4694,21 +4691,21 @@
       <c r="AM19" s="43"/>
       <c r="AN19" s="43"/>
       <c r="AO19" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AP19" s="41"/>
       <c r="AQ19" s="41"/>
       <c r="AR19" s="41"/>
       <c r="AS19" s="42"/>
       <c r="AT19" s="43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AU19" s="43"/>
       <c r="AV19" s="43"/>
       <c r="AW19" s="43"/>
       <c r="AX19" s="43"/>
       <c r="AY19" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AZ19" s="43"/>
       <c r="BA19" s="43"/>
@@ -4725,7 +4722,7 @@
       </c>
       <c r="B20" s="48"/>
       <c r="C20" s="43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D20" s="43"/>
       <c r="E20" s="43"/>
@@ -4736,7 +4733,7 @@
       <c r="J20" s="43"/>
       <c r="K20" s="43"/>
       <c r="L20" s="43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M20" s="43"/>
       <c r="N20" s="43"/>
@@ -4749,7 +4746,7 @@
       <c r="U20" s="43"/>
       <c r="V20" s="43"/>
       <c r="W20" s="43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X20" s="43"/>
       <c r="Y20" s="43"/>
@@ -4757,7 +4754,7 @@
       <c r="AA20" s="43"/>
       <c r="AB20" s="43"/>
       <c r="AC20" s="43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AD20" s="43"/>
       <c r="AE20" s="43"/>
@@ -4771,21 +4768,21 @@
       <c r="AM20" s="43"/>
       <c r="AN20" s="43"/>
       <c r="AO20" s="40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AP20" s="41"/>
       <c r="AQ20" s="41"/>
       <c r="AR20" s="41"/>
       <c r="AS20" s="42"/>
       <c r="AT20" s="43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AU20" s="43"/>
       <c r="AV20" s="43"/>
       <c r="AW20" s="43"/>
       <c r="AX20" s="43"/>
       <c r="AY20" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AZ20" s="43"/>
       <c r="BA20" s="43"/>
@@ -4802,7 +4799,7 @@
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
@@ -4813,7 +4810,7 @@
       <c r="J21" s="43"/>
       <c r="K21" s="43"/>
       <c r="L21" s="43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M21" s="43"/>
       <c r="N21" s="43"/>
@@ -4826,7 +4823,7 @@
       <c r="U21" s="43"/>
       <c r="V21" s="43"/>
       <c r="W21" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X21" s="43"/>
       <c r="Y21" s="43"/>
@@ -4834,7 +4831,7 @@
       <c r="AA21" s="43"/>
       <c r="AB21" s="43"/>
       <c r="AC21" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD21" s="43"/>
       <c r="AE21" s="43"/>
@@ -4848,21 +4845,21 @@
       <c r="AM21" s="43"/>
       <c r="AN21" s="43"/>
       <c r="AO21" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AP21" s="41"/>
       <c r="AQ21" s="41"/>
       <c r="AR21" s="41"/>
       <c r="AS21" s="42"/>
       <c r="AT21" s="43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU21" s="43"/>
       <c r="AV21" s="43"/>
       <c r="AW21" s="43"/>
       <c r="AX21" s="43"/>
       <c r="AY21" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AZ21" s="43"/>
       <c r="BA21" s="43"/>
@@ -4879,7 +4876,7 @@
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D22" s="43"/>
       <c r="E22" s="43"/>
@@ -4890,7 +4887,7 @@
       <c r="J22" s="43"/>
       <c r="K22" s="43"/>
       <c r="L22" s="43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M22" s="43"/>
       <c r="N22" s="43"/>
@@ -4903,7 +4900,7 @@
       <c r="U22" s="43"/>
       <c r="V22" s="43"/>
       <c r="W22" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X22" s="43"/>
       <c r="Y22" s="43"/>
@@ -4911,7 +4908,7 @@
       <c r="AA22" s="43"/>
       <c r="AB22" s="43"/>
       <c r="AC22" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AD22" s="43"/>
       <c r="AE22" s="43"/>
@@ -4925,7 +4922,7 @@
       <c r="AM22" s="43"/>
       <c r="AN22" s="43"/>
       <c r="AO22" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AP22" s="41"/>
       <c r="AQ22" s="41"/>
@@ -4937,7 +4934,7 @@
       <c r="AW22" s="43"/>
       <c r="AX22" s="43"/>
       <c r="AY22" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AZ22" s="43"/>
       <c r="BA22" s="43"/>
@@ -4954,7 +4951,7 @@
       </c>
       <c r="B23" s="45"/>
       <c r="C23" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" s="46"/>
       <c r="E23" s="46"/>
@@ -4965,7 +4962,7 @@
       <c r="J23" s="46"/>
       <c r="K23" s="46"/>
       <c r="L23" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M23" s="46"/>
       <c r="N23" s="46"/>
@@ -4978,7 +4975,7 @@
       <c r="U23" s="46"/>
       <c r="V23" s="46"/>
       <c r="W23" s="46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X23" s="46"/>
       <c r="Y23" s="46"/>
@@ -4986,7 +4983,7 @@
       <c r="AA23" s="46"/>
       <c r="AB23" s="46"/>
       <c r="AC23" s="46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD23" s="46"/>
       <c r="AE23" s="46"/>
@@ -5000,21 +4997,21 @@
       <c r="AM23" s="46"/>
       <c r="AN23" s="46"/>
       <c r="AO23" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AP23" s="46"/>
       <c r="AQ23" s="46"/>
       <c r="AR23" s="46"/>
       <c r="AS23" s="46"/>
       <c r="AT23" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AU23" s="46"/>
       <c r="AV23" s="46"/>
       <c r="AW23" s="46"/>
       <c r="AX23" s="46"/>
       <c r="AY23" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AZ23" s="46"/>
       <c r="BA23" s="46"/>
@@ -5031,7 +5028,7 @@
       </c>
       <c r="B24" s="39"/>
       <c r="C24" s="37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="37"/>
       <c r="E24" s="37"/>
@@ -5042,7 +5039,7 @@
       <c r="J24" s="37"/>
       <c r="K24" s="37"/>
       <c r="L24" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M24" s="37"/>
       <c r="N24" s="37"/>
@@ -5055,7 +5052,7 @@
       <c r="U24" s="37"/>
       <c r="V24" s="37"/>
       <c r="W24" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X24" s="37"/>
       <c r="Y24" s="37"/>
@@ -5063,7 +5060,7 @@
       <c r="AA24" s="37"/>
       <c r="AB24" s="37"/>
       <c r="AC24" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AD24" s="37"/>
       <c r="AE24" s="37"/>
@@ -5077,21 +5074,21 @@
       <c r="AM24" s="37"/>
       <c r="AN24" s="37"/>
       <c r="AO24" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AP24" s="37"/>
       <c r="AQ24" s="37"/>
       <c r="AR24" s="37"/>
       <c r="AS24" s="37"/>
       <c r="AT24" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AU24" s="37"/>
       <c r="AV24" s="37"/>
       <c r="AW24" s="37"/>
       <c r="AX24" s="37"/>
       <c r="AY24" s="37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AZ24" s="37"/>
       <c r="BA24" s="37"/>
@@ -5108,7 +5105,7 @@
       </c>
       <c r="B25" s="39"/>
       <c r="C25" s="37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
@@ -5119,7 +5116,7 @@
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
       <c r="L25" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M25" s="37"/>
       <c r="N25" s="37"/>
@@ -5132,7 +5129,7 @@
       <c r="U25" s="37"/>
       <c r="V25" s="37"/>
       <c r="W25" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X25" s="37"/>
       <c r="Y25" s="37"/>
@@ -5140,7 +5137,7 @@
       <c r="AA25" s="37"/>
       <c r="AB25" s="37"/>
       <c r="AC25" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AD25" s="37"/>
       <c r="AE25" s="37"/>
@@ -5154,21 +5151,21 @@
       <c r="AM25" s="37"/>
       <c r="AN25" s="37"/>
       <c r="AO25" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AP25" s="37"/>
       <c r="AQ25" s="37"/>
       <c r="AR25" s="37"/>
       <c r="AS25" s="37"/>
       <c r="AT25" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AU25" s="37"/>
       <c r="AV25" s="37"/>
       <c r="AW25" s="37"/>
       <c r="AX25" s="37"/>
       <c r="AY25" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AZ25" s="37"/>
       <c r="BA25" s="37"/>
@@ -5180,7 +5177,7 @@
     </row>
     <row r="26" spans="1:58" ht="15" customHeight="1">
       <c r="A26" s="34">
-        <f t="shared" ref="A25:A28" si="1">ROW()-4</f>
+        <f t="shared" ref="A26:A28" si="1">ROW()-4</f>
         <v>22</v>
       </c>
       <c r="B26" s="35"/>

--- a/atndnc-mngmnt/documents/basic-design-documents/functional-design/screen-design/画面一覧.xlsx
+++ b/atndnc-mngmnt/documents/basic-design-documents/functional-design/screen-design/画面一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\atndnc-mngmnt\documents\basic-design-documents\functional-design\screen-design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED0C074-0762-40FD-8D83-6951FCF54EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F52BEFC-D3A3-429D-9AD1-75D8EF53ADD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="16440" windowHeight="15030" tabRatio="888" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="180" windowWidth="19350" windowHeight="16020" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="167" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="画面一覧" sheetId="166" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">画面一覧!$A$1:$BF$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">画面一覧!$A$1:$BF$36</definedName>
     <definedName name="範囲１" localSheetId="2">#REF!</definedName>
     <definedName name="範囲１" localSheetId="1">#REF!</definedName>
     <definedName name="範囲１" localSheetId="0">#REF!</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="148">
   <si>
     <t>作成者</t>
   </si>
@@ -523,46 +523,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>勤怠管理トップ画面</t>
-    <rPh sb="0" eb="2">
-      <t>キンタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤怠報告トップ画面</t>
-    <rPh sb="0" eb="2">
-      <t>キンタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ホウコク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イチガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>AMS10400</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>人事管理トップ画面</t>
-    <rPh sb="0" eb="2">
-      <t>ジンジ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -629,22 +590,6 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一括登録の確認画面</t>
-    <rPh sb="0" eb="2">
-      <t>イッカツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1006,23 +951,6 @@
   </si>
   <si>
     <t>権限者機能
-指定のインポートファイルを使用して登録する</t>
-    <rPh sb="6" eb="8">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>権限者機能</t>
-  </si>
-  <si>
-    <t>権限者機能
 所属毎に表示可能</t>
     <rPh sb="6" eb="9">
       <t>ショゾクゴト</t>
@@ -1093,22 +1021,6 @@
   </si>
   <si>
     <t>AMS10540</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AMS10541</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AMS10542</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AMF10542</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AMF10541</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1447,97 +1359,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新規メンバー登録画面</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>手動で新規メンバーを登録できる画面</t>
-    <rPh sb="0" eb="2">
-      <t>シュドウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メンバー登録フォーム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規メンバー一括登録画面</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イッカツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エクセルファイルにて新規メンバーを一括で登録できる画面</t>
-    <rPh sb="10" eb="12">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イッカツ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メンバー一括登録フォーム</t>
-    <rPh sb="4" eb="6">
-      <t>イッカツ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規メンバー一括登録確認画面</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イッカツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1554,6 +1376,72 @@
     </rPh>
     <rPh sb="19" eb="20">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠管理画面</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠報告画面</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人事管理画面</t>
+    <rPh sb="0" eb="2">
+      <t>ジンジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンバーを登録できる画面</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンバー登録画面</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シート名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1565,7 +1453,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -1668,21 +1556,15 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="明朝"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1740,6 +1622,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1916,12 +1804,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1968,15 +1857,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2184,8 +2064,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="2" xr:uid="{FEB8CF93-6BD3-4A58-B1A9-11627D2CA594}"/>
     <cellStyle name="標準_生産計画ED書" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -2537,7 +2423,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
@@ -2552,56 +2438,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" s="22"/>
+      <c r="Q1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="19"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
       <c r="P2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="23">
+      <c r="Q2" s="20">
         <v>44541</v>
       </c>
-      <c r="R2" s="24"/>
+      <c r="R2" s="21"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="6"/>
@@ -2627,435 +2513,435 @@
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="23">
         <v>44541</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="9">
         <v>5</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="9">
         <v>6</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="9">
         <v>7</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="9">
         <v>8</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="9">
         <v>9</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="9">
         <v>10</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="9">
         <v>11</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="9">
         <v>12</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="9">
         <v>13</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="9">
         <v>14</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="9">
         <v>15</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="9">
         <v>16</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="9">
         <v>17</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="9">
         <v>18</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1">
       <c r="A23" s="8"/>
@@ -3193,59 +3079,79 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F9BCDE-2C51-423B-BBED-314FA4DD1F60}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="5" width="5.625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="5.625" style="12" customWidth="1"/>
     <col min="6" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="32.25" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="13" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B2" s="14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="13" customFormat="1" ht="32.25" customHeight="1">
-      <c r="C3" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="13" customFormat="1" ht="32.25" customHeight="1">
-      <c r="C4" s="15"/>
-    </row>
-    <row r="5" spans="1:3" s="13" customFormat="1" ht="32.25" customHeight="1">
-      <c r="C5" s="15"/>
-    </row>
-    <row r="6" spans="1:3" s="13" customFormat="1" ht="32.25" customHeight="1">
-      <c r="C6" s="15"/>
-    </row>
-    <row r="7" spans="1:3" s="13" customFormat="1" ht="32.25" customHeight="1">
-      <c r="C7" s="16"/>
-    </row>
-    <row r="8" spans="1:3" s="13" customFormat="1" ht="32.25" customHeight="1">
-      <c r="C8" s="17"/>
-    </row>
-    <row r="9" spans="1:3" s="13" customFormat="1" ht="32.25" customHeight="1">
-      <c r="C9" s="16"/>
-    </row>
-    <row r="10" spans="1:3" s="13" customFormat="1" ht="32.25" customHeight="1">
-      <c r="C10" s="17"/>
-    </row>
-    <row r="11" spans="1:3" s="13" customFormat="1" ht="32.25" customHeight="1">
-      <c r="C11" s="18"/>
-    </row>
-    <row r="12" spans="1:3" s="13" customFormat="1" ht="32.25" customHeight="1">
-      <c r="C12" s="18"/>
+    <row r="1" spans="1:3" ht="15.75">
+      <c r="A1" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="86">
+        <v>1</v>
+      </c>
+      <c r="B2" s="87" t="str">
+        <f>HYPERLINK("#'更新履歴'!A1","更新履歴")</f>
+        <v>更新履歴</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="86">
+        <v>2</v>
+      </c>
+      <c r="B3" s="87" t="str">
+        <f>HYPERLINK("#'概要'!A1","概要")</f>
+        <v>概要</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="86">
+        <v>3</v>
+      </c>
+      <c r="B4" s="87" t="str">
+        <f>HYPERLINK("#'画面一覧'!A1","画面一覧")</f>
+        <v>画面一覧</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="86"/>
+      <c r="B5" s="87"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="86"/>
+      <c r="B6" s="87"/>
+    </row>
+    <row r="8" spans="1:3" ht="18.75">
+      <c r="A8" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="21">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="1:3" ht="22.5">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="15" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3257,10 +3163,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:BF38"/>
+  <dimension ref="A1:BF36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:K5"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1"/>
@@ -3269,148 +3175,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="38" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="51" t="s">
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="39" t="s">
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="45" t="s">
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="46"/>
-      <c r="AU1" s="47"/>
-      <c r="AV1" s="42" t="s">
+      <c r="AP1" s="43"/>
+      <c r="AQ1" s="43"/>
+      <c r="AR1" s="43"/>
+      <c r="AS1" s="43"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="43"/>
-      <c r="AX1" s="43"/>
-      <c r="AY1" s="43"/>
-      <c r="AZ1" s="44"/>
-      <c r="BA1" s="45" t="s">
+      <c r="AW1" s="40"/>
+      <c r="AX1" s="40"/>
+      <c r="AY1" s="40"/>
+      <c r="AZ1" s="41"/>
+      <c r="BA1" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BB1" s="46"/>
-      <c r="BC1" s="46"/>
-      <c r="BD1" s="46"/>
-      <c r="BE1" s="46"/>
-      <c r="BF1" s="47"/>
+      <c r="BB1" s="43"/>
+      <c r="BC1" s="43"/>
+      <c r="BD1" s="43"/>
+      <c r="BE1" s="43"/>
+      <c r="BF1" s="44"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="38" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="42" t="s">
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="48">
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="45">
         <v>44541</v>
       </c>
-      <c r="AP2" s="46"/>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="47"/>
-      <c r="AV2" s="42" t="s">
+      <c r="AP2" s="43"/>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43"/>
+      <c r="AT2" s="43"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="43"/>
-      <c r="AX2" s="43"/>
-      <c r="AY2" s="43"/>
-      <c r="AZ2" s="44"/>
-      <c r="BA2" s="48">
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="45">
         <v>44541</v>
       </c>
-      <c r="BB2" s="49"/>
-      <c r="BC2" s="49"/>
-      <c r="BD2" s="49"/>
-      <c r="BE2" s="49"/>
-      <c r="BF2" s="50"/>
+      <c r="BB2" s="46"/>
+      <c r="BC2" s="46"/>
+      <c r="BD2" s="46"/>
+      <c r="BE2" s="46"/>
+      <c r="BF2" s="47"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
       <c r="A3" s="4"/>
@@ -3432,1547 +3338,1547 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:58" ht="15" customHeight="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32" t="s">
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32" t="s">
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="32" t="s">
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="29"/>
+      <c r="AO4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="32"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="32"/>
-      <c r="AT4" s="32" t="s">
+      <c r="AP4" s="29"/>
+      <c r="AQ4" s="29"/>
+      <c r="AR4" s="29"/>
+      <c r="AS4" s="29"/>
+      <c r="AT4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AU4" s="32"/>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="32" t="s">
+      <c r="AU4" s="29"/>
+      <c r="AV4" s="29"/>
+      <c r="AW4" s="29"/>
+      <c r="AX4" s="29"/>
+      <c r="AY4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32"/>
-      <c r="BB4" s="32"/>
-      <c r="BC4" s="32"/>
-      <c r="BD4" s="32"/>
-      <c r="BE4" s="32"/>
-      <c r="BF4" s="32"/>
+      <c r="AZ4" s="29"/>
+      <c r="BA4" s="29"/>
+      <c r="BB4" s="29"/>
+      <c r="BC4" s="29"/>
+      <c r="BD4" s="29"/>
+      <c r="BE4" s="29"/>
+      <c r="BF4" s="29"/>
     </row>
     <row r="5" spans="1:58" ht="97.5" customHeight="1">
-      <c r="A5" s="60">
-        <f t="shared" ref="A5:A25" si="0">ROW()-4</f>
+      <c r="A5" s="57">
+        <f t="shared" ref="A5:A23" si="0">ROW()-4</f>
         <v>1</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="33" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33" t="s">
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33" t="s">
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33" t="s">
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="30"/>
+      <c r="AI5" s="30"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="30"/>
+      <c r="AL5" s="30"/>
+      <c r="AM5" s="30"/>
+      <c r="AN5" s="30"/>
+      <c r="AO5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="AP5" s="33"/>
-      <c r="AQ5" s="33"/>
-      <c r="AR5" s="33"/>
-      <c r="AS5" s="33"/>
-      <c r="AT5" s="33" t="s">
+      <c r="AP5" s="30"/>
+      <c r="AQ5" s="30"/>
+      <c r="AR5" s="30"/>
+      <c r="AS5" s="30"/>
+      <c r="AT5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="AU5" s="33"/>
-      <c r="AV5" s="33"/>
-      <c r="AW5" s="33"/>
-      <c r="AX5" s="33"/>
-      <c r="AY5" s="34" t="s">
+      <c r="AU5" s="30"/>
+      <c r="AV5" s="30"/>
+      <c r="AW5" s="30"/>
+      <c r="AX5" s="30"/>
+      <c r="AY5" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="AZ5" s="35"/>
-      <c r="BA5" s="35"/>
-      <c r="BB5" s="35"/>
-      <c r="BC5" s="35"/>
-      <c r="BD5" s="35"/>
-      <c r="BE5" s="35"/>
-      <c r="BF5" s="36"/>
+      <c r="AZ5" s="32"/>
+      <c r="BA5" s="32"/>
+      <c r="BB5" s="32"/>
+      <c r="BC5" s="32"/>
+      <c r="BD5" s="32"/>
+      <c r="BE5" s="32"/>
+      <c r="BF5" s="33"/>
     </row>
     <row r="6" spans="1:58" ht="34.5" customHeight="1">
-      <c r="A6" s="57">
+      <c r="A6" s="54">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="37" t="s">
+      <c r="B6" s="55"/>
+      <c r="C6" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="37"/>
-      <c r="AK6" s="37"/>
-      <c r="AL6" s="37"/>
-      <c r="AM6" s="37"/>
-      <c r="AN6" s="37"/>
-      <c r="AO6" s="37" t="s">
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="34"/>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="34"/>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="34"/>
+      <c r="AL6" s="34"/>
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="34"/>
+      <c r="AO6" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="AP6" s="37"/>
-      <c r="AQ6" s="37"/>
-      <c r="AR6" s="37"/>
-      <c r="AS6" s="37"/>
-      <c r="AT6" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="AU6" s="37"/>
-      <c r="AV6" s="37"/>
-      <c r="AW6" s="37"/>
-      <c r="AX6" s="37"/>
-      <c r="AY6" s="37"/>
-      <c r="AZ6" s="37"/>
-      <c r="BA6" s="37"/>
-      <c r="BB6" s="37"/>
-      <c r="BC6" s="37"/>
-      <c r="BD6" s="37"/>
-      <c r="BE6" s="37"/>
-      <c r="BF6" s="37"/>
+      <c r="AP6" s="34"/>
+      <c r="AQ6" s="34"/>
+      <c r="AR6" s="34"/>
+      <c r="AS6" s="34"/>
+      <c r="AT6" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU6" s="34"/>
+      <c r="AV6" s="34"/>
+      <c r="AW6" s="34"/>
+      <c r="AX6" s="34"/>
+      <c r="AY6" s="34"/>
+      <c r="AZ6" s="34"/>
+      <c r="BA6" s="34"/>
+      <c r="BB6" s="34"/>
+      <c r="BC6" s="34"/>
+      <c r="BD6" s="34"/>
+      <c r="BE6" s="34"/>
+      <c r="BF6" s="34"/>
     </row>
     <row r="7" spans="1:58" ht="34.5" customHeight="1">
-      <c r="A7" s="57">
+      <c r="A7" s="54">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD7" s="37"/>
-      <c r="AE7" s="37"/>
-      <c r="AF7" s="37"/>
-      <c r="AG7" s="37"/>
-      <c r="AH7" s="37"/>
-      <c r="AI7" s="37"/>
-      <c r="AJ7" s="37"/>
-      <c r="AK7" s="37"/>
-      <c r="AL7" s="37"/>
-      <c r="AM7" s="37"/>
-      <c r="AN7" s="37"/>
-      <c r="AO7" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="AP7" s="37"/>
-      <c r="AQ7" s="37"/>
-      <c r="AR7" s="37"/>
-      <c r="AS7" s="37"/>
-      <c r="AT7" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="AU7" s="37"/>
-      <c r="AV7" s="37"/>
-      <c r="AW7" s="37"/>
-      <c r="AX7" s="37"/>
-      <c r="AY7" s="37"/>
-      <c r="AZ7" s="37"/>
-      <c r="BA7" s="37"/>
-      <c r="BB7" s="37"/>
-      <c r="BC7" s="37"/>
-      <c r="BD7" s="37"/>
-      <c r="BE7" s="37"/>
-      <c r="BF7" s="37"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="34"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="34"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="34"/>
+      <c r="AO7" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP7" s="34"/>
+      <c r="AQ7" s="34"/>
+      <c r="AR7" s="34"/>
+      <c r="AS7" s="34"/>
+      <c r="AT7" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU7" s="34"/>
+      <c r="AV7" s="34"/>
+      <c r="AW7" s="34"/>
+      <c r="AX7" s="34"/>
+      <c r="AY7" s="34"/>
+      <c r="AZ7" s="34"/>
+      <c r="BA7" s="34"/>
+      <c r="BB7" s="34"/>
+      <c r="BC7" s="34"/>
+      <c r="BD7" s="34"/>
+      <c r="BE7" s="34"/>
+      <c r="BF7" s="34"/>
     </row>
     <row r="8" spans="1:58" ht="34.5" customHeight="1">
-      <c r="A8" s="57">
+      <c r="A8" s="54">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="59"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59" t="s">
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="59" t="s">
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AD8" s="59"/>
-      <c r="AE8" s="59"/>
-      <c r="AF8" s="59"/>
-      <c r="AG8" s="59"/>
-      <c r="AH8" s="59"/>
-      <c r="AI8" s="59"/>
-      <c r="AJ8" s="59"/>
-      <c r="AK8" s="59"/>
-      <c r="AL8" s="59"/>
-      <c r="AM8" s="59"/>
-      <c r="AN8" s="59"/>
-      <c r="AO8" s="59" t="s">
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="56"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="56"/>
+      <c r="AN8" s="56"/>
+      <c r="AO8" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="AP8" s="59"/>
-      <c r="AQ8" s="59"/>
-      <c r="AR8" s="59"/>
-      <c r="AS8" s="59"/>
-      <c r="AT8" s="59" t="s">
+      <c r="AP8" s="56"/>
+      <c r="AQ8" s="56"/>
+      <c r="AR8" s="56"/>
+      <c r="AS8" s="56"/>
+      <c r="AT8" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="AU8" s="59"/>
-      <c r="AV8" s="59"/>
-      <c r="AW8" s="59"/>
-      <c r="AX8" s="59"/>
-      <c r="AY8" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ8" s="59"/>
-      <c r="BA8" s="59"/>
-      <c r="BB8" s="59"/>
-      <c r="BC8" s="59"/>
-      <c r="BD8" s="59"/>
-      <c r="BE8" s="59"/>
-      <c r="BF8" s="59"/>
+      <c r="AU8" s="56"/>
+      <c r="AV8" s="56"/>
+      <c r="AW8" s="56"/>
+      <c r="AX8" s="56"/>
+      <c r="AY8" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ8" s="56"/>
+      <c r="BA8" s="56"/>
+      <c r="BB8" s="56"/>
+      <c r="BC8" s="56"/>
+      <c r="BD8" s="56"/>
+      <c r="BE8" s="56"/>
+      <c r="BF8" s="56"/>
     </row>
     <row r="9" spans="1:58" ht="63.75" customHeight="1">
-      <c r="A9" s="63">
+      <c r="A9" s="60">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="62" t="s">
+      <c r="B9" s="61"/>
+      <c r="C9" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62" t="s">
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD9" s="62"/>
-      <c r="AE9" s="62"/>
-      <c r="AF9" s="62"/>
-      <c r="AG9" s="62"/>
-      <c r="AH9" s="62"/>
-      <c r="AI9" s="62"/>
-      <c r="AJ9" s="62"/>
-      <c r="AK9" s="62"/>
-      <c r="AL9" s="62"/>
-      <c r="AM9" s="62"/>
-      <c r="AN9" s="62"/>
-      <c r="AO9" s="62" t="s">
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="59"/>
+      <c r="AG9" s="59"/>
+      <c r="AH9" s="59"/>
+      <c r="AI9" s="59"/>
+      <c r="AJ9" s="59"/>
+      <c r="AK9" s="59"/>
+      <c r="AL9" s="59"/>
+      <c r="AM9" s="59"/>
+      <c r="AN9" s="59"/>
+      <c r="AO9" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="AP9" s="62"/>
-      <c r="AQ9" s="62"/>
-      <c r="AR9" s="62"/>
-      <c r="AS9" s="62"/>
-      <c r="AT9" s="62" t="s">
+      <c r="AP9" s="59"/>
+      <c r="AQ9" s="59"/>
+      <c r="AR9" s="59"/>
+      <c r="AS9" s="59"/>
+      <c r="AT9" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="AU9" s="62"/>
-      <c r="AV9" s="62"/>
-      <c r="AW9" s="62"/>
-      <c r="AX9" s="62"/>
-      <c r="AY9" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="AZ9" s="62"/>
-      <c r="BA9" s="62"/>
-      <c r="BB9" s="62"/>
-      <c r="BC9" s="62"/>
-      <c r="BD9" s="62"/>
-      <c r="BE9" s="62"/>
-      <c r="BF9" s="62"/>
+      <c r="AU9" s="59"/>
+      <c r="AV9" s="59"/>
+      <c r="AW9" s="59"/>
+      <c r="AX9" s="59"/>
+      <c r="AY9" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ9" s="59"/>
+      <c r="BA9" s="59"/>
+      <c r="BB9" s="59"/>
+      <c r="BC9" s="59"/>
+      <c r="BD9" s="59"/>
+      <c r="BE9" s="59"/>
+      <c r="BF9" s="59"/>
     </row>
     <row r="10" spans="1:58" ht="46.5" customHeight="1">
-      <c r="A10" s="63">
+      <c r="A10" s="60">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="62" t="s">
+      <c r="B10" s="61"/>
+      <c r="C10" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62" t="s">
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD10" s="62"/>
-      <c r="AE10" s="62"/>
-      <c r="AF10" s="62"/>
-      <c r="AG10" s="62"/>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="62"/>
-      <c r="AJ10" s="62"/>
-      <c r="AK10" s="62"/>
-      <c r="AL10" s="62"/>
-      <c r="AM10" s="62"/>
-      <c r="AN10" s="62"/>
-      <c r="AO10" s="62" t="s">
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="59"/>
+      <c r="AG10" s="59"/>
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="59"/>
+      <c r="AJ10" s="59"/>
+      <c r="AK10" s="59"/>
+      <c r="AL10" s="59"/>
+      <c r="AM10" s="59"/>
+      <c r="AN10" s="59"/>
+      <c r="AO10" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="AP10" s="62"/>
-      <c r="AQ10" s="62"/>
-      <c r="AR10" s="62"/>
-      <c r="AS10" s="62"/>
-      <c r="AT10" s="62" t="s">
+      <c r="AP10" s="59"/>
+      <c r="AQ10" s="59"/>
+      <c r="AR10" s="59"/>
+      <c r="AS10" s="59"/>
+      <c r="AT10" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="AU10" s="62"/>
-      <c r="AV10" s="62"/>
-      <c r="AW10" s="62"/>
-      <c r="AX10" s="62"/>
-      <c r="AY10" s="62" t="s">
+      <c r="AU10" s="59"/>
+      <c r="AV10" s="59"/>
+      <c r="AW10" s="59"/>
+      <c r="AX10" s="59"/>
+      <c r="AY10" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="AZ10" s="62"/>
-      <c r="BA10" s="62"/>
-      <c r="BB10" s="62"/>
-      <c r="BC10" s="62"/>
-      <c r="BD10" s="62"/>
-      <c r="BE10" s="62"/>
-      <c r="BF10" s="62"/>
+      <c r="AZ10" s="59"/>
+      <c r="BA10" s="59"/>
+      <c r="BB10" s="59"/>
+      <c r="BC10" s="59"/>
+      <c r="BD10" s="59"/>
+      <c r="BE10" s="59"/>
+      <c r="BF10" s="59"/>
     </row>
     <row r="11" spans="1:58" ht="46.5" customHeight="1">
-      <c r="A11" s="63">
+      <c r="A11" s="60">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="62" t="s">
+      <c r="B11" s="61"/>
+      <c r="C11" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62" t="s">
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62" t="s">
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="62"/>
-      <c r="AC11" s="62" t="s">
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="AD11" s="62"/>
-      <c r="AE11" s="62"/>
-      <c r="AF11" s="62"/>
-      <c r="AG11" s="62"/>
-      <c r="AH11" s="62"/>
-      <c r="AI11" s="62"/>
-      <c r="AJ11" s="62"/>
-      <c r="AK11" s="62"/>
-      <c r="AL11" s="62"/>
-      <c r="AM11" s="62"/>
-      <c r="AN11" s="62"/>
-      <c r="AO11" s="62" t="s">
+      <c r="AD11" s="59"/>
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="59"/>
+      <c r="AG11" s="59"/>
+      <c r="AH11" s="59"/>
+      <c r="AI11" s="59"/>
+      <c r="AJ11" s="59"/>
+      <c r="AK11" s="59"/>
+      <c r="AL11" s="59"/>
+      <c r="AM11" s="59"/>
+      <c r="AN11" s="59"/>
+      <c r="AO11" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="AP11" s="62"/>
-      <c r="AQ11" s="62"/>
-      <c r="AR11" s="62"/>
-      <c r="AS11" s="62"/>
-      <c r="AT11" s="62" t="s">
+      <c r="AP11" s="59"/>
+      <c r="AQ11" s="59"/>
+      <c r="AR11" s="59"/>
+      <c r="AS11" s="59"/>
+      <c r="AT11" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="AU11" s="62"/>
-      <c r="AV11" s="62"/>
-      <c r="AW11" s="62"/>
-      <c r="AX11" s="62"/>
-      <c r="AY11" s="62" t="s">
+      <c r="AU11" s="59"/>
+      <c r="AV11" s="59"/>
+      <c r="AW11" s="59"/>
+      <c r="AX11" s="59"/>
+      <c r="AY11" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="AZ11" s="62"/>
-      <c r="BA11" s="62"/>
-      <c r="BB11" s="62"/>
-      <c r="BC11" s="62"/>
-      <c r="BD11" s="62"/>
-      <c r="BE11" s="62"/>
-      <c r="BF11" s="62"/>
+      <c r="AZ11" s="59"/>
+      <c r="BA11" s="59"/>
+      <c r="BB11" s="59"/>
+      <c r="BC11" s="59"/>
+      <c r="BD11" s="59"/>
+      <c r="BE11" s="59"/>
+      <c r="BF11" s="59"/>
     </row>
     <row r="12" spans="1:58" ht="63.75" customHeight="1">
-      <c r="A12" s="65">
+      <c r="A12" s="62">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="67" t="s">
+      <c r="B12" s="63"/>
+      <c r="C12" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="X12" s="64"/>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="64"/>
+      <c r="AB12" s="64"/>
+      <c r="AC12" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD12" s="64"/>
+      <c r="AE12" s="64"/>
+      <c r="AF12" s="64"/>
+      <c r="AG12" s="64"/>
+      <c r="AH12" s="64"/>
+      <c r="AI12" s="64"/>
+      <c r="AJ12" s="64"/>
+      <c r="AK12" s="64"/>
+      <c r="AL12" s="64"/>
+      <c r="AM12" s="64"/>
+      <c r="AN12" s="64"/>
+      <c r="AO12" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="67"/>
-      <c r="Z12" s="67"/>
-      <c r="AA12" s="67"/>
-      <c r="AB12" s="67"/>
-      <c r="AC12" s="67" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD12" s="67"/>
-      <c r="AE12" s="67"/>
-      <c r="AF12" s="67"/>
-      <c r="AG12" s="67"/>
-      <c r="AH12" s="67"/>
-      <c r="AI12" s="67"/>
-      <c r="AJ12" s="67"/>
-      <c r="AK12" s="67"/>
-      <c r="AL12" s="67"/>
-      <c r="AM12" s="67"/>
-      <c r="AN12" s="67"/>
-      <c r="AO12" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP12" s="67"/>
-      <c r="AQ12" s="67"/>
-      <c r="AR12" s="67"/>
-      <c r="AS12" s="67"/>
-      <c r="AT12" s="67" t="s">
+      <c r="AP12" s="64"/>
+      <c r="AQ12" s="64"/>
+      <c r="AR12" s="64"/>
+      <c r="AS12" s="64"/>
+      <c r="AT12" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="AU12" s="67"/>
-      <c r="AV12" s="67"/>
-      <c r="AW12" s="67"/>
-      <c r="AX12" s="67"/>
-      <c r="AY12" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="AZ12" s="67"/>
-      <c r="BA12" s="67"/>
-      <c r="BB12" s="67"/>
-      <c r="BC12" s="67"/>
-      <c r="BD12" s="67"/>
-      <c r="BE12" s="67"/>
-      <c r="BF12" s="67"/>
+      <c r="AU12" s="64"/>
+      <c r="AV12" s="64"/>
+      <c r="AW12" s="64"/>
+      <c r="AX12" s="64"/>
+      <c r="AY12" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="AZ12" s="64"/>
+      <c r="BA12" s="64"/>
+      <c r="BB12" s="64"/>
+      <c r="BC12" s="64"/>
+      <c r="BD12" s="64"/>
+      <c r="BE12" s="64"/>
+      <c r="BF12" s="64"/>
     </row>
     <row r="13" spans="1:58" ht="63.75" customHeight="1">
-      <c r="A13" s="65">
+      <c r="A13" s="62">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67" t="s">
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="67"/>
-      <c r="AA13" s="67"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="67" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD13" s="67"/>
-      <c r="AE13" s="67"/>
-      <c r="AF13" s="67"/>
-      <c r="AG13" s="67"/>
-      <c r="AH13" s="67"/>
-      <c r="AI13" s="67"/>
-      <c r="AJ13" s="67"/>
-      <c r="AK13" s="67"/>
-      <c r="AL13" s="67"/>
-      <c r="AM13" s="67"/>
-      <c r="AN13" s="67"/>
-      <c r="AO13" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP13" s="67"/>
-      <c r="AQ13" s="67"/>
-      <c r="AR13" s="67"/>
-      <c r="AS13" s="67"/>
-      <c r="AT13" s="67" t="s">
+      <c r="X13" s="64"/>
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="64"/>
+      <c r="AB13" s="64"/>
+      <c r="AC13" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD13" s="64"/>
+      <c r="AE13" s="64"/>
+      <c r="AF13" s="64"/>
+      <c r="AG13" s="64"/>
+      <c r="AH13" s="64"/>
+      <c r="AI13" s="64"/>
+      <c r="AJ13" s="64"/>
+      <c r="AK13" s="64"/>
+      <c r="AL13" s="64"/>
+      <c r="AM13" s="64"/>
+      <c r="AN13" s="64"/>
+      <c r="AO13" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP13" s="64"/>
+      <c r="AQ13" s="64"/>
+      <c r="AR13" s="64"/>
+      <c r="AS13" s="64"/>
+      <c r="AT13" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="AU13" s="67"/>
-      <c r="AV13" s="67"/>
-      <c r="AW13" s="67"/>
-      <c r="AX13" s="67"/>
-      <c r="AY13" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="AZ13" s="67"/>
-      <c r="BA13" s="67"/>
-      <c r="BB13" s="67"/>
-      <c r="BC13" s="67"/>
-      <c r="BD13" s="67"/>
-      <c r="BE13" s="67"/>
-      <c r="BF13" s="67"/>
+      <c r="AU13" s="64"/>
+      <c r="AV13" s="64"/>
+      <c r="AW13" s="64"/>
+      <c r="AX13" s="64"/>
+      <c r="AY13" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="AZ13" s="64"/>
+      <c r="BA13" s="64"/>
+      <c r="BB13" s="64"/>
+      <c r="BC13" s="64"/>
+      <c r="BD13" s="64"/>
+      <c r="BE13" s="64"/>
+      <c r="BF13" s="64"/>
     </row>
     <row r="14" spans="1:58" ht="63.75" customHeight="1">
-      <c r="A14" s="65">
+      <c r="A14" s="62">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="68" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="67" t="s">
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="67"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="67" t="s">
-        <v>139</v>
-      </c>
-      <c r="AD14" s="67"/>
-      <c r="AE14" s="67"/>
-      <c r="AF14" s="67"/>
-      <c r="AG14" s="67"/>
-      <c r="AH14" s="67"/>
-      <c r="AI14" s="67"/>
-      <c r="AJ14" s="67"/>
-      <c r="AK14" s="67"/>
-      <c r="AL14" s="67"/>
-      <c r="AM14" s="67"/>
-      <c r="AN14" s="67"/>
-      <c r="AO14" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP14" s="67"/>
-      <c r="AQ14" s="67"/>
-      <c r="AR14" s="67"/>
-      <c r="AS14" s="67"/>
-      <c r="AT14" s="67" t="s">
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="64"/>
+      <c r="AC14" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD14" s="64"/>
+      <c r="AE14" s="64"/>
+      <c r="AF14" s="64"/>
+      <c r="AG14" s="64"/>
+      <c r="AH14" s="64"/>
+      <c r="AI14" s="64"/>
+      <c r="AJ14" s="64"/>
+      <c r="AK14" s="64"/>
+      <c r="AL14" s="64"/>
+      <c r="AM14" s="64"/>
+      <c r="AN14" s="64"/>
+      <c r="AO14" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP14" s="64"/>
+      <c r="AQ14" s="64"/>
+      <c r="AR14" s="64"/>
+      <c r="AS14" s="64"/>
+      <c r="AT14" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="AU14" s="67"/>
-      <c r="AV14" s="67"/>
-      <c r="AW14" s="67"/>
-      <c r="AX14" s="67"/>
-      <c r="AY14" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="AZ14" s="67"/>
-      <c r="BA14" s="67"/>
-      <c r="BB14" s="67"/>
-      <c r="BC14" s="67"/>
-      <c r="BD14" s="67"/>
-      <c r="BE14" s="67"/>
-      <c r="BF14" s="67"/>
+      <c r="AU14" s="64"/>
+      <c r="AV14" s="64"/>
+      <c r="AW14" s="64"/>
+      <c r="AX14" s="64"/>
+      <c r="AY14" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="AZ14" s="64"/>
+      <c r="BA14" s="64"/>
+      <c r="BB14" s="64"/>
+      <c r="BC14" s="64"/>
+      <c r="BD14" s="64"/>
+      <c r="BE14" s="64"/>
+      <c r="BF14" s="64"/>
     </row>
     <row r="15" spans="1:58" ht="63.75" customHeight="1">
-      <c r="A15" s="65">
+      <c r="A15" s="62">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="67"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67" t="s">
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="67"/>
-      <c r="Z15" s="67"/>
-      <c r="AA15" s="67"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD15" s="67"/>
-      <c r="AE15" s="67"/>
-      <c r="AF15" s="67"/>
-      <c r="AG15" s="67"/>
-      <c r="AH15" s="67"/>
-      <c r="AI15" s="67"/>
-      <c r="AJ15" s="67"/>
-      <c r="AK15" s="67"/>
-      <c r="AL15" s="67"/>
-      <c r="AM15" s="67"/>
-      <c r="AN15" s="67"/>
-      <c r="AO15" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP15" s="67"/>
-      <c r="AQ15" s="67"/>
-      <c r="AR15" s="67"/>
-      <c r="AS15" s="67"/>
-      <c r="AT15" s="67" t="s">
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="64"/>
+      <c r="AC15" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD15" s="64"/>
+      <c r="AE15" s="64"/>
+      <c r="AF15" s="64"/>
+      <c r="AG15" s="64"/>
+      <c r="AH15" s="64"/>
+      <c r="AI15" s="64"/>
+      <c r="AJ15" s="64"/>
+      <c r="AK15" s="64"/>
+      <c r="AL15" s="64"/>
+      <c r="AM15" s="64"/>
+      <c r="AN15" s="64"/>
+      <c r="AO15" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP15" s="64"/>
+      <c r="AQ15" s="64"/>
+      <c r="AR15" s="64"/>
+      <c r="AS15" s="64"/>
+      <c r="AT15" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="AU15" s="67"/>
-      <c r="AV15" s="67"/>
-      <c r="AW15" s="67"/>
-      <c r="AX15" s="67"/>
-      <c r="AY15" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="AZ15" s="67"/>
-      <c r="BA15" s="67"/>
-      <c r="BB15" s="67"/>
-      <c r="BC15" s="67"/>
-      <c r="BD15" s="67"/>
-      <c r="BE15" s="67"/>
-      <c r="BF15" s="67"/>
+      <c r="AU15" s="64"/>
+      <c r="AV15" s="64"/>
+      <c r="AW15" s="64"/>
+      <c r="AX15" s="64"/>
+      <c r="AY15" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ15" s="64"/>
+      <c r="BA15" s="64"/>
+      <c r="BB15" s="64"/>
+      <c r="BC15" s="64"/>
+      <c r="BD15" s="64"/>
+      <c r="BE15" s="64"/>
+      <c r="BF15" s="64"/>
     </row>
     <row r="16" spans="1:58" ht="76.5" customHeight="1">
-      <c r="A16" s="72">
+      <c r="A16" s="69">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="71" t="s">
+      <c r="B16" s="70"/>
+      <c r="C16" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="X16" s="68"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="68"/>
+      <c r="AC16" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD16" s="68"/>
+      <c r="AE16" s="68"/>
+      <c r="AF16" s="68"/>
+      <c r="AG16" s="68"/>
+      <c r="AH16" s="68"/>
+      <c r="AI16" s="68"/>
+      <c r="AJ16" s="68"/>
+      <c r="AK16" s="68"/>
+      <c r="AL16" s="68"/>
+      <c r="AM16" s="68"/>
+      <c r="AN16" s="68"/>
+      <c r="AO16" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="71"/>
-      <c r="V16" s="71"/>
-      <c r="W16" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="X16" s="71"/>
-      <c r="Y16" s="71"/>
-      <c r="Z16" s="71"/>
-      <c r="AA16" s="71"/>
-      <c r="AB16" s="71"/>
-      <c r="AC16" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="AD16" s="71"/>
-      <c r="AE16" s="71"/>
-      <c r="AF16" s="71"/>
-      <c r="AG16" s="71"/>
-      <c r="AH16" s="71"/>
-      <c r="AI16" s="71"/>
-      <c r="AJ16" s="71"/>
-      <c r="AK16" s="71"/>
-      <c r="AL16" s="71"/>
-      <c r="AM16" s="71"/>
-      <c r="AN16" s="71"/>
-      <c r="AO16" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP16" s="71"/>
-      <c r="AQ16" s="71"/>
-      <c r="AR16" s="71"/>
-      <c r="AS16" s="71"/>
-      <c r="AT16" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU16" s="71"/>
-      <c r="AV16" s="71"/>
-      <c r="AW16" s="71"/>
-      <c r="AX16" s="71"/>
-      <c r="AY16" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="AZ16" s="71"/>
-      <c r="BA16" s="71"/>
-      <c r="BB16" s="71"/>
-      <c r="BC16" s="71"/>
-      <c r="BD16" s="71"/>
-      <c r="BE16" s="71"/>
-      <c r="BF16" s="71"/>
+      <c r="AP16" s="68"/>
+      <c r="AQ16" s="68"/>
+      <c r="AR16" s="68"/>
+      <c r="AS16" s="68"/>
+      <c r="AT16" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU16" s="68"/>
+      <c r="AV16" s="68"/>
+      <c r="AW16" s="68"/>
+      <c r="AX16" s="68"/>
+      <c r="AY16" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ16" s="68"/>
+      <c r="BA16" s="68"/>
+      <c r="BB16" s="68"/>
+      <c r="BC16" s="68"/>
+      <c r="BD16" s="68"/>
+      <c r="BE16" s="68"/>
+      <c r="BF16" s="68"/>
     </row>
     <row r="17" spans="1:58" ht="63.75" customHeight="1">
-      <c r="A17" s="72">
+      <c r="A17" s="69">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="71" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="71"/>
-      <c r="AB17" s="71"/>
-      <c r="AC17" s="71" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD17" s="71"/>
-      <c r="AE17" s="71"/>
-      <c r="AF17" s="71"/>
-      <c r="AG17" s="71"/>
-      <c r="AH17" s="71"/>
-      <c r="AI17" s="71"/>
-      <c r="AJ17" s="71"/>
-      <c r="AK17" s="71"/>
-      <c r="AL17" s="71"/>
-      <c r="AM17" s="71"/>
-      <c r="AN17" s="71"/>
-      <c r="AO17" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP17" s="71"/>
-      <c r="AQ17" s="71"/>
-      <c r="AR17" s="71"/>
-      <c r="AS17" s="71"/>
-      <c r="AT17" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU17" s="71"/>
-      <c r="AV17" s="71"/>
-      <c r="AW17" s="71"/>
-      <c r="AX17" s="71"/>
-      <c r="AY17" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="AZ17" s="71"/>
-      <c r="BA17" s="71"/>
-      <c r="BB17" s="71"/>
-      <c r="BC17" s="71"/>
-      <c r="BD17" s="71"/>
-      <c r="BE17" s="71"/>
-      <c r="BF17" s="71"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="X17" s="68"/>
+      <c r="Y17" s="68"/>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="68"/>
+      <c r="AB17" s="68"/>
+      <c r="AC17" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD17" s="68"/>
+      <c r="AE17" s="68"/>
+      <c r="AF17" s="68"/>
+      <c r="AG17" s="68"/>
+      <c r="AH17" s="68"/>
+      <c r="AI17" s="68"/>
+      <c r="AJ17" s="68"/>
+      <c r="AK17" s="68"/>
+      <c r="AL17" s="68"/>
+      <c r="AM17" s="68"/>
+      <c r="AN17" s="68"/>
+      <c r="AO17" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP17" s="68"/>
+      <c r="AQ17" s="68"/>
+      <c r="AR17" s="68"/>
+      <c r="AS17" s="68"/>
+      <c r="AT17" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU17" s="68"/>
+      <c r="AV17" s="68"/>
+      <c r="AW17" s="68"/>
+      <c r="AX17" s="68"/>
+      <c r="AY17" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ17" s="68"/>
+      <c r="BA17" s="68"/>
+      <c r="BB17" s="68"/>
+      <c r="BC17" s="68"/>
+      <c r="BD17" s="68"/>
+      <c r="BE17" s="68"/>
+      <c r="BF17" s="68"/>
     </row>
     <row r="18" spans="1:58" ht="63.75" customHeight="1">
-      <c r="A18" s="72">
+      <c r="A18" s="69">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="71" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="71"/>
-      <c r="Z18" s="71"/>
-      <c r="AA18" s="71"/>
-      <c r="AB18" s="71"/>
-      <c r="AC18" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD18" s="71"/>
-      <c r="AE18" s="71"/>
-      <c r="AF18" s="71"/>
-      <c r="AG18" s="71"/>
-      <c r="AH18" s="71"/>
-      <c r="AI18" s="71"/>
-      <c r="AJ18" s="71"/>
-      <c r="AK18" s="71"/>
-      <c r="AL18" s="71"/>
-      <c r="AM18" s="71"/>
-      <c r="AN18" s="71"/>
-      <c r="AO18" s="74" t="s">
-        <v>122</v>
-      </c>
-      <c r="AP18" s="75"/>
-      <c r="AQ18" s="75"/>
-      <c r="AR18" s="75"/>
-      <c r="AS18" s="76"/>
-      <c r="AT18" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="AU18" s="71"/>
-      <c r="AV18" s="71"/>
-      <c r="AW18" s="71"/>
-      <c r="AX18" s="71"/>
-      <c r="AY18" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="AZ18" s="71"/>
-      <c r="BA18" s="71"/>
-      <c r="BB18" s="71"/>
-      <c r="BC18" s="71"/>
-      <c r="BD18" s="71"/>
-      <c r="BE18" s="71"/>
-      <c r="BF18" s="71"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="68"/>
+      <c r="AB18" s="68"/>
+      <c r="AC18" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD18" s="68"/>
+      <c r="AE18" s="68"/>
+      <c r="AF18" s="68"/>
+      <c r="AG18" s="68"/>
+      <c r="AH18" s="68"/>
+      <c r="AI18" s="68"/>
+      <c r="AJ18" s="68"/>
+      <c r="AK18" s="68"/>
+      <c r="AL18" s="68"/>
+      <c r="AM18" s="68"/>
+      <c r="AN18" s="68"/>
+      <c r="AO18" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP18" s="72"/>
+      <c r="AQ18" s="72"/>
+      <c r="AR18" s="72"/>
+      <c r="AS18" s="73"/>
+      <c r="AT18" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU18" s="68"/>
+      <c r="AV18" s="68"/>
+      <c r="AW18" s="68"/>
+      <c r="AX18" s="68"/>
+      <c r="AY18" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ18" s="68"/>
+      <c r="BA18" s="68"/>
+      <c r="BB18" s="68"/>
+      <c r="BC18" s="68"/>
+      <c r="BD18" s="68"/>
+      <c r="BE18" s="68"/>
+      <c r="BF18" s="68"/>
     </row>
     <row r="19" spans="1:58" ht="63.75" customHeight="1">
-      <c r="A19" s="72">
+      <c r="A19" s="69">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="71"/>
-      <c r="T19" s="71"/>
-      <c r="U19" s="71"/>
-      <c r="V19" s="71"/>
-      <c r="W19" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="X19" s="71"/>
-      <c r="Y19" s="71"/>
-      <c r="Z19" s="71"/>
-      <c r="AA19" s="71"/>
-      <c r="AB19" s="71"/>
-      <c r="AC19" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="AD19" s="71"/>
-      <c r="AE19" s="71"/>
-      <c r="AF19" s="71"/>
-      <c r="AG19" s="71"/>
-      <c r="AH19" s="71"/>
-      <c r="AI19" s="71"/>
-      <c r="AJ19" s="71"/>
-      <c r="AK19" s="71"/>
-      <c r="AL19" s="71"/>
-      <c r="AM19" s="71"/>
-      <c r="AN19" s="71"/>
-      <c r="AO19" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="AP19" s="75"/>
-      <c r="AQ19" s="75"/>
-      <c r="AR19" s="75"/>
-      <c r="AS19" s="76"/>
-      <c r="AT19" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU19" s="71"/>
-      <c r="AV19" s="71"/>
-      <c r="AW19" s="71"/>
-      <c r="AX19" s="71"/>
-      <c r="AY19" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="AZ19" s="71"/>
-      <c r="BA19" s="71"/>
-      <c r="BB19" s="71"/>
-      <c r="BC19" s="71"/>
-      <c r="BD19" s="71"/>
-      <c r="BE19" s="71"/>
-      <c r="BF19" s="71"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="68"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="68"/>
+      <c r="W19" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="X19" s="68"/>
+      <c r="Y19" s="68"/>
+      <c r="Z19" s="68"/>
+      <c r="AA19" s="68"/>
+      <c r="AB19" s="68"/>
+      <c r="AC19" s="68" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD19" s="68"/>
+      <c r="AE19" s="68"/>
+      <c r="AF19" s="68"/>
+      <c r="AG19" s="68"/>
+      <c r="AH19" s="68"/>
+      <c r="AI19" s="68"/>
+      <c r="AJ19" s="68"/>
+      <c r="AK19" s="68"/>
+      <c r="AL19" s="68"/>
+      <c r="AM19" s="68"/>
+      <c r="AN19" s="68"/>
+      <c r="AO19" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP19" s="72"/>
+      <c r="AQ19" s="72"/>
+      <c r="AR19" s="72"/>
+      <c r="AS19" s="73"/>
+      <c r="AT19" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU19" s="68"/>
+      <c r="AV19" s="68"/>
+      <c r="AW19" s="68"/>
+      <c r="AX19" s="68"/>
+      <c r="AY19" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ19" s="68"/>
+      <c r="BA19" s="68"/>
+      <c r="BB19" s="68"/>
+      <c r="BC19" s="68"/>
+      <c r="BD19" s="68"/>
+      <c r="BE19" s="68"/>
+      <c r="BF19" s="68"/>
     </row>
     <row r="20" spans="1:58" ht="63.75" customHeight="1">
-      <c r="A20" s="72">
+      <c r="A20" s="69">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="71"/>
-      <c r="W20" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="71"/>
-      <c r="Z20" s="71"/>
-      <c r="AA20" s="71"/>
-      <c r="AB20" s="71"/>
-      <c r="AC20" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD20" s="71"/>
-      <c r="AE20" s="71"/>
-      <c r="AF20" s="71"/>
-      <c r="AG20" s="71"/>
-      <c r="AH20" s="71"/>
-      <c r="AI20" s="71"/>
-      <c r="AJ20" s="71"/>
-      <c r="AK20" s="71"/>
-      <c r="AL20" s="71"/>
-      <c r="AM20" s="71"/>
-      <c r="AN20" s="71"/>
-      <c r="AO20" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="AP20" s="75"/>
-      <c r="AQ20" s="75"/>
-      <c r="AR20" s="75"/>
-      <c r="AS20" s="76"/>
-      <c r="AT20" s="71" t="s">
-        <v>152</v>
-      </c>
-      <c r="AU20" s="71"/>
-      <c r="AV20" s="71"/>
-      <c r="AW20" s="71"/>
-      <c r="AX20" s="71"/>
-      <c r="AY20" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="AZ20" s="71"/>
-      <c r="BA20" s="71"/>
-      <c r="BB20" s="71"/>
-      <c r="BC20" s="71"/>
-      <c r="BD20" s="71"/>
-      <c r="BE20" s="71"/>
-      <c r="BF20" s="71"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="68" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="68"/>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="68"/>
+      <c r="AC20" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD20" s="68"/>
+      <c r="AE20" s="68"/>
+      <c r="AF20" s="68"/>
+      <c r="AG20" s="68"/>
+      <c r="AH20" s="68"/>
+      <c r="AI20" s="68"/>
+      <c r="AJ20" s="68"/>
+      <c r="AK20" s="68"/>
+      <c r="AL20" s="68"/>
+      <c r="AM20" s="68"/>
+      <c r="AN20" s="68"/>
+      <c r="AO20" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP20" s="72"/>
+      <c r="AQ20" s="72"/>
+      <c r="AR20" s="72"/>
+      <c r="AS20" s="73"/>
+      <c r="AT20" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="AU20" s="68"/>
+      <c r="AV20" s="68"/>
+      <c r="AW20" s="68"/>
+      <c r="AX20" s="68"/>
+      <c r="AY20" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ20" s="68"/>
+      <c r="BA20" s="68"/>
+      <c r="BB20" s="68"/>
+      <c r="BC20" s="68"/>
+      <c r="BD20" s="68"/>
+      <c r="BE20" s="68"/>
+      <c r="BF20" s="68"/>
     </row>
     <row r="21" spans="1:58" ht="63.75" customHeight="1">
-      <c r="A21" s="72">
+      <c r="A21" s="74">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71" t="s">
-        <v>153</v>
-      </c>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="71"/>
-      <c r="V21" s="71"/>
-      <c r="W21" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="71"/>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="71"/>
-      <c r="AB21" s="71"/>
-      <c r="AC21" s="71" t="s">
-        <v>154</v>
-      </c>
-      <c r="AD21" s="71"/>
-      <c r="AE21" s="71"/>
-      <c r="AF21" s="71"/>
-      <c r="AG21" s="71"/>
-      <c r="AH21" s="71"/>
-      <c r="AI21" s="71"/>
-      <c r="AJ21" s="71"/>
-      <c r="AK21" s="71"/>
-      <c r="AL21" s="71"/>
-      <c r="AM21" s="71"/>
-      <c r="AN21" s="71"/>
-      <c r="AO21" s="74" t="s">
-        <v>119</v>
-      </c>
-      <c r="AP21" s="75"/>
-      <c r="AQ21" s="75"/>
-      <c r="AR21" s="75"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="76"/>
+      <c r="T21" s="76"/>
+      <c r="U21" s="76"/>
+      <c r="V21" s="76"/>
+      <c r="W21" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="X21" s="76"/>
+      <c r="Y21" s="76"/>
+      <c r="Z21" s="76"/>
+      <c r="AA21" s="76"/>
+      <c r="AB21" s="76"/>
+      <c r="AC21" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD21" s="76"/>
+      <c r="AE21" s="76"/>
+      <c r="AF21" s="76"/>
+      <c r="AG21" s="76"/>
+      <c r="AH21" s="76"/>
+      <c r="AI21" s="76"/>
+      <c r="AJ21" s="76"/>
+      <c r="AK21" s="76"/>
+      <c r="AL21" s="76"/>
+      <c r="AM21" s="76"/>
+      <c r="AN21" s="76"/>
+      <c r="AO21" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP21" s="76"/>
+      <c r="AQ21" s="76"/>
+      <c r="AR21" s="76"/>
       <c r="AS21" s="76"/>
-      <c r="AT21" s="71" t="s">
-        <v>155</v>
-      </c>
-      <c r="AU21" s="71"/>
-      <c r="AV21" s="71"/>
-      <c r="AW21" s="71"/>
-      <c r="AX21" s="71"/>
-      <c r="AY21" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ21" s="71"/>
-      <c r="BA21" s="71"/>
-      <c r="BB21" s="71"/>
-      <c r="BC21" s="71"/>
-      <c r="BD21" s="71"/>
-      <c r="BE21" s="71"/>
-      <c r="BF21" s="71"/>
+      <c r="AT21" s="76" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU21" s="76"/>
+      <c r="AV21" s="76"/>
+      <c r="AW21" s="76"/>
+      <c r="AX21" s="76"/>
+      <c r="AY21" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ21" s="76"/>
+      <c r="BA21" s="76"/>
+      <c r="BB21" s="76"/>
+      <c r="BC21" s="76"/>
+      <c r="BD21" s="76"/>
+      <c r="BE21" s="76"/>
+      <c r="BF21" s="76"/>
     </row>
     <row r="22" spans="1:58" ht="63.75" customHeight="1">
-      <c r="A22" s="72">
+      <c r="A22" s="78">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="71" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71" t="s">
-        <v>156</v>
-      </c>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="71"/>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="71"/>
-      <c r="AB22" s="71"/>
-      <c r="AC22" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD22" s="71"/>
-      <c r="AE22" s="71"/>
-      <c r="AF22" s="71"/>
-      <c r="AG22" s="71"/>
-      <c r="AH22" s="71"/>
-      <c r="AI22" s="71"/>
-      <c r="AJ22" s="71"/>
-      <c r="AK22" s="71"/>
-      <c r="AL22" s="71"/>
-      <c r="AM22" s="71"/>
-      <c r="AN22" s="71"/>
-      <c r="AO22" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="AP22" s="75"/>
-      <c r="AQ22" s="75"/>
-      <c r="AR22" s="75"/>
-      <c r="AS22" s="76"/>
-      <c r="AT22" s="71"/>
-      <c r="AU22" s="71"/>
-      <c r="AV22" s="71"/>
-      <c r="AW22" s="71"/>
-      <c r="AX22" s="71"/>
-      <c r="AY22" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ22" s="71"/>
-      <c r="BA22" s="71"/>
-      <c r="BB22" s="71"/>
-      <c r="BC22" s="71"/>
-      <c r="BD22" s="71"/>
-      <c r="BE22" s="71"/>
-      <c r="BF22" s="71"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="77" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="77"/>
+      <c r="W22" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="X22" s="77"/>
+      <c r="Y22" s="77"/>
+      <c r="Z22" s="77"/>
+      <c r="AA22" s="77"/>
+      <c r="AB22" s="77"/>
+      <c r="AC22" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD22" s="77"/>
+      <c r="AE22" s="77"/>
+      <c r="AF22" s="77"/>
+      <c r="AG22" s="77"/>
+      <c r="AH22" s="77"/>
+      <c r="AI22" s="77"/>
+      <c r="AJ22" s="77"/>
+      <c r="AK22" s="77"/>
+      <c r="AL22" s="77"/>
+      <c r="AM22" s="77"/>
+      <c r="AN22" s="77"/>
+      <c r="AO22" s="77" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP22" s="77"/>
+      <c r="AQ22" s="77"/>
+      <c r="AR22" s="77"/>
+      <c r="AS22" s="77"/>
+      <c r="AT22" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU22" s="77"/>
+      <c r="AV22" s="77"/>
+      <c r="AW22" s="77"/>
+      <c r="AX22" s="77"/>
+      <c r="AY22" s="77" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ22" s="77"/>
+      <c r="BA22" s="77"/>
+      <c r="BB22" s="77"/>
+      <c r="BC22" s="77"/>
+      <c r="BD22" s="77"/>
+      <c r="BE22" s="77"/>
+      <c r="BF22" s="77"/>
     </row>
     <row r="23" spans="1:58" ht="63.75" customHeight="1">
-      <c r="A23" s="77">
+      <c r="A23" s="78">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
-      <c r="W23" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="X23" s="79"/>
-      <c r="Y23" s="79"/>
-      <c r="Z23" s="79"/>
-      <c r="AA23" s="79"/>
-      <c r="AB23" s="79"/>
-      <c r="AC23" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD23" s="79"/>
-      <c r="AE23" s="79"/>
-      <c r="AF23" s="79"/>
-      <c r="AG23" s="79"/>
-      <c r="AH23" s="79"/>
-      <c r="AI23" s="79"/>
-      <c r="AJ23" s="79"/>
-      <c r="AK23" s="79"/>
-      <c r="AL23" s="79"/>
-      <c r="AM23" s="79"/>
-      <c r="AN23" s="79"/>
-      <c r="AO23" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="AP23" s="79"/>
-      <c r="AQ23" s="79"/>
-      <c r="AR23" s="79"/>
-      <c r="AS23" s="79"/>
-      <c r="AT23" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU23" s="79"/>
-      <c r="AV23" s="79"/>
-      <c r="AW23" s="79"/>
-      <c r="AX23" s="79"/>
-      <c r="AY23" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="AZ23" s="79"/>
-      <c r="BA23" s="79"/>
-      <c r="BB23" s="79"/>
-      <c r="BC23" s="79"/>
-      <c r="BD23" s="79"/>
-      <c r="BE23" s="79"/>
-      <c r="BF23" s="79"/>
-    </row>
-    <row r="24" spans="1:58" ht="63.75" customHeight="1">
+      <c r="B23" s="79"/>
+      <c r="C23" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="77"/>
+      <c r="W23" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="X23" s="77"/>
+      <c r="Y23" s="77"/>
+      <c r="Z23" s="77"/>
+      <c r="AA23" s="77"/>
+      <c r="AB23" s="77"/>
+      <c r="AC23" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD23" s="77"/>
+      <c r="AE23" s="77"/>
+      <c r="AF23" s="77"/>
+      <c r="AG23" s="77"/>
+      <c r="AH23" s="77"/>
+      <c r="AI23" s="77"/>
+      <c r="AJ23" s="77"/>
+      <c r="AK23" s="77"/>
+      <c r="AL23" s="77"/>
+      <c r="AM23" s="77"/>
+      <c r="AN23" s="77"/>
+      <c r="AO23" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP23" s="77"/>
+      <c r="AQ23" s="77"/>
+      <c r="AR23" s="77"/>
+      <c r="AS23" s="77"/>
+      <c r="AT23" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU23" s="77"/>
+      <c r="AV23" s="77"/>
+      <c r="AW23" s="77"/>
+      <c r="AX23" s="77"/>
+      <c r="AY23" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="AZ23" s="77"/>
+      <c r="BA23" s="77"/>
+      <c r="BB23" s="77"/>
+      <c r="BC23" s="77"/>
+      <c r="BD23" s="77"/>
+      <c r="BE23" s="77"/>
+      <c r="BF23" s="77"/>
+    </row>
+    <row r="24" spans="1:58" ht="15" customHeight="1">
       <c r="A24" s="81">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A24:A26" si="1">ROW()-4</f>
         <v>20</v>
       </c>
       <c r="B24" s="82"/>
-      <c r="C24" s="80" t="s">
-        <v>125</v>
-      </c>
+      <c r="C24" s="80"/>
       <c r="D24" s="80"/>
       <c r="E24" s="80"/>
       <c r="F24" s="80"/>
@@ -4981,9 +4887,7 @@
       <c r="I24" s="80"/>
       <c r="J24" s="80"/>
       <c r="K24" s="80"/>
-      <c r="L24" s="80" t="s">
-        <v>83</v>
-      </c>
+      <c r="L24" s="80"/>
       <c r="M24" s="80"/>
       <c r="N24" s="80"/>
       <c r="O24" s="80"/>
@@ -4994,17 +4898,13 @@
       <c r="T24" s="80"/>
       <c r="U24" s="80"/>
       <c r="V24" s="80"/>
-      <c r="W24" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="X24" s="80"/>
-      <c r="Y24" s="80"/>
-      <c r="Z24" s="80"/>
-      <c r="AA24" s="80"/>
-      <c r="AB24" s="80"/>
-      <c r="AC24" s="80" t="s">
-        <v>85</v>
-      </c>
+      <c r="W24" s="83"/>
+      <c r="X24" s="83"/>
+      <c r="Y24" s="83"/>
+      <c r="Z24" s="83"/>
+      <c r="AA24" s="83"/>
+      <c r="AB24" s="83"/>
+      <c r="AC24" s="80"/>
       <c r="AD24" s="80"/>
       <c r="AE24" s="80"/>
       <c r="AF24" s="80"/>
@@ -5016,23 +4916,17 @@
       <c r="AL24" s="80"/>
       <c r="AM24" s="80"/>
       <c r="AN24" s="80"/>
-      <c r="AO24" s="80" t="s">
-        <v>124</v>
-      </c>
+      <c r="AO24" s="80"/>
       <c r="AP24" s="80"/>
       <c r="AQ24" s="80"/>
       <c r="AR24" s="80"/>
       <c r="AS24" s="80"/>
-      <c r="AT24" s="80" t="s">
-        <v>87</v>
-      </c>
+      <c r="AT24" s="80"/>
       <c r="AU24" s="80"/>
       <c r="AV24" s="80"/>
       <c r="AW24" s="80"/>
       <c r="AX24" s="80"/>
-      <c r="AY24" s="80" t="s">
-        <v>157</v>
-      </c>
+      <c r="AY24" s="80"/>
       <c r="AZ24" s="80"/>
       <c r="BA24" s="80"/>
       <c r="BB24" s="80"/>
@@ -5041,15 +4935,13 @@
       <c r="BE24" s="80"/>
       <c r="BF24" s="80"/>
     </row>
-    <row r="25" spans="1:58" ht="63.75" customHeight="1">
+    <row r="25" spans="1:58" ht="15" customHeight="1">
       <c r="A25" s="81">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B25" s="82"/>
-      <c r="C25" s="80" t="s">
-        <v>129</v>
-      </c>
+      <c r="C25" s="80"/>
       <c r="D25" s="80"/>
       <c r="E25" s="80"/>
       <c r="F25" s="80"/>
@@ -5058,9 +4950,7 @@
       <c r="I25" s="80"/>
       <c r="J25" s="80"/>
       <c r="K25" s="80"/>
-      <c r="L25" s="80" t="s">
-        <v>130</v>
-      </c>
+      <c r="L25" s="80"/>
       <c r="M25" s="80"/>
       <c r="N25" s="80"/>
       <c r="O25" s="80"/>
@@ -5071,17 +4961,13 @@
       <c r="T25" s="80"/>
       <c r="U25" s="80"/>
       <c r="V25" s="80"/>
-      <c r="W25" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="X25" s="80"/>
-      <c r="Y25" s="80"/>
-      <c r="Z25" s="80"/>
-      <c r="AA25" s="80"/>
-      <c r="AB25" s="80"/>
-      <c r="AC25" s="80" t="s">
-        <v>131</v>
-      </c>
+      <c r="W25" s="83"/>
+      <c r="X25" s="83"/>
+      <c r="Y25" s="83"/>
+      <c r="Z25" s="83"/>
+      <c r="AA25" s="83"/>
+      <c r="AB25" s="83"/>
+      <c r="AC25" s="80"/>
       <c r="AD25" s="80"/>
       <c r="AE25" s="80"/>
       <c r="AF25" s="80"/>
@@ -5093,23 +4979,17 @@
       <c r="AL25" s="80"/>
       <c r="AM25" s="80"/>
       <c r="AN25" s="80"/>
-      <c r="AO25" s="80" t="s">
-        <v>133</v>
-      </c>
+      <c r="AO25" s="80"/>
       <c r="AP25" s="80"/>
       <c r="AQ25" s="80"/>
       <c r="AR25" s="80"/>
       <c r="AS25" s="80"/>
-      <c r="AT25" s="80" t="s">
-        <v>132</v>
-      </c>
+      <c r="AT25" s="80"/>
       <c r="AU25" s="80"/>
       <c r="AV25" s="80"/>
       <c r="AW25" s="80"/>
       <c r="AX25" s="80"/>
-      <c r="AY25" s="80" t="s">
-        <v>134</v>
-      </c>
+      <c r="AY25" s="80"/>
       <c r="AZ25" s="80"/>
       <c r="BA25" s="80"/>
       <c r="BB25" s="80"/>
@@ -5119,815 +4999,673 @@
       <c r="BF25" s="80"/>
     </row>
     <row r="26" spans="1:58" ht="15" customHeight="1">
-      <c r="A26" s="84">
-        <f t="shared" ref="A26:A28" si="1">ROW()-4</f>
+      <c r="A26" s="81">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B26" s="85"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="83"/>
-      <c r="O26" s="83"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="83"/>
-      <c r="S26" s="83"/>
-      <c r="T26" s="83"/>
-      <c r="U26" s="83"/>
-      <c r="V26" s="83"/>
-      <c r="W26" s="86"/>
-      <c r="X26" s="86"/>
-      <c r="Y26" s="86"/>
-      <c r="Z26" s="86"/>
-      <c r="AA26" s="86"/>
-      <c r="AB26" s="86"/>
-      <c r="AC26" s="83"/>
-      <c r="AD26" s="83"/>
-      <c r="AE26" s="83"/>
-      <c r="AF26" s="83"/>
-      <c r="AG26" s="83"/>
-      <c r="AH26" s="83"/>
-      <c r="AI26" s="83"/>
-      <c r="AJ26" s="83"/>
-      <c r="AK26" s="83"/>
-      <c r="AL26" s="83"/>
-      <c r="AM26" s="83"/>
-      <c r="AN26" s="83"/>
-      <c r="AO26" s="83"/>
-      <c r="AP26" s="83"/>
-      <c r="AQ26" s="83"/>
-      <c r="AR26" s="83"/>
-      <c r="AS26" s="83"/>
-      <c r="AT26" s="83"/>
-      <c r="AU26" s="83"/>
-      <c r="AV26" s="83"/>
-      <c r="AW26" s="83"/>
-      <c r="AX26" s="83"/>
-      <c r="AY26" s="83"/>
-      <c r="AZ26" s="83"/>
-      <c r="BA26" s="83"/>
-      <c r="BB26" s="83"/>
-      <c r="BC26" s="83"/>
-      <c r="BD26" s="83"/>
-      <c r="BE26" s="83"/>
-      <c r="BF26" s="83"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="80"/>
+      <c r="Q26" s="80"/>
+      <c r="R26" s="80"/>
+      <c r="S26" s="80"/>
+      <c r="T26" s="80"/>
+      <c r="U26" s="80"/>
+      <c r="V26" s="80"/>
+      <c r="W26" s="83"/>
+      <c r="X26" s="83"/>
+      <c r="Y26" s="83"/>
+      <c r="Z26" s="83"/>
+      <c r="AA26" s="83"/>
+      <c r="AB26" s="83"/>
+      <c r="AC26" s="80"/>
+      <c r="AD26" s="80"/>
+      <c r="AE26" s="80"/>
+      <c r="AF26" s="80"/>
+      <c r="AG26" s="80"/>
+      <c r="AH26" s="80"/>
+      <c r="AI26" s="80"/>
+      <c r="AJ26" s="80"/>
+      <c r="AK26" s="80"/>
+      <c r="AL26" s="80"/>
+      <c r="AM26" s="80"/>
+      <c r="AN26" s="80"/>
+      <c r="AO26" s="80"/>
+      <c r="AP26" s="80"/>
+      <c r="AQ26" s="80"/>
+      <c r="AR26" s="80"/>
+      <c r="AS26" s="80"/>
+      <c r="AT26" s="80"/>
+      <c r="AU26" s="80"/>
+      <c r="AV26" s="80"/>
+      <c r="AW26" s="80"/>
+      <c r="AX26" s="80"/>
+      <c r="AY26" s="80"/>
+      <c r="AZ26" s="80"/>
+      <c r="BA26" s="80"/>
+      <c r="BB26" s="80"/>
+      <c r="BC26" s="80"/>
+      <c r="BD26" s="80"/>
+      <c r="BE26" s="80"/>
+      <c r="BF26" s="80"/>
     </row>
     <row r="27" spans="1:58" ht="15" customHeight="1">
-      <c r="A27" s="84">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B27" s="85"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
-      <c r="O27" s="83"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="83"/>
-      <c r="T27" s="83"/>
-      <c r="U27" s="83"/>
-      <c r="V27" s="83"/>
-      <c r="W27" s="86"/>
-      <c r="X27" s="86"/>
-      <c r="Y27" s="86"/>
-      <c r="Z27" s="86"/>
-      <c r="AA27" s="86"/>
-      <c r="AB27" s="86"/>
-      <c r="AC27" s="83"/>
-      <c r="AD27" s="83"/>
-      <c r="AE27" s="83"/>
-      <c r="AF27" s="83"/>
-      <c r="AG27" s="83"/>
-      <c r="AH27" s="83"/>
-      <c r="AI27" s="83"/>
-      <c r="AJ27" s="83"/>
-      <c r="AK27" s="83"/>
-      <c r="AL27" s="83"/>
-      <c r="AM27" s="83"/>
-      <c r="AN27" s="83"/>
-      <c r="AO27" s="83"/>
-      <c r="AP27" s="83"/>
-      <c r="AQ27" s="83"/>
-      <c r="AR27" s="83"/>
-      <c r="AS27" s="83"/>
-      <c r="AT27" s="83"/>
-      <c r="AU27" s="83"/>
-      <c r="AV27" s="83"/>
-      <c r="AW27" s="83"/>
-      <c r="AX27" s="83"/>
-      <c r="AY27" s="83"/>
-      <c r="AZ27" s="83"/>
-      <c r="BA27" s="83"/>
-      <c r="BB27" s="83"/>
-      <c r="BC27" s="83"/>
-      <c r="BD27" s="83"/>
-      <c r="BE27" s="83"/>
-      <c r="BF27" s="83"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="84"/>
+      <c r="R27" s="84"/>
+      <c r="S27" s="84"/>
+      <c r="T27" s="84"/>
+      <c r="U27" s="84"/>
+      <c r="V27" s="84"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="84"/>
+      <c r="AD27" s="84"/>
+      <c r="AE27" s="84"/>
+      <c r="AF27" s="84"/>
+      <c r="AG27" s="84"/>
+      <c r="AH27" s="84"/>
+      <c r="AI27" s="84"/>
+      <c r="AJ27" s="84"/>
+      <c r="AK27" s="84"/>
+      <c r="AL27" s="84"/>
+      <c r="AM27" s="84"/>
+      <c r="AN27" s="84"/>
+      <c r="AO27" s="84"/>
+      <c r="AP27" s="84"/>
+      <c r="AQ27" s="84"/>
+      <c r="AR27" s="84"/>
+      <c r="AS27" s="84"/>
+      <c r="AT27" s="84"/>
+      <c r="AU27" s="84"/>
+      <c r="AV27" s="84"/>
+      <c r="AW27" s="84"/>
+      <c r="AX27" s="84"/>
+      <c r="AY27" s="84"/>
+      <c r="AZ27" s="84"/>
+      <c r="BA27" s="84"/>
+      <c r="BB27" s="84"/>
+      <c r="BC27" s="84"/>
+      <c r="BD27" s="84"/>
+      <c r="BE27" s="84"/>
+      <c r="BF27" s="84"/>
     </row>
     <row r="28" spans="1:58" ht="15" customHeight="1">
-      <c r="A28" s="84">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B28" s="85"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="83"/>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="83"/>
-      <c r="U28" s="83"/>
-      <c r="V28" s="83"/>
-      <c r="W28" s="86"/>
-      <c r="X28" s="86"/>
-      <c r="Y28" s="86"/>
-      <c r="Z28" s="86"/>
-      <c r="AA28" s="86"/>
-      <c r="AB28" s="86"/>
-      <c r="AC28" s="83"/>
-      <c r="AD28" s="83"/>
-      <c r="AE28" s="83"/>
-      <c r="AF28" s="83"/>
-      <c r="AG28" s="83"/>
-      <c r="AH28" s="83"/>
-      <c r="AI28" s="83"/>
-      <c r="AJ28" s="83"/>
-      <c r="AK28" s="83"/>
-      <c r="AL28" s="83"/>
-      <c r="AM28" s="83"/>
-      <c r="AN28" s="83"/>
-      <c r="AO28" s="83"/>
-      <c r="AP28" s="83"/>
-      <c r="AQ28" s="83"/>
-      <c r="AR28" s="83"/>
-      <c r="AS28" s="83"/>
-      <c r="AT28" s="83"/>
-      <c r="AU28" s="83"/>
-      <c r="AV28" s="83"/>
-      <c r="AW28" s="83"/>
-      <c r="AX28" s="83"/>
-      <c r="AY28" s="83"/>
-      <c r="AZ28" s="83"/>
-      <c r="BA28" s="83"/>
-      <c r="BB28" s="83"/>
-      <c r="BC28" s="83"/>
-      <c r="BD28" s="83"/>
-      <c r="BE28" s="83"/>
-      <c r="BF28" s="83"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="84"/>
+      <c r="R28" s="84"/>
+      <c r="S28" s="84"/>
+      <c r="T28" s="84"/>
+      <c r="U28" s="84"/>
+      <c r="V28" s="84"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="84"/>
+      <c r="AD28" s="84"/>
+      <c r="AE28" s="84"/>
+      <c r="AF28" s="84"/>
+      <c r="AG28" s="84"/>
+      <c r="AH28" s="84"/>
+      <c r="AI28" s="84"/>
+      <c r="AJ28" s="84"/>
+      <c r="AK28" s="84"/>
+      <c r="AL28" s="84"/>
+      <c r="AM28" s="84"/>
+      <c r="AN28" s="84"/>
+      <c r="AO28" s="84"/>
+      <c r="AP28" s="84"/>
+      <c r="AQ28" s="84"/>
+      <c r="AR28" s="84"/>
+      <c r="AS28" s="84"/>
+      <c r="AT28" s="84"/>
+      <c r="AU28" s="84"/>
+      <c r="AV28" s="84"/>
+      <c r="AW28" s="84"/>
+      <c r="AX28" s="84"/>
+      <c r="AY28" s="84"/>
+      <c r="AZ28" s="84"/>
+      <c r="BA28" s="84"/>
+      <c r="BB28" s="84"/>
+      <c r="BC28" s="84"/>
+      <c r="BD28" s="84"/>
+      <c r="BE28" s="84"/>
+      <c r="BF28" s="84"/>
     </row>
     <row r="29" spans="1:58" ht="15" customHeight="1">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="87"/>
-      <c r="P29" s="87"/>
-      <c r="Q29" s="87"/>
-      <c r="R29" s="87"/>
-      <c r="S29" s="87"/>
-      <c r="T29" s="87"/>
-      <c r="U29" s="87"/>
-      <c r="V29" s="87"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="21"/>
-      <c r="Y29" s="21"/>
-      <c r="Z29" s="21"/>
-      <c r="AA29" s="21"/>
-      <c r="AB29" s="21"/>
-      <c r="AC29" s="87"/>
-      <c r="AD29" s="87"/>
-      <c r="AE29" s="87"/>
-      <c r="AF29" s="87"/>
-      <c r="AG29" s="87"/>
-      <c r="AH29" s="87"/>
-      <c r="AI29" s="87"/>
-      <c r="AJ29" s="87"/>
-      <c r="AK29" s="87"/>
-      <c r="AL29" s="87"/>
-      <c r="AM29" s="87"/>
-      <c r="AN29" s="87"/>
-      <c r="AO29" s="87"/>
-      <c r="AP29" s="87"/>
-      <c r="AQ29" s="87"/>
-      <c r="AR29" s="87"/>
-      <c r="AS29" s="87"/>
-      <c r="AT29" s="87"/>
-      <c r="AU29" s="87"/>
-      <c r="AV29" s="87"/>
-      <c r="AW29" s="87"/>
-      <c r="AX29" s="87"/>
-      <c r="AY29" s="87"/>
-      <c r="AZ29" s="87"/>
-      <c r="BA29" s="87"/>
-      <c r="BB29" s="87"/>
-      <c r="BC29" s="87"/>
-      <c r="BD29" s="87"/>
-      <c r="BE29" s="87"/>
-      <c r="BF29" s="87"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="84"/>
+      <c r="S29" s="84"/>
+      <c r="T29" s="84"/>
+      <c r="U29" s="84"/>
+      <c r="V29" s="84"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="84"/>
+      <c r="AD29" s="84"/>
+      <c r="AE29" s="84"/>
+      <c r="AF29" s="84"/>
+      <c r="AG29" s="84"/>
+      <c r="AH29" s="84"/>
+      <c r="AI29" s="84"/>
+      <c r="AJ29" s="84"/>
+      <c r="AK29" s="84"/>
+      <c r="AL29" s="84"/>
+      <c r="AM29" s="84"/>
+      <c r="AN29" s="84"/>
+      <c r="AO29" s="84"/>
+      <c r="AP29" s="84"/>
+      <c r="AQ29" s="84"/>
+      <c r="AR29" s="84"/>
+      <c r="AS29" s="84"/>
+      <c r="AT29" s="84"/>
+      <c r="AU29" s="84"/>
+      <c r="AV29" s="84"/>
+      <c r="AW29" s="84"/>
+      <c r="AX29" s="84"/>
+      <c r="AY29" s="84"/>
+      <c r="AZ29" s="84"/>
+      <c r="BA29" s="84"/>
+      <c r="BB29" s="84"/>
+      <c r="BC29" s="84"/>
+      <c r="BD29" s="84"/>
+      <c r="BE29" s="84"/>
+      <c r="BF29" s="84"/>
     </row>
     <row r="30" spans="1:58" ht="15" customHeight="1">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="87"/>
-      <c r="P30" s="87"/>
-      <c r="Q30" s="87"/>
-      <c r="R30" s="87"/>
-      <c r="S30" s="87"/>
-      <c r="T30" s="87"/>
-      <c r="U30" s="87"/>
-      <c r="V30" s="87"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="21"/>
-      <c r="AC30" s="87"/>
-      <c r="AD30" s="87"/>
-      <c r="AE30" s="87"/>
-      <c r="AF30" s="87"/>
-      <c r="AG30" s="87"/>
-      <c r="AH30" s="87"/>
-      <c r="AI30" s="87"/>
-      <c r="AJ30" s="87"/>
-      <c r="AK30" s="87"/>
-      <c r="AL30" s="87"/>
-      <c r="AM30" s="87"/>
-      <c r="AN30" s="87"/>
-      <c r="AO30" s="87"/>
-      <c r="AP30" s="87"/>
-      <c r="AQ30" s="87"/>
-      <c r="AR30" s="87"/>
-      <c r="AS30" s="87"/>
-      <c r="AT30" s="87"/>
-      <c r="AU30" s="87"/>
-      <c r="AV30" s="87"/>
-      <c r="AW30" s="87"/>
-      <c r="AX30" s="87"/>
-      <c r="AY30" s="87"/>
-      <c r="AZ30" s="87"/>
-      <c r="BA30" s="87"/>
-      <c r="BB30" s="87"/>
-      <c r="BC30" s="87"/>
-      <c r="BD30" s="87"/>
-      <c r="BE30" s="87"/>
-      <c r="BF30" s="87"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="84"/>
+      <c r="S30" s="84"/>
+      <c r="T30" s="84"/>
+      <c r="U30" s="84"/>
+      <c r="V30" s="84"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="84"/>
+      <c r="AD30" s="84"/>
+      <c r="AE30" s="84"/>
+      <c r="AF30" s="84"/>
+      <c r="AG30" s="84"/>
+      <c r="AH30" s="84"/>
+      <c r="AI30" s="84"/>
+      <c r="AJ30" s="84"/>
+      <c r="AK30" s="84"/>
+      <c r="AL30" s="84"/>
+      <c r="AM30" s="84"/>
+      <c r="AN30" s="84"/>
+      <c r="AO30" s="84"/>
+      <c r="AP30" s="84"/>
+      <c r="AQ30" s="84"/>
+      <c r="AR30" s="84"/>
+      <c r="AS30" s="84"/>
+      <c r="AT30" s="84"/>
+      <c r="AU30" s="84"/>
+      <c r="AV30" s="84"/>
+      <c r="AW30" s="84"/>
+      <c r="AX30" s="84"/>
+      <c r="AY30" s="84"/>
+      <c r="AZ30" s="84"/>
+      <c r="BA30" s="84"/>
+      <c r="BB30" s="84"/>
+      <c r="BC30" s="84"/>
+      <c r="BD30" s="84"/>
+      <c r="BE30" s="84"/>
+      <c r="BF30" s="84"/>
     </row>
     <row r="31" spans="1:58" ht="15" customHeight="1">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="87"/>
-      <c r="O31" s="87"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="87"/>
-      <c r="S31" s="87"/>
-      <c r="T31" s="87"/>
-      <c r="U31" s="87"/>
-      <c r="V31" s="87"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="21"/>
-      <c r="AC31" s="87"/>
-      <c r="AD31" s="87"/>
-      <c r="AE31" s="87"/>
-      <c r="AF31" s="87"/>
-      <c r="AG31" s="87"/>
-      <c r="AH31" s="87"/>
-      <c r="AI31" s="87"/>
-      <c r="AJ31" s="87"/>
-      <c r="AK31" s="87"/>
-      <c r="AL31" s="87"/>
-      <c r="AM31" s="87"/>
-      <c r="AN31" s="87"/>
-      <c r="AO31" s="87"/>
-      <c r="AP31" s="87"/>
-      <c r="AQ31" s="87"/>
-      <c r="AR31" s="87"/>
-      <c r="AS31" s="87"/>
-      <c r="AT31" s="87"/>
-      <c r="AU31" s="87"/>
-      <c r="AV31" s="87"/>
-      <c r="AW31" s="87"/>
-      <c r="AX31" s="87"/>
-      <c r="AY31" s="87"/>
-      <c r="AZ31" s="87"/>
-      <c r="BA31" s="87"/>
-      <c r="BB31" s="87"/>
-      <c r="BC31" s="87"/>
-      <c r="BD31" s="87"/>
-      <c r="BE31" s="87"/>
-      <c r="BF31" s="87"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="84"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="84"/>
+      <c r="R31" s="84"/>
+      <c r="S31" s="84"/>
+      <c r="T31" s="84"/>
+      <c r="U31" s="84"/>
+      <c r="V31" s="84"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="84"/>
+      <c r="AD31" s="84"/>
+      <c r="AE31" s="84"/>
+      <c r="AF31" s="84"/>
+      <c r="AG31" s="84"/>
+      <c r="AH31" s="84"/>
+      <c r="AI31" s="84"/>
+      <c r="AJ31" s="84"/>
+      <c r="AK31" s="84"/>
+      <c r="AL31" s="84"/>
+      <c r="AM31" s="84"/>
+      <c r="AN31" s="84"/>
+      <c r="AO31" s="84"/>
+      <c r="AP31" s="84"/>
+      <c r="AQ31" s="84"/>
+      <c r="AR31" s="84"/>
+      <c r="AS31" s="84"/>
+      <c r="AT31" s="84"/>
+      <c r="AU31" s="84"/>
+      <c r="AV31" s="84"/>
+      <c r="AW31" s="84"/>
+      <c r="AX31" s="84"/>
+      <c r="AY31" s="84"/>
+      <c r="AZ31" s="84"/>
+      <c r="BA31" s="84"/>
+      <c r="BB31" s="84"/>
+      <c r="BC31" s="84"/>
+      <c r="BD31" s="84"/>
+      <c r="BE31" s="84"/>
+      <c r="BF31" s="84"/>
     </row>
     <row r="32" spans="1:58" ht="15" customHeight="1">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="87"/>
-      <c r="O32" s="87"/>
-      <c r="P32" s="87"/>
-      <c r="Q32" s="87"/>
-      <c r="R32" s="87"/>
-      <c r="S32" s="87"/>
-      <c r="T32" s="87"/>
-      <c r="U32" s="87"/>
-      <c r="V32" s="87"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="21"/>
-      <c r="AC32" s="87"/>
-      <c r="AD32" s="87"/>
-      <c r="AE32" s="87"/>
-      <c r="AF32" s="87"/>
-      <c r="AG32" s="87"/>
-      <c r="AH32" s="87"/>
-      <c r="AI32" s="87"/>
-      <c r="AJ32" s="87"/>
-      <c r="AK32" s="87"/>
-      <c r="AL32" s="87"/>
-      <c r="AM32" s="87"/>
-      <c r="AN32" s="87"/>
-      <c r="AO32" s="87"/>
-      <c r="AP32" s="87"/>
-      <c r="AQ32" s="87"/>
-      <c r="AR32" s="87"/>
-      <c r="AS32" s="87"/>
-      <c r="AT32" s="87"/>
-      <c r="AU32" s="87"/>
-      <c r="AV32" s="87"/>
-      <c r="AW32" s="87"/>
-      <c r="AX32" s="87"/>
-      <c r="AY32" s="87"/>
-      <c r="AZ32" s="87"/>
-      <c r="BA32" s="87"/>
-      <c r="BB32" s="87"/>
-      <c r="BC32" s="87"/>
-      <c r="BD32" s="87"/>
-      <c r="BE32" s="87"/>
-      <c r="BF32" s="87"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="84"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="84"/>
+      <c r="S32" s="84"/>
+      <c r="T32" s="84"/>
+      <c r="U32" s="84"/>
+      <c r="V32" s="84"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="18"/>
+      <c r="AA32" s="18"/>
+      <c r="AB32" s="18"/>
+      <c r="AC32" s="84"/>
+      <c r="AD32" s="84"/>
+      <c r="AE32" s="84"/>
+      <c r="AF32" s="84"/>
+      <c r="AG32" s="84"/>
+      <c r="AH32" s="84"/>
+      <c r="AI32" s="84"/>
+      <c r="AJ32" s="84"/>
+      <c r="AK32" s="84"/>
+      <c r="AL32" s="84"/>
+      <c r="AM32" s="84"/>
+      <c r="AN32" s="84"/>
+      <c r="AO32" s="84"/>
+      <c r="AP32" s="84"/>
+      <c r="AQ32" s="84"/>
+      <c r="AR32" s="84"/>
+      <c r="AS32" s="84"/>
+      <c r="AT32" s="84"/>
+      <c r="AU32" s="84"/>
+      <c r="AV32" s="84"/>
+      <c r="AW32" s="84"/>
+      <c r="AX32" s="84"/>
+      <c r="AY32" s="84"/>
+      <c r="AZ32" s="84"/>
+      <c r="BA32" s="84"/>
+      <c r="BB32" s="84"/>
+      <c r="BC32" s="84"/>
+      <c r="BD32" s="84"/>
+      <c r="BE32" s="84"/>
+      <c r="BF32" s="84"/>
     </row>
     <row r="33" spans="1:58" ht="15" customHeight="1">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="87"/>
-      <c r="O33" s="87"/>
-      <c r="P33" s="87"/>
-      <c r="Q33" s="87"/>
-      <c r="R33" s="87"/>
-      <c r="S33" s="87"/>
-      <c r="T33" s="87"/>
-      <c r="U33" s="87"/>
-      <c r="V33" s="87"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="21"/>
-      <c r="AB33" s="21"/>
-      <c r="AC33" s="87"/>
-      <c r="AD33" s="87"/>
-      <c r="AE33" s="87"/>
-      <c r="AF33" s="87"/>
-      <c r="AG33" s="87"/>
-      <c r="AH33" s="87"/>
-      <c r="AI33" s="87"/>
-      <c r="AJ33" s="87"/>
-      <c r="AK33" s="87"/>
-      <c r="AL33" s="87"/>
-      <c r="AM33" s="87"/>
-      <c r="AN33" s="87"/>
-      <c r="AO33" s="87"/>
-      <c r="AP33" s="87"/>
-      <c r="AQ33" s="87"/>
-      <c r="AR33" s="87"/>
-      <c r="AS33" s="87"/>
-      <c r="AT33" s="87"/>
-      <c r="AU33" s="87"/>
-      <c r="AV33" s="87"/>
-      <c r="AW33" s="87"/>
-      <c r="AX33" s="87"/>
-      <c r="AY33" s="87"/>
-      <c r="AZ33" s="87"/>
-      <c r="BA33" s="87"/>
-      <c r="BB33" s="87"/>
-      <c r="BC33" s="87"/>
-      <c r="BD33" s="87"/>
-      <c r="BE33" s="87"/>
-      <c r="BF33" s="87"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="84"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="84"/>
+      <c r="S33" s="84"/>
+      <c r="T33" s="84"/>
+      <c r="U33" s="84"/>
+      <c r="V33" s="84"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18"/>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="84"/>
+      <c r="AD33" s="84"/>
+      <c r="AE33" s="84"/>
+      <c r="AF33" s="84"/>
+      <c r="AG33" s="84"/>
+      <c r="AH33" s="84"/>
+      <c r="AI33" s="84"/>
+      <c r="AJ33" s="84"/>
+      <c r="AK33" s="84"/>
+      <c r="AL33" s="84"/>
+      <c r="AM33" s="84"/>
+      <c r="AN33" s="84"/>
+      <c r="AO33" s="84"/>
+      <c r="AP33" s="84"/>
+      <c r="AQ33" s="84"/>
+      <c r="AR33" s="84"/>
+      <c r="AS33" s="84"/>
+      <c r="AT33" s="84"/>
+      <c r="AU33" s="84"/>
+      <c r="AV33" s="84"/>
+      <c r="AW33" s="84"/>
+      <c r="AX33" s="84"/>
+      <c r="AY33" s="84"/>
+      <c r="AZ33" s="84"/>
+      <c r="BA33" s="84"/>
+      <c r="BB33" s="84"/>
+      <c r="BC33" s="84"/>
+      <c r="BD33" s="84"/>
+      <c r="BE33" s="84"/>
+      <c r="BF33" s="84"/>
     </row>
     <row r="34" spans="1:58" ht="15" customHeight="1">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="87"/>
-      <c r="O34" s="87"/>
-      <c r="P34" s="87"/>
-      <c r="Q34" s="87"/>
-      <c r="R34" s="87"/>
-      <c r="S34" s="87"/>
-      <c r="T34" s="87"/>
-      <c r="U34" s="87"/>
-      <c r="V34" s="87"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="21"/>
-      <c r="AA34" s="21"/>
-      <c r="AB34" s="21"/>
-      <c r="AC34" s="87"/>
-      <c r="AD34" s="87"/>
-      <c r="AE34" s="87"/>
-      <c r="AF34" s="87"/>
-      <c r="AG34" s="87"/>
-      <c r="AH34" s="87"/>
-      <c r="AI34" s="87"/>
-      <c r="AJ34" s="87"/>
-      <c r="AK34" s="87"/>
-      <c r="AL34" s="87"/>
-      <c r="AM34" s="87"/>
-      <c r="AN34" s="87"/>
-      <c r="AO34" s="87"/>
-      <c r="AP34" s="87"/>
-      <c r="AQ34" s="87"/>
-      <c r="AR34" s="87"/>
-      <c r="AS34" s="87"/>
-      <c r="AT34" s="87"/>
-      <c r="AU34" s="87"/>
-      <c r="AV34" s="87"/>
-      <c r="AW34" s="87"/>
-      <c r="AX34" s="87"/>
-      <c r="AY34" s="87"/>
-      <c r="AZ34" s="87"/>
-      <c r="BA34" s="87"/>
-      <c r="BB34" s="87"/>
-      <c r="BC34" s="87"/>
-      <c r="BD34" s="87"/>
-      <c r="BE34" s="87"/>
-      <c r="BF34" s="87"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="84"/>
+      <c r="R34" s="84"/>
+      <c r="S34" s="84"/>
+      <c r="T34" s="84"/>
+      <c r="U34" s="84"/>
+      <c r="V34" s="84"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18"/>
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="84"/>
+      <c r="AD34" s="84"/>
+      <c r="AE34" s="84"/>
+      <c r="AF34" s="84"/>
+      <c r="AG34" s="84"/>
+      <c r="AH34" s="84"/>
+      <c r="AI34" s="84"/>
+      <c r="AJ34" s="84"/>
+      <c r="AK34" s="84"/>
+      <c r="AL34" s="84"/>
+      <c r="AM34" s="84"/>
+      <c r="AN34" s="84"/>
+      <c r="AO34" s="84"/>
+      <c r="AP34" s="84"/>
+      <c r="AQ34" s="84"/>
+      <c r="AR34" s="84"/>
+      <c r="AS34" s="84"/>
+      <c r="AT34" s="84"/>
+      <c r="AU34" s="84"/>
+      <c r="AV34" s="84"/>
+      <c r="AW34" s="84"/>
+      <c r="AX34" s="84"/>
+      <c r="AY34" s="84"/>
+      <c r="AZ34" s="84"/>
+      <c r="BA34" s="84"/>
+      <c r="BB34" s="84"/>
+      <c r="BC34" s="84"/>
+      <c r="BD34" s="84"/>
+      <c r="BE34" s="84"/>
+      <c r="BF34" s="84"/>
     </row>
     <row r="35" spans="1:58" ht="15" customHeight="1">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="87"/>
-      <c r="Q35" s="87"/>
-      <c r="R35" s="87"/>
-      <c r="S35" s="87"/>
-      <c r="T35" s="87"/>
-      <c r="U35" s="87"/>
-      <c r="V35" s="87"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="21"/>
-      <c r="AA35" s="21"/>
-      <c r="AB35" s="21"/>
-      <c r="AC35" s="87"/>
-      <c r="AD35" s="87"/>
-      <c r="AE35" s="87"/>
-      <c r="AF35" s="87"/>
-      <c r="AG35" s="87"/>
-      <c r="AH35" s="87"/>
-      <c r="AI35" s="87"/>
-      <c r="AJ35" s="87"/>
-      <c r="AK35" s="87"/>
-      <c r="AL35" s="87"/>
-      <c r="AM35" s="87"/>
-      <c r="AN35" s="87"/>
-      <c r="AO35" s="87"/>
-      <c r="AP35" s="87"/>
-      <c r="AQ35" s="87"/>
-      <c r="AR35" s="87"/>
-      <c r="AS35" s="87"/>
-      <c r="AT35" s="87"/>
-      <c r="AU35" s="87"/>
-      <c r="AV35" s="87"/>
-      <c r="AW35" s="87"/>
-      <c r="AX35" s="87"/>
-      <c r="AY35" s="87"/>
-      <c r="AZ35" s="87"/>
-      <c r="BA35" s="87"/>
-      <c r="BB35" s="87"/>
-      <c r="BC35" s="87"/>
-      <c r="BD35" s="87"/>
-      <c r="BE35" s="87"/>
-      <c r="BF35" s="87"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="84"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="84"/>
+      <c r="R35" s="84"/>
+      <c r="S35" s="84"/>
+      <c r="T35" s="84"/>
+      <c r="U35" s="84"/>
+      <c r="V35" s="84"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="84"/>
+      <c r="AD35" s="84"/>
+      <c r="AE35" s="84"/>
+      <c r="AF35" s="84"/>
+      <c r="AG35" s="84"/>
+      <c r="AH35" s="84"/>
+      <c r="AI35" s="84"/>
+      <c r="AJ35" s="84"/>
+      <c r="AK35" s="84"/>
+      <c r="AL35" s="84"/>
+      <c r="AM35" s="84"/>
+      <c r="AN35" s="84"/>
+      <c r="AO35" s="84"/>
+      <c r="AP35" s="84"/>
+      <c r="AQ35" s="84"/>
+      <c r="AR35" s="84"/>
+      <c r="AS35" s="84"/>
+      <c r="AT35" s="84"/>
+      <c r="AU35" s="84"/>
+      <c r="AV35" s="84"/>
+      <c r="AW35" s="84"/>
+      <c r="AX35" s="84"/>
+      <c r="AY35" s="84"/>
+      <c r="AZ35" s="84"/>
+      <c r="BA35" s="84"/>
+      <c r="BB35" s="84"/>
+      <c r="BC35" s="84"/>
+      <c r="BD35" s="84"/>
+      <c r="BE35" s="84"/>
+      <c r="BF35" s="84"/>
     </row>
     <row r="36" spans="1:58" ht="15" customHeight="1">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="87"/>
-      <c r="N36" s="87"/>
-      <c r="O36" s="87"/>
-      <c r="P36" s="87"/>
-      <c r="Q36" s="87"/>
-      <c r="R36" s="87"/>
-      <c r="S36" s="87"/>
-      <c r="T36" s="87"/>
-      <c r="U36" s="87"/>
-      <c r="V36" s="87"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="21"/>
-      <c r="Y36" s="21"/>
-      <c r="Z36" s="21"/>
-      <c r="AA36" s="21"/>
-      <c r="AB36" s="21"/>
-      <c r="AC36" s="87"/>
-      <c r="AD36" s="87"/>
-      <c r="AE36" s="87"/>
-      <c r="AF36" s="87"/>
-      <c r="AG36" s="87"/>
-      <c r="AH36" s="87"/>
-      <c r="AI36" s="87"/>
-      <c r="AJ36" s="87"/>
-      <c r="AK36" s="87"/>
-      <c r="AL36" s="87"/>
-      <c r="AM36" s="87"/>
-      <c r="AN36" s="87"/>
-      <c r="AO36" s="87"/>
-      <c r="AP36" s="87"/>
-      <c r="AQ36" s="87"/>
-      <c r="AR36" s="87"/>
-      <c r="AS36" s="87"/>
-      <c r="AT36" s="87"/>
-      <c r="AU36" s="87"/>
-      <c r="AV36" s="87"/>
-      <c r="AW36" s="87"/>
-      <c r="AX36" s="87"/>
-      <c r="AY36" s="87"/>
-      <c r="AZ36" s="87"/>
-      <c r="BA36" s="87"/>
-      <c r="BB36" s="87"/>
-      <c r="BC36" s="87"/>
-      <c r="BD36" s="87"/>
-      <c r="BE36" s="87"/>
-      <c r="BF36" s="87"/>
-    </row>
-    <row r="37" spans="1:58" ht="15" customHeight="1">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="87"/>
-      <c r="M37" s="87"/>
-      <c r="N37" s="87"/>
-      <c r="O37" s="87"/>
-      <c r="P37" s="87"/>
-      <c r="Q37" s="87"/>
-      <c r="R37" s="87"/>
-      <c r="S37" s="87"/>
-      <c r="T37" s="87"/>
-      <c r="U37" s="87"/>
-      <c r="V37" s="87"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="21"/>
-      <c r="AA37" s="21"/>
-      <c r="AB37" s="21"/>
-      <c r="AC37" s="87"/>
-      <c r="AD37" s="87"/>
-      <c r="AE37" s="87"/>
-      <c r="AF37" s="87"/>
-      <c r="AG37" s="87"/>
-      <c r="AH37" s="87"/>
-      <c r="AI37" s="87"/>
-      <c r="AJ37" s="87"/>
-      <c r="AK37" s="87"/>
-      <c r="AL37" s="87"/>
-      <c r="AM37" s="87"/>
-      <c r="AN37" s="87"/>
-      <c r="AO37" s="87"/>
-      <c r="AP37" s="87"/>
-      <c r="AQ37" s="87"/>
-      <c r="AR37" s="87"/>
-      <c r="AS37" s="87"/>
-      <c r="AT37" s="87"/>
-      <c r="AU37" s="87"/>
-      <c r="AV37" s="87"/>
-      <c r="AW37" s="87"/>
-      <c r="AX37" s="87"/>
-      <c r="AY37" s="87"/>
-      <c r="AZ37" s="87"/>
-      <c r="BA37" s="87"/>
-      <c r="BB37" s="87"/>
-      <c r="BC37" s="87"/>
-      <c r="BD37" s="87"/>
-      <c r="BE37" s="87"/>
-      <c r="BF37" s="87"/>
-    </row>
-    <row r="38" spans="1:58" ht="15" customHeight="1">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="87"/>
-      <c r="P38" s="87"/>
-      <c r="Q38" s="87"/>
-      <c r="R38" s="87"/>
-      <c r="S38" s="87"/>
-      <c r="T38" s="87"/>
-      <c r="U38" s="87"/>
-      <c r="V38" s="87"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
-      <c r="AA38" s="21"/>
-      <c r="AB38" s="21"/>
-      <c r="AC38" s="87"/>
-      <c r="AD38" s="87"/>
-      <c r="AE38" s="87"/>
-      <c r="AF38" s="87"/>
-      <c r="AG38" s="87"/>
-      <c r="AH38" s="87"/>
-      <c r="AI38" s="87"/>
-      <c r="AJ38" s="87"/>
-      <c r="AK38" s="87"/>
-      <c r="AL38" s="87"/>
-      <c r="AM38" s="87"/>
-      <c r="AN38" s="87"/>
-      <c r="AO38" s="87"/>
-      <c r="AP38" s="87"/>
-      <c r="AQ38" s="87"/>
-      <c r="AR38" s="87"/>
-      <c r="AS38" s="87"/>
-      <c r="AT38" s="87"/>
-      <c r="AU38" s="87"/>
-      <c r="AV38" s="87"/>
-      <c r="AW38" s="87"/>
-      <c r="AX38" s="87"/>
-      <c r="AY38" s="87"/>
-      <c r="AZ38" s="87"/>
-      <c r="BA38" s="87"/>
-      <c r="BB38" s="87"/>
-      <c r="BC38" s="87"/>
-      <c r="BD38" s="87"/>
-      <c r="BE38" s="87"/>
-      <c r="BF38" s="87"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="84"/>
+      <c r="M36" s="84"/>
+      <c r="N36" s="84"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="84"/>
+      <c r="Q36" s="84"/>
+      <c r="R36" s="84"/>
+      <c r="S36" s="84"/>
+      <c r="T36" s="84"/>
+      <c r="U36" s="84"/>
+      <c r="V36" s="84"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="84"/>
+      <c r="AD36" s="84"/>
+      <c r="AE36" s="84"/>
+      <c r="AF36" s="84"/>
+      <c r="AG36" s="84"/>
+      <c r="AH36" s="84"/>
+      <c r="AI36" s="84"/>
+      <c r="AJ36" s="84"/>
+      <c r="AK36" s="84"/>
+      <c r="AL36" s="84"/>
+      <c r="AM36" s="84"/>
+      <c r="AN36" s="84"/>
+      <c r="AO36" s="84"/>
+      <c r="AP36" s="84"/>
+      <c r="AQ36" s="84"/>
+      <c r="AR36" s="84"/>
+      <c r="AS36" s="84"/>
+      <c r="AT36" s="84"/>
+      <c r="AU36" s="84"/>
+      <c r="AV36" s="84"/>
+      <c r="AW36" s="84"/>
+      <c r="AX36" s="84"/>
+      <c r="AY36" s="84"/>
+      <c r="AZ36" s="84"/>
+      <c r="BA36" s="84"/>
+      <c r="BB36" s="84"/>
+      <c r="BC36" s="84"/>
+      <c r="BD36" s="84"/>
+      <c r="BE36" s="84"/>
+      <c r="BF36" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="293">
-    <mergeCell ref="AO38:AS38"/>
-    <mergeCell ref="AT38:AX38"/>
-    <mergeCell ref="AY38:BF38"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="L38:V38"/>
-    <mergeCell ref="W38:AB38"/>
-    <mergeCell ref="AC38:AN38"/>
+  <mergeCells count="277">
     <mergeCell ref="AO36:AS36"/>
     <mergeCell ref="AT36:AX36"/>
     <mergeCell ref="AY36:BF36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:K37"/>
-    <mergeCell ref="L37:V37"/>
-    <mergeCell ref="W37:AB37"/>
-    <mergeCell ref="AC37:AN37"/>
-    <mergeCell ref="AO37:AS37"/>
-    <mergeCell ref="AT37:AX37"/>
-    <mergeCell ref="AY37:BF37"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="C36:K36"/>
     <mergeCell ref="L36:V36"/>
@@ -6045,9 +5783,6 @@
     <mergeCell ref="L22:V22"/>
     <mergeCell ref="W22:AB22"/>
     <mergeCell ref="AC22:AN22"/>
-    <mergeCell ref="AO20:AS20"/>
-    <mergeCell ref="AT20:AX20"/>
-    <mergeCell ref="AY20:BF20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:K21"/>
     <mergeCell ref="L21:V21"/>
@@ -6056,6 +5791,9 @@
     <mergeCell ref="AO21:AS21"/>
     <mergeCell ref="AT21:AX21"/>
     <mergeCell ref="AY21:BF21"/>
+    <mergeCell ref="AO20:AS20"/>
+    <mergeCell ref="AT20:AX20"/>
+    <mergeCell ref="AY20:BF20"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:K20"/>
     <mergeCell ref="L20:V20"/>
@@ -6209,7 +5947,7 @@
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="15" max="57" man="1"/>
-    <brk id="25" max="57" man="1"/>
+    <brk id="23" max="57" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>